--- a/app/config/tables/rounds/forms/rounds/rounds.xlsx
+++ b/app/config/tables/rounds/forms/rounds/rounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4936AF-4421-47C2-91AC-CA86465556FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9B181-746C-43A5-A50B-7141739287BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -450,7 +450,17 @@
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -749,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC090B2B-32F1-4207-9F55-EF712C3EAE7B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -922,11 +932,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:R604"/>
+  <dimension ref="A1:R670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,70 +1101,268 @@
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1168,8 +1376,21 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E45" s="1"/>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1183,8 +1404,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1198,7 +1418,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="5:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1212,39 +1432,13 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="5:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="5:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -1254,11 +1448,10 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="5:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -1268,17 +1461,36 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -1288,11 +1500,10 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -1302,8 +1513,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1317,8 +1527,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E57" s="1"/>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1330,41 +1539,14 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -1374,11 +1556,10 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -1388,18 +1569,131 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="5:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="6:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="6:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="6:18" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -1408,13 +1702,11 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -1423,13 +1715,11 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -1438,9 +1728,8 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -1453,39 +1742,8 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -1498,9 +1756,8 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -1513,12 +1770,40 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="83" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -1527,12 +1812,12 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -1541,12 +1826,12 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -1555,12 +1840,12 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -1569,40 +1854,14 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -1611,13 +1870,11 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -1626,13 +1883,24 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-    </row>
-    <row r="92" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -1641,13 +1909,11 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -1656,13 +1922,11 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -1671,9 +1935,8 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -1686,9 +1949,8 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95" s="1"/>
-    </row>
-    <row r="96" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -1700,44 +1962,14 @@
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-    </row>
-    <row r="97" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-    </row>
-    <row r="98" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-    </row>
-    <row r="99" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -1746,12 +1978,34 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-    </row>
-    <row r="100" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F100" s="1"/>
-    </row>
-    <row r="102" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -1763,9 +2017,8 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-    </row>
-    <row r="103" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -1777,9 +2030,8 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-    </row>
-    <row r="104" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -1791,12 +2043,12 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-    </row>
-    <row r="105" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -1805,12 +2057,12 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-    </row>
-    <row r="106" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -1818,43 +2070,14 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-    </row>
-    <row r="107" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-    </row>
-    <row r="108" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-    </row>
-    <row r="109" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -1864,10 +2087,33 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F110" s="1"/>
-    </row>
-    <row r="112" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -1879,9 +2125,8 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-    </row>
-    <row r="113" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -1893,9 +2138,8 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-    </row>
-    <row r="114" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -1907,12 +2151,12 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-    </row>
-    <row r="115" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -1921,37 +2165,8 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-    </row>
-    <row r="116" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-    </row>
-    <row r="117" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-    </row>
-    <row r="118" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -1964,9 +2179,8 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-    </row>
-    <row r="119" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -1980,13 +2194,39 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F120" s="1"/>
-    </row>
-    <row r="122" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -1995,12 +2235,12 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-    </row>
-    <row r="123" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -2009,12 +2249,12 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-    </row>
-    <row r="124" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -2023,12 +2263,12 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-    </row>
-    <row r="125" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -2037,41 +2277,14 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-    </row>
-    <row r="126" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-    </row>
-    <row r="127" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-    </row>
-    <row r="128" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -2080,13 +2293,37 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-    </row>
-    <row r="131" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -2095,13 +2332,11 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-    </row>
-    <row r="132" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -2110,13 +2345,11 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-    </row>
-    <row r="133" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -2125,9 +2358,8 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-    </row>
-    <row r="134" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -2140,9 +2372,8 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-    </row>
-    <row r="135" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -2154,44 +2385,14 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-    </row>
-    <row r="136" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-    </row>
-    <row r="137" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-    </row>
-    <row r="138" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -2200,12 +2401,34 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-    </row>
-    <row r="139" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F139" s="1"/>
-    </row>
-    <row r="141" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -2217,9 +2440,8 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-    </row>
-    <row r="142" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -2231,9 +2453,8 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-    </row>
-    <row r="143" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -2245,12 +2466,12 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-    </row>
-    <row r="144" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -2259,12 +2480,12 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-    </row>
-    <row r="145" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -2272,43 +2493,14 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-    </row>
-    <row r="146" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-    </row>
-    <row r="147" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-    </row>
-    <row r="148" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -2318,10 +2510,33 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F149" s="1"/>
-    </row>
-    <row r="151" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -2333,9 +2548,8 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-    </row>
-    <row r="152" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -2347,9 +2561,8 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-    </row>
-    <row r="153" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -2361,12 +2574,12 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-    </row>
-    <row r="154" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -2375,37 +2588,8 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-    </row>
-    <row r="155" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-    </row>
-    <row r="156" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-    </row>
-    <row r="157" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -2418,9 +2602,8 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-    </row>
-    <row r="158" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -2434,13 +2617,39 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F159" s="1"/>
-    </row>
-    <row r="161" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -2449,12 +2658,12 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-    </row>
-    <row r="162" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -2463,12 +2672,12 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-    </row>
-    <row r="163" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -2477,12 +2686,12 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-    </row>
-    <row r="164" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -2490,42 +2699,14 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-    </row>
-    <row r="165" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-    </row>
-    <row r="166" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-    </row>
-    <row r="167" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -2534,13 +2715,37 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-    </row>
-    <row r="170" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -2549,13 +2754,11 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-    </row>
-    <row r="171" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -2564,13 +2767,11 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-    </row>
-    <row r="172" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -2579,9 +2780,8 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-    </row>
-    <row r="173" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -2594,24 +2794,8 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-    </row>
-    <row r="174" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-    </row>
-    <row r="175" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -2623,378 +2807,50 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-    </row>
-    <row r="176" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-    </row>
-    <row r="177" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-    </row>
-    <row r="178" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F178" s="1"/>
-    </row>
-    <row r="180" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-    </row>
-    <row r="181" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-    </row>
-    <row r="182" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="1"/>
-      <c r="L182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-    </row>
-    <row r="183" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="1"/>
-      <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-    </row>
-    <row r="184" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-    </row>
-    <row r="185" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-    </row>
-    <row r="186" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-    </row>
-    <row r="187" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F188" s="1"/>
-    </row>
-    <row r="190" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-    </row>
-    <row r="191" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-    </row>
-    <row r="192" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-    </row>
-    <row r="193" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
     </row>
     <row r="194" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-    </row>
-    <row r="195" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-    </row>
-    <row r="196" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
     </row>
     <row r="197" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
     </row>
     <row r="198" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F198" s="1"/>
     </row>
-    <row r="200" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-    </row>
     <row r="201" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
     </row>
     <row r="202" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
     </row>
     <row r="203" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-    </row>
-    <row r="204" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
-      <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
-      <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-    </row>
-    <row r="205" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-      <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
-      <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-    </row>
-    <row r="206" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
+    </row>
+    <row r="208" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
     </row>
     <row r="209" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -3009,7 +2865,6 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -3024,7 +2879,6 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -3039,7 +2893,6 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -3078,39 +2931,37 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
     </row>
     <row r="215" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-    </row>
-    <row r="216" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
     </row>
     <row r="217" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
     </row>
     <row r="219" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F219" s="1"/>
@@ -3172,6 +3023,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -3186,6 +3038,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -3194,28 +3047,14 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
     </row>
     <row r="225" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="I225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
     </row>
     <row r="227" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -3224,764 +3063,890 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+    </row>
+    <row r="228" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+    </row>
+    <row r="229" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
     </row>
     <row r="231" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+    </row>
+    <row r="232" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+    </row>
+    <row r="236" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+    </row>
+    <row r="237" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+    </row>
+    <row r="238" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="1"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
     </row>
     <row r="239" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
-    </row>
-    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+    </row>
+    <row r="240" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+    </row>
+    <row r="241" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F241" s="1"/>
+      <c r="G241" s="1"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="1"/>
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+      <c r="O241" s="1"/>
+      <c r="P241" s="1"/>
+      <c r="Q241" s="1"/>
+      <c r="R241" s="1"/>
+    </row>
+    <row r="242" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+    </row>
+    <row r="243" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
+    </row>
+    <row r="244" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F244" s="1"/>
+    </row>
+    <row r="246" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
-    </row>
-    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+    </row>
+    <row r="247" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+    </row>
+    <row r="248" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+    </row>
+    <row r="249" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+    </row>
+    <row r="250" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
-    </row>
-    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+    </row>
+    <row r="251" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+    </row>
+    <row r="252" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+    </row>
+    <row r="253" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+    </row>
+    <row r="254" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-    </row>
-    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F255" s="1"/>
-    </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I291" s="3"/>
-    </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I292" s="3"/>
-    </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I293" s="3"/>
-    </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I294" s="3"/>
-    </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I295" s="3"/>
-    </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I296" s="3"/>
-    </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I297" s="3"/>
-    </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I298" s="3"/>
-    </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I299" s="3"/>
-    </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I300" s="3"/>
-    </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I301" s="3"/>
-    </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I302" s="3"/>
-    </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I303" s="3"/>
-    </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I304" s="3"/>
-    </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I306" s="3"/>
-    </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I307" s="3"/>
-    </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I308" s="3"/>
-    </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I309" s="3"/>
-    </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I310" s="3"/>
-    </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I311" s="3"/>
-    </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I312" s="3"/>
-    </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I313" s="3"/>
-    </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I314" s="3"/>
-    </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I315" s="3"/>
-    </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I316" s="3"/>
-    </row>
-    <row r="318" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F256" s="1"/>
+      <c r="G256" s="1"/>
+      <c r="H256" s="1"/>
+      <c r="J256" s="1"/>
+      <c r="K256" s="1"/>
+      <c r="L256" s="1"/>
+      <c r="M256" s="1"/>
+      <c r="N256" s="1"/>
+      <c r="O256" s="1"/>
+      <c r="P256" s="1"/>
+      <c r="Q256" s="1"/>
+      <c r="R256" s="1"/>
+    </row>
+    <row r="257" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F257" s="1"/>
+      <c r="G257" s="1"/>
+      <c r="H257" s="1"/>
+      <c r="J257" s="1"/>
+      <c r="K257" s="1"/>
+      <c r="L257" s="1"/>
+      <c r="M257" s="1"/>
+      <c r="N257" s="1"/>
+      <c r="O257" s="1"/>
+      <c r="P257" s="1"/>
+      <c r="Q257" s="1"/>
+      <c r="R257" s="1"/>
+    </row>
+    <row r="258" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+    </row>
+    <row r="259" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
+    </row>
+    <row r="260" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="1"/>
+      <c r="R260" s="1"/>
+    </row>
+    <row r="261" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
+      <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
+    </row>
+    <row r="262" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+    </row>
+    <row r="263" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+    </row>
+    <row r="264" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F264" s="1"/>
+    </row>
+    <row r="266" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="J266" s="1"/>
+      <c r="K266" s="1"/>
+      <c r="L266" s="1"/>
+      <c r="M266" s="1"/>
+      <c r="N266" s="1"/>
+      <c r="O266" s="1"/>
+      <c r="P266" s="1"/>
+      <c r="Q266" s="1"/>
+      <c r="R266" s="1"/>
+    </row>
+    <row r="267" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="J267" s="1"/>
+      <c r="K267" s="1"/>
+      <c r="L267" s="1"/>
+      <c r="M267" s="1"/>
+      <c r="N267" s="1"/>
+      <c r="O267" s="1"/>
+      <c r="P267" s="1"/>
+      <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
+    </row>
+    <row r="268" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+    </row>
+    <row r="269" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
+    </row>
+    <row r="270" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F270" s="1"/>
+      <c r="G270" s="1"/>
+      <c r="H270" s="1"/>
+      <c r="J270" s="1"/>
+      <c r="K270" s="1"/>
+      <c r="L270" s="1"/>
+      <c r="M270" s="1"/>
+      <c r="N270" s="1"/>
+      <c r="O270" s="1"/>
+      <c r="P270" s="1"/>
+      <c r="Q270" s="1"/>
+      <c r="R270" s="1"/>
+    </row>
+    <row r="271" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+    </row>
+    <row r="272" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+    </row>
+    <row r="275" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F275" s="1"/>
+      <c r="G275" s="1"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1"/>
+      <c r="K275" s="1"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+      <c r="N275" s="1"/>
+      <c r="O275" s="1"/>
+      <c r="P275" s="1"/>
+      <c r="Q275" s="1"/>
+      <c r="R275" s="1"/>
+    </row>
+    <row r="276" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F276" s="1"/>
+      <c r="G276" s="1"/>
+      <c r="H276" s="1"/>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1"/>
+      <c r="K276" s="1"/>
+      <c r="L276" s="1"/>
+      <c r="M276" s="1"/>
+      <c r="N276" s="1"/>
+      <c r="O276" s="1"/>
+      <c r="P276" s="1"/>
+      <c r="Q276" s="1"/>
+      <c r="R276" s="1"/>
+    </row>
+    <row r="277" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F277" s="1"/>
+      <c r="G277" s="1"/>
+      <c r="H277" s="1"/>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
+      <c r="N277" s="1"/>
+      <c r="O277" s="1"/>
+      <c r="P277" s="1"/>
+      <c r="Q277" s="1"/>
+      <c r="R277" s="1"/>
+    </row>
+    <row r="278" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+    </row>
+    <row r="279" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="1"/>
+    </row>
+    <row r="280" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="H280" s="1"/>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1"/>
+      <c r="K280" s="1"/>
+      <c r="L280" s="1"/>
+      <c r="M280" s="1"/>
+      <c r="N280" s="1"/>
+      <c r="O280" s="1"/>
+      <c r="P280" s="1"/>
+      <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
+    </row>
+    <row r="281" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="I281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+    </row>
+    <row r="282" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+    </row>
+    <row r="283" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F283" s="1"/>
+    </row>
+    <row r="285" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+      <c r="N285" s="1"/>
+      <c r="O285" s="1"/>
+      <c r="P285" s="1"/>
+      <c r="Q285" s="1"/>
+      <c r="R285" s="1"/>
+    </row>
+    <row r="286" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F286" s="1"/>
+      <c r="G286" s="1"/>
+      <c r="H286" s="1"/>
+      <c r="J286" s="1"/>
+      <c r="K286" s="1"/>
+      <c r="L286" s="1"/>
+      <c r="M286" s="1"/>
+      <c r="N286" s="1"/>
+      <c r="O286" s="1"/>
+      <c r="P286" s="1"/>
+      <c r="Q286" s="1"/>
+      <c r="R286" s="1"/>
+    </row>
+    <row r="287" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+    </row>
+    <row r="288" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+    </row>
+    <row r="289" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F289" s="1"/>
+      <c r="G289" s="1"/>
+      <c r="H289" s="1"/>
+      <c r="J289" s="1"/>
+      <c r="K289" s="1"/>
+      <c r="L289" s="1"/>
+      <c r="M289" s="1"/>
+      <c r="N289" s="1"/>
+      <c r="O289" s="1"/>
+      <c r="P289" s="1"/>
+      <c r="Q289" s="1"/>
+      <c r="R289" s="1"/>
+    </row>
+    <row r="290" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+    </row>
+    <row r="291" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F291" s="1"/>
+      <c r="G291" s="1"/>
+      <c r="H291" s="1"/>
+      <c r="I291" s="1"/>
+      <c r="J291" s="1"/>
+      <c r="K291" s="1"/>
+      <c r="L291" s="1"/>
+      <c r="M291" s="1"/>
+      <c r="N291" s="1"/>
+      <c r="O291" s="1"/>
+      <c r="P291" s="1"/>
+      <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+    </row>
+    <row r="293" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+    </row>
+    <row r="297" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="305" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F305" s="1"/>
+    </row>
+    <row r="312" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F312" s="1"/>
+    </row>
+    <row r="315" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F316" s="1"/>
+    </row>
+    <row r="319" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F320" s="1"/>
+      <c r="G320" s="1"/>
+    </row>
+    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F321" s="1"/>
     </row>
-    <row r="322" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F324" s="1"/>
-      <c r="G324" s="1"/>
-      <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
-      <c r="J324" s="1"/>
-      <c r="K324" s="1"/>
-      <c r="L324" s="1"/>
-      <c r="M324" s="1"/>
-      <c r="N324" s="1"/>
-      <c r="O324" s="1"/>
-      <c r="P324" s="1"/>
-    </row>
-    <row r="326" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
-      <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
-      <c r="K326" s="1"/>
-      <c r="L326" s="1"/>
-      <c r="M326" s="1"/>
-      <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
-    </row>
-    <row r="327" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E327" s="1"/>
-      <c r="F327" s="1"/>
-      <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
-      <c r="K327" s="1"/>
-      <c r="L327" s="1"/>
-      <c r="M327" s="1"/>
-      <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
-    </row>
-    <row r="328" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F328" s="1"/>
-      <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
-      <c r="K328" s="1"/>
-      <c r="L328" s="1"/>
-      <c r="M328" s="1"/>
-      <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
-      <c r="P328" s="1"/>
-    </row>
-    <row r="329" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F329" s="1"/>
-      <c r="G329" s="1"/>
-      <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
-      <c r="J329" s="1"/>
-      <c r="K329" s="1"/>
-      <c r="L329" s="1"/>
-      <c r="M329" s="1"/>
-      <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
-      <c r="P329" s="1"/>
-    </row>
-    <row r="330" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F330" s="1"/>
-      <c r="G330" s="1"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
-      <c r="K330" s="1"/>
-      <c r="L330" s="1"/>
-      <c r="M330" s="1"/>
-      <c r="N330" s="1"/>
-      <c r="O330" s="1"/>
-      <c r="P330" s="1"/>
-    </row>
-    <row r="331" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F331" s="1"/>
-      <c r="G331" s="1"/>
-      <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
-      <c r="J331" s="1"/>
-      <c r="K331" s="1"/>
-      <c r="L331" s="1"/>
-      <c r="M331" s="1"/>
-      <c r="N331" s="1"/>
-      <c r="O331" s="1"/>
-      <c r="P331" s="1"/>
-    </row>
-    <row r="332" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F332" s="1"/>
-      <c r="G332" s="1"/>
-      <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-      <c r="K332" s="1"/>
-      <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
-      <c r="N332" s="1"/>
-      <c r="O332" s="1"/>
-      <c r="P332" s="1"/>
-    </row>
-    <row r="333" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F333" s="1"/>
-      <c r="G333" s="1"/>
-      <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
-      <c r="K333" s="1"/>
-      <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
-      <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
-      <c r="P333" s="1"/>
-    </row>
-    <row r="334" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-      <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
-      <c r="K334" s="1"/>
-      <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
-      <c r="N334" s="1"/>
-      <c r="O334" s="1"/>
-      <c r="P334" s="1"/>
-    </row>
-    <row r="335" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F335" s="1"/>
-      <c r="G335" s="1"/>
-      <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
-      <c r="K335" s="1"/>
-      <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
-      <c r="N335" s="1"/>
-      <c r="O335" s="1"/>
-      <c r="P335" s="1"/>
-    </row>
-    <row r="336" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
-      <c r="G336" s="1"/>
-      <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
-      <c r="K336" s="1"/>
-      <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
-      <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
-    </row>
-    <row r="337" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="1"/>
-      <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
-      <c r="K337" s="1"/>
-      <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
-      <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
-    </row>
-    <row r="338" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F338" s="1"/>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
-      <c r="K338" s="1"/>
-      <c r="L338" s="1"/>
-      <c r="M338" s="1"/>
-      <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
-      <c r="P338" s="1"/>
-    </row>
-    <row r="339" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F339" s="1"/>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
-      <c r="K339" s="1"/>
-      <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
-      <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-      <c r="P339" s="1"/>
-    </row>
-    <row r="340" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F340" s="1"/>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
-      <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
-      <c r="K340" s="1"/>
-      <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
-      <c r="N340" s="1"/>
-      <c r="O340" s="1"/>
-      <c r="P340" s="1"/>
-    </row>
-    <row r="341" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F341" s="1"/>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
-      <c r="J341" s="1"/>
-      <c r="K341" s="1"/>
-      <c r="L341" s="1"/>
-      <c r="M341" s="1"/>
-      <c r="N341" s="1"/>
-      <c r="O341" s="1"/>
-      <c r="P341" s="1"/>
-    </row>
-    <row r="354" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F354" s="1"/>
-      <c r="G354" s="1"/>
-      <c r="H354" s="1"/>
-      <c r="I354" s="1"/>
-      <c r="J354" s="1"/>
-      <c r="K354" s="1"/>
-      <c r="L354" s="1"/>
-      <c r="M354" s="1"/>
-      <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
-      <c r="P354" s="1"/>
-      <c r="Q354" s="1"/>
-    </row>
-    <row r="355" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F355" s="1"/>
-      <c r="G355" s="1"/>
-      <c r="H355" s="1"/>
-      <c r="I355" s="1"/>
-      <c r="J355" s="1"/>
-      <c r="K355" s="1"/>
-      <c r="L355" s="1"/>
-      <c r="M355" s="1"/>
-      <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
-      <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
-    </row>
-    <row r="356" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F356" s="1"/>
-      <c r="G356" s="1"/>
-      <c r="H356" s="1"/>
-      <c r="I356" s="1"/>
-      <c r="J356" s="1"/>
-      <c r="K356" s="1"/>
-      <c r="L356" s="1"/>
-      <c r="M356" s="1"/>
-      <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
-      <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
-    </row>
-    <row r="357" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F357" s="1"/>
-      <c r="G357" s="1"/>
-      <c r="H357" s="1"/>
-      <c r="I357" s="1"/>
-      <c r="J357" s="1"/>
-      <c r="K357" s="1"/>
-      <c r="L357" s="1"/>
-      <c r="M357" s="1"/>
-      <c r="N357" s="1"/>
-      <c r="O357" s="1"/>
-      <c r="P357" s="1"/>
-      <c r="Q357" s="1"/>
-    </row>
-    <row r="358" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F358" s="1"/>
-      <c r="G358" s="1"/>
-      <c r="H358" s="1"/>
-      <c r="I358" s="1"/>
-      <c r="J358" s="1"/>
-      <c r="K358" s="1"/>
-      <c r="L358" s="1"/>
-      <c r="M358" s="1"/>
-      <c r="N358" s="1"/>
-      <c r="O358" s="1"/>
-      <c r="P358" s="1"/>
-      <c r="Q358" s="1"/>
-    </row>
-    <row r="359" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F359" s="1"/>
-      <c r="G359" s="1"/>
-      <c r="H359" s="1"/>
-      <c r="I359" s="1"/>
-      <c r="J359" s="1"/>
-      <c r="K359" s="1"/>
-      <c r="L359" s="1"/>
-      <c r="M359" s="1"/>
-      <c r="N359" s="1"/>
-      <c r="O359" s="1"/>
-      <c r="P359" s="1"/>
-      <c r="Q359" s="1"/>
-    </row>
-    <row r="360" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F360" s="1"/>
-      <c r="G360" s="1"/>
-      <c r="H360" s="1"/>
-      <c r="I360" s="1"/>
-      <c r="J360" s="1"/>
-      <c r="K360" s="1"/>
-      <c r="L360" s="1"/>
-      <c r="M360" s="1"/>
-      <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
-      <c r="P360" s="1"/>
-      <c r="Q360" s="1"/>
-    </row>
-    <row r="361" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F361" s="1"/>
-      <c r="G361" s="1"/>
-      <c r="H361" s="1"/>
-      <c r="I361" s="1"/>
-      <c r="J361" s="1"/>
-      <c r="K361" s="1"/>
-      <c r="L361" s="1"/>
-      <c r="M361" s="1"/>
-      <c r="N361" s="1"/>
-      <c r="O361" s="1"/>
-      <c r="P361" s="1"/>
-      <c r="Q361" s="1"/>
-    </row>
-    <row r="364" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F364" s="1"/>
-      <c r="G364" s="1"/>
-      <c r="H364" s="1"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="L364" s="1"/>
-      <c r="M364" s="1"/>
-      <c r="N364" s="1"/>
-      <c r="O364" s="1"/>
-      <c r="P364" s="1"/>
-      <c r="Q364" s="1"/>
-    </row>
-    <row r="365" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F365" s="1"/>
-      <c r="G365" s="1"/>
-      <c r="H365" s="1"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="L365" s="1"/>
-      <c r="M365" s="1"/>
-      <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
-      <c r="P365" s="1"/>
-      <c r="Q365" s="1"/>
-    </row>
-    <row r="366" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
-      <c r="M366" s="1"/>
-      <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
-      <c r="P366" s="1"/>
-      <c r="Q366" s="1"/>
-    </row>
-    <row r="367" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
-      <c r="H367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
-      <c r="L367" s="1"/>
-      <c r="M367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
-      <c r="P367" s="1"/>
-      <c r="Q367" s="1"/>
-    </row>
-    <row r="368" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F368" s="1"/>
-      <c r="G368" s="1"/>
-      <c r="H368" s="1"/>
-      <c r="J368" s="1"/>
-      <c r="K368" s="1"/>
-      <c r="L368" s="1"/>
-      <c r="M368" s="1"/>
-      <c r="N368" s="1"/>
-      <c r="O368" s="1"/>
-      <c r="P368" s="1"/>
-      <c r="Q368" s="1"/>
-    </row>
-    <row r="369" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F369" s="1"/>
-      <c r="G369" s="1"/>
-      <c r="H369" s="1"/>
-      <c r="J369" s="1"/>
-      <c r="K369" s="1"/>
-      <c r="L369" s="1"/>
-      <c r="M369" s="1"/>
-      <c r="N369" s="1"/>
-      <c r="O369" s="1"/>
-      <c r="P369" s="1"/>
-    </row>
-    <row r="370" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F370" s="1"/>
-      <c r="G370" s="1"/>
-      <c r="H370" s="1"/>
-      <c r="I370" s="1"/>
-      <c r="J370" s="1"/>
-      <c r="K370" s="1"/>
-      <c r="L370" s="1"/>
-      <c r="M370" s="1"/>
-      <c r="N370" s="1"/>
-      <c r="O370" s="1"/>
-      <c r="P370" s="1"/>
-      <c r="Q370" s="1"/>
-    </row>
-    <row r="371" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F371" s="1"/>
-      <c r="G371" s="1"/>
-      <c r="H371" s="1"/>
-      <c r="I371" s="1"/>
-      <c r="J371" s="1"/>
-      <c r="K371" s="1"/>
-      <c r="L371" s="1"/>
-      <c r="M371" s="1"/>
-      <c r="N371" s="1"/>
-      <c r="O371" s="1"/>
-      <c r="P371" s="1"/>
-      <c r="Q371" s="1"/>
-    </row>
-    <row r="373" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F373" s="1"/>
-      <c r="G373" s="1"/>
-      <c r="H373" s="1"/>
-      <c r="I373" s="1"/>
-      <c r="J373" s="1"/>
-      <c r="K373" s="1"/>
-      <c r="L373" s="1"/>
-      <c r="M373" s="1"/>
-      <c r="N373" s="1"/>
-      <c r="O373" s="1"/>
-      <c r="P373" s="1"/>
-      <c r="Q373" s="1"/>
-    </row>
-    <row r="374" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F374" s="1"/>
-      <c r="G374" s="1"/>
-      <c r="H374" s="1"/>
-      <c r="I374" s="1"/>
-      <c r="J374" s="1"/>
-      <c r="K374" s="1"/>
-      <c r="L374" s="1"/>
-      <c r="M374" s="1"/>
-      <c r="N374" s="1"/>
-      <c r="O374" s="1"/>
-      <c r="P374" s="1"/>
-      <c r="Q374" s="1"/>
-    </row>
-    <row r="375" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F375" s="1"/>
-      <c r="G375" s="1"/>
-      <c r="H375" s="1"/>
-      <c r="I375" s="1"/>
-      <c r="J375" s="1"/>
-      <c r="K375" s="1"/>
-      <c r="L375" s="1"/>
-      <c r="M375" s="1"/>
-      <c r="N375" s="1"/>
-      <c r="O375" s="1"/>
-      <c r="P375" s="1"/>
-      <c r="Q375" s="1"/>
-    </row>
-    <row r="376" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F376" s="1"/>
-      <c r="G376" s="1"/>
-      <c r="H376" s="1"/>
-      <c r="I376" s="1"/>
-      <c r="J376" s="1"/>
-      <c r="K376" s="1"/>
-      <c r="L376" s="1"/>
-      <c r="M376" s="1"/>
-      <c r="N376" s="1"/>
-      <c r="O376" s="1"/>
-      <c r="P376" s="1"/>
-      <c r="Q376" s="1"/>
-    </row>
-    <row r="377" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F377" s="1"/>
-      <c r="G377" s="1"/>
-      <c r="H377" s="1"/>
-      <c r="I377" s="1"/>
-      <c r="J377" s="1"/>
-      <c r="K377" s="1"/>
-      <c r="L377" s="1"/>
-      <c r="M377" s="1"/>
-      <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
-      <c r="P377" s="1"/>
-      <c r="Q377" s="1"/>
-    </row>
-    <row r="378" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F378" s="1"/>
-      <c r="G378" s="1"/>
-      <c r="H378" s="1"/>
-      <c r="I378" s="1"/>
-      <c r="J378" s="1"/>
-      <c r="K378" s="1"/>
-      <c r="L378" s="1"/>
-      <c r="M378" s="1"/>
-      <c r="N378" s="1"/>
-      <c r="O378" s="1"/>
-      <c r="P378" s="1"/>
-      <c r="Q378" s="1"/>
-    </row>
-    <row r="379" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F379" s="1"/>
-      <c r="G379" s="1"/>
-      <c r="H379" s="1"/>
-      <c r="I379" s="1"/>
-      <c r="J379" s="1"/>
-      <c r="K379" s="1"/>
-      <c r="L379" s="1"/>
-      <c r="M379" s="1"/>
-      <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
-      <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-    </row>
-    <row r="380" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F380" s="1"/>
-      <c r="G380" s="1"/>
-      <c r="H380" s="1"/>
-      <c r="I380" s="1"/>
-      <c r="J380" s="1"/>
-      <c r="K380" s="1"/>
-      <c r="L380" s="1"/>
-      <c r="M380" s="1"/>
-      <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
-      <c r="P380" s="1"/>
-      <c r="Q380" s="1"/>
-    </row>
-    <row r="381" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F381" s="1"/>
-    </row>
-    <row r="383" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F383" s="1"/>
-      <c r="G383" s="1"/>
-      <c r="H383" s="1"/>
-      <c r="J383" s="1"/>
-      <c r="K383" s="1"/>
-      <c r="L383" s="1"/>
-      <c r="M383" s="1"/>
-      <c r="N383" s="1"/>
-      <c r="O383" s="1"/>
-      <c r="P383" s="1"/>
-      <c r="Q383" s="1"/>
-    </row>
-    <row r="384" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F384" s="1"/>
-      <c r="G384" s="1"/>
-      <c r="H384" s="1"/>
-      <c r="J384" s="1"/>
-      <c r="K384" s="1"/>
-      <c r="L384" s="1"/>
-      <c r="M384" s="1"/>
-      <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
-      <c r="P384" s="1"/>
-      <c r="Q384" s="1"/>
-    </row>
-    <row r="385" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F385" s="1"/>
-      <c r="G385" s="1"/>
-      <c r="H385" s="1"/>
-      <c r="J385" s="1"/>
-      <c r="K385" s="1"/>
-      <c r="L385" s="1"/>
-      <c r="M385" s="1"/>
-      <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
-      <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-    </row>
-    <row r="386" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F386" s="1"/>
-      <c r="G386" s="1"/>
-      <c r="H386" s="1"/>
-      <c r="J386" s="1"/>
-      <c r="K386" s="1"/>
-      <c r="L386" s="1"/>
-      <c r="M386" s="1"/>
-      <c r="N386" s="1"/>
-      <c r="O386" s="1"/>
-      <c r="P386" s="1"/>
-      <c r="Q386" s="1"/>
-    </row>
-    <row r="387" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357" s="3"/>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I358" s="3"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="3"/>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I360" s="3"/>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361" s="3"/>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I362" s="3"/>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363" s="3"/>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364" s="3"/>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365" s="3"/>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I366" s="3"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367" s="3"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" s="3"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" s="3"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" s="3"/>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372" s="3"/>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373" s="3"/>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I374" s="3"/>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375" s="3"/>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I376" s="3"/>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377" s="3"/>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I378" s="3"/>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379" s="3"/>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I380" s="3"/>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="3"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382" s="3"/>
+    </row>
+    <row r="384" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F387" s="1"/>
-      <c r="G387" s="1"/>
-      <c r="H387" s="1"/>
-      <c r="J387" s="1"/>
-      <c r="K387" s="1"/>
-      <c r="L387" s="1"/>
-      <c r="M387" s="1"/>
-      <c r="N387" s="1"/>
-      <c r="O387" s="1"/>
-      <c r="P387" s="1"/>
-      <c r="Q387" s="1"/>
-    </row>
-    <row r="388" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
-      <c r="M388" s="1"/>
-      <c r="N388" s="1"/>
-      <c r="O388" s="1"/>
-      <c r="P388" s="1"/>
-      <c r="Q388" s="1"/>
-    </row>
-    <row r="389" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F389" s="1"/>
-      <c r="G389" s="1"/>
-      <c r="H389" s="1"/>
-      <c r="I389" s="1"/>
-      <c r="J389" s="1"/>
-      <c r="K389" s="1"/>
-      <c r="L389" s="1"/>
-      <c r="M389" s="1"/>
-      <c r="N389" s="1"/>
-      <c r="O389" s="1"/>
-      <c r="P389" s="1"/>
-      <c r="Q389" s="1"/>
-    </row>
-    <row r="390" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
@@ -3994,13 +3959,26 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
     </row>
-    <row r="391" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F391" s="1"/>
-    </row>
-    <row r="393" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E392" s="1"/>
+      <c r="F392" s="1"/>
+      <c r="G392" s="1"/>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+      <c r="K392" s="1"/>
+      <c r="L392" s="1"/>
+      <c r="M392" s="1"/>
+      <c r="N392" s="1"/>
+      <c r="O392" s="1"/>
+      <c r="P392" s="1"/>
+    </row>
+    <row r="393" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
+      <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
       <c r="L393" s="1"/>
@@ -4008,12 +3986,12 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
-      <c r="Q393" s="1"/>
-    </row>
-    <row r="394" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
+      <c r="I394" s="1"/>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
       <c r="L394" s="1"/>
@@ -4021,12 +3999,12 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
-      <c r="Q394" s="1"/>
-    </row>
-    <row r="395" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
+      <c r="I395" s="1"/>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
       <c r="L395" s="1"/>
@@ -4034,12 +4012,12 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
-      <c r="Q395" s="1"/>
-    </row>
-    <row r="396" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
+      <c r="I396" s="1"/>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
@@ -4047,12 +4025,12 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
-      <c r="Q396" s="1"/>
-    </row>
-    <row r="397" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
+      <c r="I397" s="1"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
@@ -4060,12 +4038,12 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
-      <c r="Q397" s="1"/>
-    </row>
-    <row r="398" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
+      <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -4073,9 +4051,8 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
-      <c r="Q398" s="1"/>
-    </row>
-    <row r="399" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F399" s="1"/>
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
@@ -4087,9 +4064,8 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
-      <c r="Q399" s="1"/>
-    </row>
-    <row r="400" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
@@ -4102,13 +4078,39 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
     </row>
-    <row r="401" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F401" s="1"/>
-    </row>
-    <row r="403" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G401" s="1"/>
+      <c r="H401" s="1"/>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+      <c r="K401" s="1"/>
+      <c r="L401" s="1"/>
+      <c r="M401" s="1"/>
+      <c r="N401" s="1"/>
+      <c r="O401" s="1"/>
+      <c r="P401" s="1"/>
+    </row>
+    <row r="402" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+    </row>
+    <row r="403" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
       <c r="L403" s="1"/>
@@ -4116,12 +4118,12 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-    </row>
-    <row r="404" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
+      <c r="I404" s="1"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
       <c r="L404" s="1"/>
@@ -4129,12 +4131,12 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-    </row>
-    <row r="405" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F405" s="1"/>
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
       <c r="L405" s="1"/>
@@ -4142,12 +4144,12 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-    </row>
-    <row r="406" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
       <c r="L406" s="1"/>
@@ -4155,12 +4157,12 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-    </row>
-    <row r="407" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
@@ -4168,154 +4170,40 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-    </row>
-    <row r="408" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F408" s="1"/>
-      <c r="G408" s="1"/>
-      <c r="H408" s="1"/>
-      <c r="J408" s="1"/>
-      <c r="K408" s="1"/>
-      <c r="L408" s="1"/>
-      <c r="M408" s="1"/>
-      <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
-      <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-    </row>
-    <row r="409" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F409" s="1"/>
-      <c r="G409" s="1"/>
-      <c r="H409" s="1"/>
-      <c r="I409" s="1"/>
-      <c r="J409" s="1"/>
-      <c r="K409" s="1"/>
-      <c r="L409" s="1"/>
-      <c r="M409" s="1"/>
-      <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
-      <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-    </row>
-    <row r="412" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F412" s="1"/>
-      <c r="G412" s="1"/>
-      <c r="H412" s="1"/>
-      <c r="I412" s="1"/>
-      <c r="J412" s="1"/>
-      <c r="K412" s="1"/>
-      <c r="L412" s="1"/>
-      <c r="M412" s="1"/>
-      <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
-      <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-    </row>
-    <row r="413" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F413" s="1"/>
-      <c r="G413" s="1"/>
-      <c r="H413" s="1"/>
-      <c r="I413" s="1"/>
-      <c r="J413" s="1"/>
-      <c r="K413" s="1"/>
-      <c r="L413" s="1"/>
-      <c r="M413" s="1"/>
-      <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
-      <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-    </row>
-    <row r="414" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F414" s="1"/>
-      <c r="G414" s="1"/>
-      <c r="H414" s="1"/>
-      <c r="I414" s="1"/>
-      <c r="J414" s="1"/>
-      <c r="K414" s="1"/>
-      <c r="L414" s="1"/>
-      <c r="M414" s="1"/>
-      <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
-      <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-    </row>
-    <row r="415" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F415" s="1"/>
-      <c r="G415" s="1"/>
-      <c r="H415" s="1"/>
-      <c r="I415" s="1"/>
-      <c r="J415" s="1"/>
-      <c r="K415" s="1"/>
-      <c r="L415" s="1"/>
-      <c r="M415" s="1"/>
-      <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
-      <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-    </row>
-    <row r="416" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F416" s="1"/>
-      <c r="G416" s="1"/>
-      <c r="H416" s="1"/>
-      <c r="I416" s="1"/>
-      <c r="J416" s="1"/>
-      <c r="K416" s="1"/>
-      <c r="L416" s="1"/>
-      <c r="M416" s="1"/>
-      <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
-      <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-    </row>
-    <row r="417" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F417" s="1"/>
-      <c r="G417" s="1"/>
-      <c r="H417" s="1"/>
-      <c r="I417" s="1"/>
-      <c r="J417" s="1"/>
-      <c r="K417" s="1"/>
-      <c r="L417" s="1"/>
-      <c r="M417" s="1"/>
-      <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
-      <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-    </row>
-    <row r="418" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-    </row>
-    <row r="419" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
     </row>
     <row r="420" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F420" s="1"/>
+      <c r="G420" s="1"/>
+      <c r="H420" s="1"/>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+      <c r="K420" s="1"/>
+      <c r="L420" s="1"/>
+      <c r="M420" s="1"/>
+      <c r="N420" s="1"/>
+      <c r="O420" s="1"/>
+      <c r="P420" s="1"/>
+      <c r="Q420" s="1"/>
+    </row>
+    <row r="421" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F421" s="1"/>
+      <c r="G421" s="1"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1"/>
+      <c r="N421" s="1"/>
+      <c r="O421" s="1"/>
+      <c r="P421" s="1"/>
+      <c r="Q421" s="1"/>
     </row>
     <row r="422" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F422" s="1"/>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
+      <c r="I422" s="1"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
@@ -4329,6 +4217,7 @@
       <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
+      <c r="I423" s="1"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
@@ -4342,6 +4231,7 @@
       <c r="F424" s="1"/>
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
+      <c r="I424" s="1"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
@@ -4355,6 +4245,7 @@
       <c r="F425" s="1"/>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
+      <c r="I425" s="1"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
@@ -4368,6 +4259,7 @@
       <c r="F426" s="1"/>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
+      <c r="I426" s="1"/>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
       <c r="L426" s="1"/>
@@ -4381,6 +4273,7 @@
       <c r="F427" s="1"/>
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
+      <c r="I427" s="1"/>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
       <c r="L427" s="1"/>
@@ -4390,35 +4283,31 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
     </row>
-    <row r="428" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="1"/>
-      <c r="I428" s="1"/>
-      <c r="J428" s="1"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
-      <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
-      <c r="P428" s="1"/>
-      <c r="Q428" s="1"/>
-    </row>
-    <row r="429" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
-      <c r="H429" s="1"/>
-      <c r="I429" s="1"/>
-      <c r="J429" s="1"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1"/>
-      <c r="M429" s="1"/>
-      <c r="N429" s="1"/>
-      <c r="O429" s="1"/>
-      <c r="P429" s="1"/>
-    </row>
     <row r="430" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+      <c r="H430" s="1"/>
+      <c r="J430" s="1"/>
+      <c r="K430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
+      <c r="O430" s="1"/>
+      <c r="P430" s="1"/>
+      <c r="Q430" s="1"/>
+    </row>
+    <row r="431" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+      <c r="H431" s="1"/>
+      <c r="J431" s="1"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
+      <c r="O431" s="1"/>
+      <c r="P431" s="1"/>
+      <c r="Q431" s="1"/>
     </row>
     <row r="432" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F432" s="1"/>
@@ -4470,12 +4359,12 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-      <c r="Q435" s="1"/>
     </row>
     <row r="436" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F436" s="1"/>
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
+      <c r="I436" s="1"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -4489,6 +4378,7 @@
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
+      <c r="I437" s="1"/>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
@@ -4497,20 +4387,6 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-    </row>
-    <row r="438" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1"/>
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
     </row>
     <row r="439" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F439" s="1"/>
@@ -4524,14 +4400,41 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
+      <c r="Q439" s="1"/>
     </row>
     <row r="440" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F440" s="1"/>
+      <c r="G440" s="1"/>
+      <c r="H440" s="1"/>
+      <c r="I440" s="1"/>
+      <c r="J440" s="1"/>
+      <c r="K440" s="1"/>
+      <c r="L440" s="1"/>
+      <c r="M440" s="1"/>
+      <c r="N440" s="1"/>
+      <c r="O440" s="1"/>
+      <c r="P440" s="1"/>
+      <c r="Q440" s="1"/>
+    </row>
+    <row r="441" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F441" s="1"/>
+      <c r="G441" s="1"/>
+      <c r="H441" s="1"/>
+      <c r="I441" s="1"/>
+      <c r="J441" s="1"/>
+      <c r="K441" s="1"/>
+      <c r="L441" s="1"/>
+      <c r="M441" s="1"/>
+      <c r="N441" s="1"/>
+      <c r="O441" s="1"/>
+      <c r="P441" s="1"/>
+      <c r="Q441" s="1"/>
     </row>
     <row r="442" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F442" s="1"/>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
+      <c r="I442" s="1"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
       <c r="L442" s="1"/>
@@ -4545,6 +4448,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
+      <c r="I443" s="1"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
@@ -4558,6 +4462,7 @@
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
+      <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
@@ -4571,6 +4476,7 @@
       <c r="F445" s="1"/>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
+      <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
@@ -4584,6 +4490,7 @@
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
+      <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
@@ -4595,36 +4502,37 @@
     </row>
     <row r="447" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
-      <c r="G447" s="1"/>
-      <c r="H447" s="1"/>
-      <c r="J447" s="1"/>
-      <c r="K447" s="1"/>
-      <c r="L447" s="1"/>
-      <c r="M447" s="1"/>
-      <c r="N447" s="1"/>
-      <c r="O447" s="1"/>
-      <c r="P447" s="1"/>
-      <c r="Q447" s="1"/>
-    </row>
-    <row r="448" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F448" s="1"/>
-      <c r="G448" s="1"/>
-      <c r="H448" s="1"/>
-      <c r="I448" s="1"/>
-      <c r="J448" s="1"/>
-      <c r="K448" s="1"/>
-      <c r="L448" s="1"/>
-      <c r="M448" s="1"/>
-      <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
-      <c r="P448" s="1"/>
-      <c r="Q448" s="1"/>
+    </row>
+    <row r="449" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F449" s="1"/>
+      <c r="G449" s="1"/>
+      <c r="H449" s="1"/>
+      <c r="J449" s="1"/>
+      <c r="K449" s="1"/>
+      <c r="L449" s="1"/>
+      <c r="M449" s="1"/>
+      <c r="N449" s="1"/>
+      <c r="O449" s="1"/>
+      <c r="P449" s="1"/>
+      <c r="Q449" s="1"/>
+    </row>
+    <row r="450" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F450" s="1"/>
+      <c r="G450" s="1"/>
+      <c r="H450" s="1"/>
+      <c r="J450" s="1"/>
+      <c r="K450" s="1"/>
+      <c r="L450" s="1"/>
+      <c r="M450" s="1"/>
+      <c r="N450" s="1"/>
+      <c r="O450" s="1"/>
+      <c r="P450" s="1"/>
+      <c r="Q450" s="1"/>
     </row>
     <row r="451" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
-      <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
@@ -4638,7 +4546,6 @@
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
@@ -4652,7 +4559,6 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
@@ -4666,7 +4572,6 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
-      <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
@@ -4702,38 +4607,35 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
-      <c r="Q456" s="1"/>
     </row>
     <row r="457" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
-      <c r="H457" s="1"/>
-      <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
-      <c r="K457" s="1"/>
-      <c r="L457" s="1"/>
-      <c r="M457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-    </row>
-    <row r="458" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F458" s="1"/>
-      <c r="G458" s="1"/>
-      <c r="H458" s="1"/>
-      <c r="I458" s="1"/>
-      <c r="J458" s="1"/>
-      <c r="K458" s="1"/>
-      <c r="L458" s="1"/>
-      <c r="M458" s="1"/>
-      <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
-      <c r="P458" s="1"/>
-      <c r="Q458" s="1"/>
     </row>
     <row r="459" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F459" s="1"/>
+      <c r="G459" s="1"/>
+      <c r="H459" s="1"/>
+      <c r="J459" s="1"/>
+      <c r="K459" s="1"/>
+      <c r="L459" s="1"/>
+      <c r="M459" s="1"/>
+      <c r="N459" s="1"/>
+      <c r="O459" s="1"/>
+      <c r="P459" s="1"/>
+      <c r="Q459" s="1"/>
+    </row>
+    <row r="460" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F460" s="1"/>
+      <c r="G460" s="1"/>
+      <c r="H460" s="1"/>
+      <c r="J460" s="1"/>
+      <c r="K460" s="1"/>
+      <c r="L460" s="1"/>
+      <c r="M460" s="1"/>
+      <c r="N460" s="1"/>
+      <c r="O460" s="1"/>
+      <c r="P460" s="1"/>
+      <c r="Q460" s="1"/>
     </row>
     <row r="461" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F461" s="1"/>
@@ -4791,6 +4693,7 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
+      <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -4804,6 +4707,7 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
+      <c r="I466" s="1"/>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -4811,37 +4715,35 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-      <c r="Q466" s="1"/>
     </row>
     <row r="467" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F467" s="1"/>
-      <c r="G467" s="1"/>
-      <c r="H467" s="1"/>
-      <c r="I467" s="1"/>
-      <c r="J467" s="1"/>
-      <c r="K467" s="1"/>
-      <c r="L467" s="1"/>
-      <c r="M467" s="1"/>
-      <c r="N467" s="1"/>
-      <c r="O467" s="1"/>
-      <c r="P467" s="1"/>
-      <c r="Q467" s="1"/>
-    </row>
-    <row r="468" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
-      <c r="I468" s="1"/>
-      <c r="J468" s="1"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1"/>
-      <c r="M468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
     </row>
     <row r="469" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F469" s="1"/>
+      <c r="G469" s="1"/>
+      <c r="H469" s="1"/>
+      <c r="J469" s="1"/>
+      <c r="K469" s="1"/>
+      <c r="L469" s="1"/>
+      <c r="M469" s="1"/>
+      <c r="N469" s="1"/>
+      <c r="O469" s="1"/>
+      <c r="P469" s="1"/>
+      <c r="Q469" s="1"/>
+    </row>
+    <row r="470" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F470" s="1"/>
+      <c r="G470" s="1"/>
+      <c r="H470" s="1"/>
+      <c r="J470" s="1"/>
+      <c r="K470" s="1"/>
+      <c r="L470" s="1"/>
+      <c r="M470" s="1"/>
+      <c r="N470" s="1"/>
+      <c r="O470" s="1"/>
+      <c r="P470" s="1"/>
+      <c r="Q470" s="1"/>
     </row>
     <row r="471" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F471" s="1"/>
@@ -4899,6 +4801,7 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
+      <c r="I475" s="1"/>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
@@ -4907,33 +4810,6 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-    </row>
-    <row r="476" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F476" s="1"/>
-      <c r="G476" s="1"/>
-      <c r="H476" s="1"/>
-      <c r="J476" s="1"/>
-      <c r="K476" s="1"/>
-      <c r="L476" s="1"/>
-      <c r="M476" s="1"/>
-      <c r="N476" s="1"/>
-      <c r="O476" s="1"/>
-      <c r="P476" s="1"/>
-      <c r="Q476" s="1"/>
-    </row>
-    <row r="477" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F477" s="1"/>
-      <c r="G477" s="1"/>
-      <c r="H477" s="1"/>
-      <c r="I477" s="1"/>
-      <c r="J477" s="1"/>
-      <c r="K477" s="1"/>
-      <c r="L477" s="1"/>
-      <c r="M477" s="1"/>
-      <c r="N477" s="1"/>
-      <c r="O477" s="1"/>
-      <c r="P477" s="1"/>
-      <c r="Q477" s="1"/>
     </row>
     <row r="478" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F478" s="1"/>
@@ -4947,14 +4823,41 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
+      <c r="Q478" s="1"/>
     </row>
     <row r="479" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F479" s="1"/>
+      <c r="G479" s="1"/>
+      <c r="H479" s="1"/>
+      <c r="I479" s="1"/>
+      <c r="J479" s="1"/>
+      <c r="K479" s="1"/>
+      <c r="L479" s="1"/>
+      <c r="M479" s="1"/>
+      <c r="N479" s="1"/>
+      <c r="O479" s="1"/>
+      <c r="P479" s="1"/>
+      <c r="Q479" s="1"/>
+    </row>
+    <row r="480" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F480" s="1"/>
+      <c r="G480" s="1"/>
+      <c r="H480" s="1"/>
+      <c r="I480" s="1"/>
+      <c r="J480" s="1"/>
+      <c r="K480" s="1"/>
+      <c r="L480" s="1"/>
+      <c r="M480" s="1"/>
+      <c r="N480" s="1"/>
+      <c r="O480" s="1"/>
+      <c r="P480" s="1"/>
+      <c r="Q480" s="1"/>
     </row>
     <row r="481" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F481" s="1"/>
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
+      <c r="I481" s="1"/>
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
@@ -4968,6 +4871,7 @@
       <c r="F482" s="1"/>
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
+      <c r="I482" s="1"/>
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
@@ -4981,6 +4885,7 @@
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
+      <c r="I483" s="1"/>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
@@ -4994,6 +4899,7 @@
       <c r="F484" s="1"/>
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
+      <c r="I484" s="1"/>
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
@@ -5007,6 +4913,7 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
+      <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -5018,36 +4925,37 @@
     </row>
     <row r="486" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F486" s="1"/>
-      <c r="G486" s="1"/>
-      <c r="H486" s="1"/>
-      <c r="J486" s="1"/>
-      <c r="K486" s="1"/>
-      <c r="L486" s="1"/>
-      <c r="M486" s="1"/>
-      <c r="N486" s="1"/>
-      <c r="O486" s="1"/>
-      <c r="P486" s="1"/>
-      <c r="Q486" s="1"/>
-    </row>
-    <row r="487" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F487" s="1"/>
-      <c r="G487" s="1"/>
-      <c r="H487" s="1"/>
-      <c r="I487" s="1"/>
-      <c r="J487" s="1"/>
-      <c r="K487" s="1"/>
-      <c r="L487" s="1"/>
-      <c r="M487" s="1"/>
-      <c r="N487" s="1"/>
-      <c r="O487" s="1"/>
-      <c r="P487" s="1"/>
-      <c r="Q487" s="1"/>
+    </row>
+    <row r="488" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F488" s="1"/>
+      <c r="G488" s="1"/>
+      <c r="H488" s="1"/>
+      <c r="J488" s="1"/>
+      <c r="K488" s="1"/>
+      <c r="L488" s="1"/>
+      <c r="M488" s="1"/>
+      <c r="N488" s="1"/>
+      <c r="O488" s="1"/>
+      <c r="P488" s="1"/>
+      <c r="Q488" s="1"/>
+    </row>
+    <row r="489" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F489" s="1"/>
+      <c r="G489" s="1"/>
+      <c r="H489" s="1"/>
+      <c r="J489" s="1"/>
+      <c r="K489" s="1"/>
+      <c r="L489" s="1"/>
+      <c r="M489" s="1"/>
+      <c r="N489" s="1"/>
+      <c r="O489" s="1"/>
+      <c r="P489" s="1"/>
+      <c r="Q489" s="1"/>
     </row>
     <row r="490" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F490" s="1"/>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
-      <c r="I490" s="1"/>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
@@ -5061,7 +4969,6 @@
       <c r="F491" s="1"/>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
-      <c r="I491" s="1"/>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
@@ -5075,7 +4982,6 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
-      <c r="I492" s="1"/>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
@@ -5089,7 +4995,6 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
-      <c r="I493" s="1"/>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
@@ -5125,37 +5030,35 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
-      <c r="Q495" s="1"/>
     </row>
     <row r="496" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
-      <c r="G496" s="1"/>
-      <c r="H496" s="1"/>
-      <c r="I496" s="1"/>
-      <c r="J496" s="1"/>
-      <c r="K496" s="1"/>
-      <c r="L496" s="1"/>
-      <c r="M496" s="1"/>
-      <c r="N496" s="1"/>
-      <c r="O496" s="1"/>
-      <c r="P496" s="1"/>
-      <c r="Q496" s="1"/>
-    </row>
-    <row r="497" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
-      <c r="H497" s="1"/>
-      <c r="I497" s="1"/>
-      <c r="J497" s="1"/>
-      <c r="K497" s="1"/>
-      <c r="L497" s="1"/>
-      <c r="M497" s="1"/>
-      <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
-      <c r="P497" s="1"/>
     </row>
     <row r="498" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F498" s="1"/>
+      <c r="G498" s="1"/>
+      <c r="H498" s="1"/>
+      <c r="J498" s="1"/>
+      <c r="K498" s="1"/>
+      <c r="L498" s="1"/>
+      <c r="M498" s="1"/>
+      <c r="N498" s="1"/>
+      <c r="O498" s="1"/>
+      <c r="P498" s="1"/>
+      <c r="Q498" s="1"/>
+    </row>
+    <row r="499" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F499" s="1"/>
+      <c r="G499" s="1"/>
+      <c r="H499" s="1"/>
+      <c r="J499" s="1"/>
+      <c r="K499" s="1"/>
+      <c r="L499" s="1"/>
+      <c r="M499" s="1"/>
+      <c r="N499" s="1"/>
+      <c r="O499" s="1"/>
+      <c r="P499" s="1"/>
+      <c r="Q499" s="1"/>
     </row>
     <row r="500" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F500" s="1"/>
@@ -5213,6 +5116,7 @@
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
+      <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -5226,6 +5130,7 @@
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
+      <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
@@ -5233,27 +5138,14 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
       <c r="P505" s="1"/>
-      <c r="Q505" s="1"/>
     </row>
     <row r="506" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F506" s="1"/>
-      <c r="G506" s="1"/>
-      <c r="H506" s="1"/>
-      <c r="I506" s="1"/>
-      <c r="J506" s="1"/>
-      <c r="K506" s="1"/>
-      <c r="L506" s="1"/>
-      <c r="M506" s="1"/>
-      <c r="N506" s="1"/>
-      <c r="O506" s="1"/>
-      <c r="P506" s="1"/>
-      <c r="Q506" s="1"/>
     </row>
     <row r="508" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
-      <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
@@ -5261,37 +5153,340 @@
       <c r="N508" s="1"/>
       <c r="O508" s="1"/>
       <c r="P508" s="1"/>
+      <c r="Q508" s="1"/>
+    </row>
+    <row r="509" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F509" s="1"/>
+      <c r="G509" s="1"/>
+      <c r="H509" s="1"/>
+      <c r="J509" s="1"/>
+      <c r="K509" s="1"/>
+      <c r="L509" s="1"/>
+      <c r="M509" s="1"/>
+      <c r="N509" s="1"/>
+      <c r="O509" s="1"/>
+      <c r="P509" s="1"/>
+      <c r="Q509" s="1"/>
+    </row>
+    <row r="510" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F510" s="1"/>
+      <c r="G510" s="1"/>
+      <c r="H510" s="1"/>
+      <c r="J510" s="1"/>
+      <c r="K510" s="1"/>
+      <c r="L510" s="1"/>
+      <c r="M510" s="1"/>
+      <c r="N510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="P510" s="1"/>
+      <c r="Q510" s="1"/>
+    </row>
+    <row r="511" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F511" s="1"/>
+      <c r="G511" s="1"/>
+      <c r="H511" s="1"/>
+      <c r="J511" s="1"/>
+      <c r="K511" s="1"/>
+      <c r="L511" s="1"/>
+      <c r="M511" s="1"/>
+      <c r="N511" s="1"/>
+      <c r="O511" s="1"/>
+      <c r="P511" s="1"/>
+      <c r="Q511" s="1"/>
     </row>
     <row r="512" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F512" s="1"/>
-    </row>
-    <row r="520" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G512" s="1"/>
+      <c r="H512" s="1"/>
+      <c r="J512" s="1"/>
+      <c r="K512" s="1"/>
+      <c r="L512" s="1"/>
+      <c r="M512" s="1"/>
+      <c r="N512" s="1"/>
+      <c r="O512" s="1"/>
+      <c r="P512" s="1"/>
+      <c r="Q512" s="1"/>
+    </row>
+    <row r="513" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F513" s="1"/>
+      <c r="G513" s="1"/>
+      <c r="H513" s="1"/>
+      <c r="J513" s="1"/>
+      <c r="K513" s="1"/>
+      <c r="L513" s="1"/>
+      <c r="M513" s="1"/>
+      <c r="N513" s="1"/>
+      <c r="O513" s="1"/>
+      <c r="P513" s="1"/>
+      <c r="Q513" s="1"/>
+    </row>
+    <row r="514" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F514" s="1"/>
+      <c r="G514" s="1"/>
+      <c r="H514" s="1"/>
+      <c r="I514" s="1"/>
+      <c r="J514" s="1"/>
+      <c r="K514" s="1"/>
+      <c r="L514" s="1"/>
+      <c r="M514" s="1"/>
+      <c r="N514" s="1"/>
+      <c r="O514" s="1"/>
+      <c r="P514" s="1"/>
+      <c r="Q514" s="1"/>
+    </row>
+    <row r="517" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F517" s="1"/>
+      <c r="G517" s="1"/>
+      <c r="H517" s="1"/>
+      <c r="I517" s="1"/>
+      <c r="J517" s="1"/>
+      <c r="K517" s="1"/>
+      <c r="L517" s="1"/>
+      <c r="M517" s="1"/>
+      <c r="N517" s="1"/>
+      <c r="O517" s="1"/>
+      <c r="P517" s="1"/>
+      <c r="Q517" s="1"/>
+    </row>
+    <row r="518" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F518" s="1"/>
+      <c r="G518" s="1"/>
+      <c r="H518" s="1"/>
+      <c r="I518" s="1"/>
+      <c r="J518" s="1"/>
+      <c r="K518" s="1"/>
+      <c r="L518" s="1"/>
+      <c r="M518" s="1"/>
+      <c r="N518" s="1"/>
+      <c r="O518" s="1"/>
+      <c r="P518" s="1"/>
+      <c r="Q518" s="1"/>
+    </row>
+    <row r="519" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F519" s="1"/>
+      <c r="G519" s="1"/>
+      <c r="H519" s="1"/>
+      <c r="I519" s="1"/>
+      <c r="J519" s="1"/>
+      <c r="K519" s="1"/>
+      <c r="L519" s="1"/>
+      <c r="M519" s="1"/>
+      <c r="N519" s="1"/>
+      <c r="O519" s="1"/>
+      <c r="P519" s="1"/>
+      <c r="Q519" s="1"/>
+    </row>
+    <row r="520" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F520" s="1"/>
-    </row>
-    <row r="527" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G520" s="1"/>
+      <c r="H520" s="1"/>
+      <c r="I520" s="1"/>
+      <c r="J520" s="1"/>
+      <c r="K520" s="1"/>
+      <c r="L520" s="1"/>
+      <c r="M520" s="1"/>
+      <c r="N520" s="1"/>
+      <c r="O520" s="1"/>
+      <c r="P520" s="1"/>
+      <c r="Q520" s="1"/>
+    </row>
+    <row r="521" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F521" s="1"/>
+      <c r="G521" s="1"/>
+      <c r="H521" s="1"/>
+      <c r="I521" s="1"/>
+      <c r="J521" s="1"/>
+      <c r="K521" s="1"/>
+      <c r="L521" s="1"/>
+      <c r="M521" s="1"/>
+      <c r="N521" s="1"/>
+      <c r="O521" s="1"/>
+      <c r="P521" s="1"/>
+      <c r="Q521" s="1"/>
+    </row>
+    <row r="522" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F522" s="1"/>
+      <c r="G522" s="1"/>
+      <c r="H522" s="1"/>
+      <c r="I522" s="1"/>
+      <c r="J522" s="1"/>
+      <c r="K522" s="1"/>
+      <c r="L522" s="1"/>
+      <c r="M522" s="1"/>
+      <c r="N522" s="1"/>
+      <c r="O522" s="1"/>
+      <c r="P522" s="1"/>
+      <c r="Q522" s="1"/>
+    </row>
+    <row r="523" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F523" s="1"/>
+      <c r="G523" s="1"/>
+      <c r="H523" s="1"/>
+      <c r="I523" s="1"/>
+      <c r="J523" s="1"/>
+      <c r="K523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1"/>
+      <c r="N523" s="1"/>
+      <c r="O523" s="1"/>
+      <c r="P523" s="1"/>
+      <c r="Q523" s="1"/>
+    </row>
+    <row r="524" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F524" s="1"/>
+      <c r="G524" s="1"/>
+      <c r="H524" s="1"/>
+      <c r="I524" s="1"/>
+      <c r="J524" s="1"/>
+      <c r="K524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1"/>
+      <c r="N524" s="1"/>
+      <c r="O524" s="1"/>
+      <c r="P524" s="1"/>
+      <c r="Q524" s="1"/>
+    </row>
+    <row r="525" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F525" s="1"/>
+    </row>
+    <row r="527" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F527" s="1"/>
-    </row>
-    <row r="530" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G527" s="1"/>
+      <c r="H527" s="1"/>
+      <c r="J527" s="1"/>
+      <c r="K527" s="1"/>
+      <c r="L527" s="1"/>
+      <c r="M527" s="1"/>
+      <c r="N527" s="1"/>
+      <c r="O527" s="1"/>
+      <c r="P527" s="1"/>
+      <c r="Q527" s="1"/>
+    </row>
+    <row r="528" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F528" s="1"/>
+      <c r="G528" s="1"/>
+      <c r="H528" s="1"/>
+      <c r="J528" s="1"/>
+      <c r="K528" s="1"/>
+      <c r="L528" s="1"/>
+      <c r="M528" s="1"/>
+      <c r="N528" s="1"/>
+      <c r="O528" s="1"/>
+      <c r="P528" s="1"/>
+      <c r="Q528" s="1"/>
+    </row>
+    <row r="529" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F529" s="1"/>
+      <c r="G529" s="1"/>
+      <c r="H529" s="1"/>
+      <c r="J529" s="1"/>
+      <c r="K529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="M529" s="1"/>
+      <c r="N529" s="1"/>
+      <c r="O529" s="1"/>
+      <c r="P529" s="1"/>
+      <c r="Q529" s="1"/>
+    </row>
+    <row r="530" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F530" s="1"/>
-    </row>
-    <row r="531" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G530" s="1"/>
+      <c r="H530" s="1"/>
+      <c r="J530" s="1"/>
+      <c r="K530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1"/>
+      <c r="N530" s="1"/>
+      <c r="O530" s="1"/>
+      <c r="P530" s="1"/>
+      <c r="Q530" s="1"/>
+    </row>
+    <row r="531" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F531" s="1"/>
-    </row>
-    <row r="534" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G531" s="1"/>
+      <c r="H531" s="1"/>
+      <c r="J531" s="1"/>
+      <c r="K531" s="1"/>
+      <c r="L531" s="1"/>
+      <c r="M531" s="1"/>
+      <c r="N531" s="1"/>
+      <c r="O531" s="1"/>
+      <c r="P531" s="1"/>
+      <c r="Q531" s="1"/>
+    </row>
+    <row r="532" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F532" s="1"/>
+      <c r="G532" s="1"/>
+      <c r="H532" s="1"/>
+      <c r="J532" s="1"/>
+      <c r="K532" s="1"/>
+      <c r="L532" s="1"/>
+      <c r="M532" s="1"/>
+      <c r="N532" s="1"/>
+      <c r="O532" s="1"/>
+      <c r="P532" s="1"/>
+      <c r="Q532" s="1"/>
+    </row>
+    <row r="533" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F533" s="1"/>
+      <c r="G533" s="1"/>
+      <c r="H533" s="1"/>
+      <c r="I533" s="1"/>
+      <c r="J533" s="1"/>
+      <c r="K533" s="1"/>
+      <c r="L533" s="1"/>
+      <c r="M533" s="1"/>
+      <c r="N533" s="1"/>
+      <c r="O533" s="1"/>
+      <c r="P533" s="1"/>
+      <c r="Q533" s="1"/>
+    </row>
+    <row r="534" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F534" s="1"/>
-    </row>
-    <row r="535" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G534" s="1"/>
+      <c r="H534" s="1"/>
+      <c r="I534" s="1"/>
+      <c r="J534" s="1"/>
+      <c r="K534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1"/>
+      <c r="N534" s="1"/>
+      <c r="O534" s="1"/>
+      <c r="P534" s="1"/>
+    </row>
+    <row r="535" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F535" s="1"/>
-      <c r="G535" s="1"/>
-    </row>
-    <row r="536" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F536" s="1"/>
-    </row>
-    <row r="539" spans="6:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F537" s="1"/>
+      <c r="G537" s="1"/>
+      <c r="H537" s="1"/>
+      <c r="J537" s="1"/>
+      <c r="K537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1"/>
+      <c r="N537" s="1"/>
+      <c r="O537" s="1"/>
+      <c r="P537" s="1"/>
+      <c r="Q537" s="1"/>
+    </row>
+    <row r="538" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F538" s="1"/>
+      <c r="G538" s="1"/>
+      <c r="H538" s="1"/>
+      <c r="J538" s="1"/>
+      <c r="K538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1"/>
+      <c r="N538" s="1"/>
+      <c r="O538" s="1"/>
+      <c r="P538" s="1"/>
+      <c r="Q538" s="1"/>
+    </row>
+    <row r="539" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F539" s="1"/>
       <c r="G539" s="1"/>
       <c r="H539" s="1"/>
-      <c r="I539" s="1"/>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
       <c r="L539" s="1"/>
@@ -5299,12 +5494,12 @@
       <c r="N539" s="1"/>
       <c r="O539" s="1"/>
       <c r="P539" s="1"/>
-    </row>
-    <row r="540" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q539" s="1"/>
+    </row>
+    <row r="540" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F540" s="1"/>
       <c r="G540" s="1"/>
       <c r="H540" s="1"/>
-      <c r="I540" s="1"/>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
       <c r="L540" s="1"/>
@@ -5312,12 +5507,12 @@
       <c r="N540" s="1"/>
       <c r="O540" s="1"/>
       <c r="P540" s="1"/>
-    </row>
-    <row r="541" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="Q540" s="1"/>
+    </row>
+    <row r="541" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
-      <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
@@ -5325,237 +5520,659 @@
       <c r="N541" s="1"/>
       <c r="O541" s="1"/>
       <c r="P541" s="1"/>
-    </row>
-    <row r="587" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F587" s="1"/>
-      <c r="G587" s="1"/>
-      <c r="H587" s="1"/>
-      <c r="I587" s="1"/>
-      <c r="J587" s="1"/>
-      <c r="K587" s="1"/>
-      <c r="L587" s="1"/>
-      <c r="M587" s="1"/>
-      <c r="N587" s="1"/>
-      <c r="O587" s="1"/>
-      <c r="P587" s="1"/>
-    </row>
-    <row r="588" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F588" s="1"/>
-      <c r="G588" s="1"/>
-      <c r="H588" s="1"/>
-      <c r="I588" s="1"/>
-      <c r="J588" s="1"/>
-      <c r="K588" s="1"/>
-      <c r="L588" s="1"/>
-      <c r="M588" s="1"/>
-      <c r="N588" s="1"/>
-      <c r="O588" s="1"/>
-      <c r="P588" s="1"/>
-    </row>
-    <row r="590" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E590" s="1"/>
-      <c r="F590" s="1"/>
-      <c r="G590" s="1"/>
-      <c r="H590" s="1"/>
-      <c r="I590" s="1"/>
-      <c r="J590" s="1"/>
-      <c r="K590" s="1"/>
-      <c r="L590" s="1"/>
-      <c r="M590" s="1"/>
-      <c r="N590" s="1"/>
-      <c r="O590" s="1"/>
-      <c r="P590" s="1"/>
-    </row>
-    <row r="591" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E591" s="1"/>
-      <c r="F591" s="1"/>
-      <c r="G591" s="1"/>
-      <c r="H591" s="1"/>
-      <c r="I591" s="1"/>
-      <c r="J591" s="1"/>
-      <c r="K591" s="1"/>
-      <c r="L591" s="1"/>
-      <c r="M591" s="1"/>
-      <c r="N591" s="1"/>
-      <c r="O591" s="1"/>
-      <c r="P591" s="1"/>
-    </row>
-    <row r="592" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F592" s="1"/>
-      <c r="G592" s="1"/>
-      <c r="H592" s="1"/>
-      <c r="I592" s="1"/>
-      <c r="J592" s="1"/>
-      <c r="K592" s="1"/>
-      <c r="L592" s="1"/>
-      <c r="M592" s="1"/>
-      <c r="N592" s="1"/>
-      <c r="O592" s="1"/>
-      <c r="P592" s="1"/>
-    </row>
-    <row r="593" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="Q541" s="1"/>
+    </row>
+    <row r="542" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F542" s="1"/>
+      <c r="G542" s="1"/>
+      <c r="H542" s="1"/>
+      <c r="J542" s="1"/>
+      <c r="K542" s="1"/>
+      <c r="L542" s="1"/>
+      <c r="M542" s="1"/>
+      <c r="N542" s="1"/>
+      <c r="O542" s="1"/>
+      <c r="P542" s="1"/>
+      <c r="Q542" s="1"/>
+    </row>
+    <row r="543" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F543" s="1"/>
+      <c r="G543" s="1"/>
+      <c r="H543" s="1"/>
+      <c r="I543" s="1"/>
+      <c r="J543" s="1"/>
+      <c r="K543" s="1"/>
+      <c r="L543" s="1"/>
+      <c r="M543" s="1"/>
+      <c r="N543" s="1"/>
+      <c r="O543" s="1"/>
+      <c r="P543" s="1"/>
+      <c r="Q543" s="1"/>
+    </row>
+    <row r="544" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F544" s="1"/>
+      <c r="G544" s="1"/>
+      <c r="H544" s="1"/>
+      <c r="I544" s="1"/>
+      <c r="J544" s="1"/>
+      <c r="K544" s="1"/>
+      <c r="L544" s="1"/>
+      <c r="M544" s="1"/>
+      <c r="N544" s="1"/>
+      <c r="O544" s="1"/>
+      <c r="P544" s="1"/>
+    </row>
+    <row r="545" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F545" s="1"/>
+    </row>
+    <row r="547" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F547" s="1"/>
+      <c r="G547" s="1"/>
+      <c r="H547" s="1"/>
+      <c r="J547" s="1"/>
+      <c r="K547" s="1"/>
+      <c r="L547" s="1"/>
+      <c r="M547" s="1"/>
+      <c r="N547" s="1"/>
+      <c r="O547" s="1"/>
+      <c r="P547" s="1"/>
+      <c r="Q547" s="1"/>
+    </row>
+    <row r="548" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F548" s="1"/>
+      <c r="G548" s="1"/>
+      <c r="H548" s="1"/>
+      <c r="J548" s="1"/>
+      <c r="K548" s="1"/>
+      <c r="L548" s="1"/>
+      <c r="M548" s="1"/>
+      <c r="N548" s="1"/>
+      <c r="O548" s="1"/>
+      <c r="P548" s="1"/>
+      <c r="Q548" s="1"/>
+    </row>
+    <row r="549" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F549" s="1"/>
+      <c r="G549" s="1"/>
+      <c r="H549" s="1"/>
+      <c r="J549" s="1"/>
+      <c r="K549" s="1"/>
+      <c r="L549" s="1"/>
+      <c r="M549" s="1"/>
+      <c r="N549" s="1"/>
+      <c r="O549" s="1"/>
+      <c r="P549" s="1"/>
+      <c r="Q549" s="1"/>
+    </row>
+    <row r="550" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F550" s="1"/>
+      <c r="G550" s="1"/>
+      <c r="H550" s="1"/>
+      <c r="J550" s="1"/>
+      <c r="K550" s="1"/>
+      <c r="L550" s="1"/>
+      <c r="M550" s="1"/>
+      <c r="N550" s="1"/>
+      <c r="O550" s="1"/>
+      <c r="P550" s="1"/>
+      <c r="Q550" s="1"/>
+    </row>
+    <row r="551" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F551" s="1"/>
+      <c r="G551" s="1"/>
+      <c r="H551" s="1"/>
+      <c r="J551" s="1"/>
+      <c r="K551" s="1"/>
+      <c r="L551" s="1"/>
+      <c r="M551" s="1"/>
+      <c r="N551" s="1"/>
+      <c r="O551" s="1"/>
+      <c r="P551" s="1"/>
+      <c r="Q551" s="1"/>
+    </row>
+    <row r="552" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F552" s="1"/>
+      <c r="G552" s="1"/>
+      <c r="H552" s="1"/>
+      <c r="J552" s="1"/>
+      <c r="K552" s="1"/>
+      <c r="L552" s="1"/>
+      <c r="M552" s="1"/>
+      <c r="N552" s="1"/>
+      <c r="O552" s="1"/>
+      <c r="P552" s="1"/>
+      <c r="Q552" s="1"/>
+    </row>
+    <row r="553" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F553" s="1"/>
+      <c r="G553" s="1"/>
+      <c r="H553" s="1"/>
+      <c r="I553" s="1"/>
+      <c r="J553" s="1"/>
+      <c r="K553" s="1"/>
+      <c r="L553" s="1"/>
+      <c r="M553" s="1"/>
+      <c r="N553" s="1"/>
+      <c r="O553" s="1"/>
+      <c r="P553" s="1"/>
+      <c r="Q553" s="1"/>
+    </row>
+    <row r="556" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F556" s="1"/>
+      <c r="G556" s="1"/>
+      <c r="H556" s="1"/>
+      <c r="I556" s="1"/>
+      <c r="J556" s="1"/>
+      <c r="K556" s="1"/>
+      <c r="L556" s="1"/>
+      <c r="M556" s="1"/>
+      <c r="N556" s="1"/>
+      <c r="O556" s="1"/>
+      <c r="P556" s="1"/>
+      <c r="Q556" s="1"/>
+    </row>
+    <row r="557" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F557" s="1"/>
+      <c r="G557" s="1"/>
+      <c r="H557" s="1"/>
+      <c r="I557" s="1"/>
+      <c r="J557" s="1"/>
+      <c r="K557" s="1"/>
+      <c r="L557" s="1"/>
+      <c r="M557" s="1"/>
+      <c r="N557" s="1"/>
+      <c r="O557" s="1"/>
+      <c r="P557" s="1"/>
+      <c r="Q557" s="1"/>
+    </row>
+    <row r="558" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F558" s="1"/>
+      <c r="G558" s="1"/>
+      <c r="H558" s="1"/>
+      <c r="I558" s="1"/>
+      <c r="J558" s="1"/>
+      <c r="K558" s="1"/>
+      <c r="L558" s="1"/>
+      <c r="M558" s="1"/>
+      <c r="N558" s="1"/>
+      <c r="O558" s="1"/>
+      <c r="P558" s="1"/>
+      <c r="Q558" s="1"/>
+    </row>
+    <row r="559" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F559" s="1"/>
+      <c r="G559" s="1"/>
+      <c r="H559" s="1"/>
+      <c r="I559" s="1"/>
+      <c r="J559" s="1"/>
+      <c r="K559" s="1"/>
+      <c r="L559" s="1"/>
+      <c r="M559" s="1"/>
+      <c r="N559" s="1"/>
+      <c r="O559" s="1"/>
+      <c r="P559" s="1"/>
+      <c r="Q559" s="1"/>
+    </row>
+    <row r="560" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F560" s="1"/>
+      <c r="G560" s="1"/>
+      <c r="H560" s="1"/>
+      <c r="I560" s="1"/>
+      <c r="J560" s="1"/>
+      <c r="K560" s="1"/>
+      <c r="L560" s="1"/>
+      <c r="M560" s="1"/>
+      <c r="N560" s="1"/>
+      <c r="O560" s="1"/>
+      <c r="P560" s="1"/>
+      <c r="Q560" s="1"/>
+    </row>
+    <row r="561" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F561" s="1"/>
+      <c r="G561" s="1"/>
+      <c r="H561" s="1"/>
+      <c r="I561" s="1"/>
+      <c r="J561" s="1"/>
+      <c r="K561" s="1"/>
+      <c r="L561" s="1"/>
+      <c r="M561" s="1"/>
+      <c r="N561" s="1"/>
+      <c r="O561" s="1"/>
+      <c r="P561" s="1"/>
+      <c r="Q561" s="1"/>
+    </row>
+    <row r="562" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F562" s="1"/>
+      <c r="G562" s="1"/>
+      <c r="H562" s="1"/>
+      <c r="I562" s="1"/>
+      <c r="J562" s="1"/>
+      <c r="K562" s="1"/>
+      <c r="L562" s="1"/>
+      <c r="M562" s="1"/>
+      <c r="N562" s="1"/>
+      <c r="O562" s="1"/>
+      <c r="P562" s="1"/>
+      <c r="Q562" s="1"/>
+    </row>
+    <row r="563" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F563" s="1"/>
+      <c r="G563" s="1"/>
+      <c r="H563" s="1"/>
+      <c r="I563" s="1"/>
+      <c r="J563" s="1"/>
+      <c r="K563" s="1"/>
+      <c r="L563" s="1"/>
+      <c r="M563" s="1"/>
+      <c r="N563" s="1"/>
+      <c r="O563" s="1"/>
+      <c r="P563" s="1"/>
+    </row>
+    <row r="564" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F564" s="1"/>
+    </row>
+    <row r="566" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F566" s="1"/>
+      <c r="G566" s="1"/>
+      <c r="H566" s="1"/>
+      <c r="J566" s="1"/>
+      <c r="K566" s="1"/>
+      <c r="L566" s="1"/>
+      <c r="M566" s="1"/>
+      <c r="N566" s="1"/>
+      <c r="O566" s="1"/>
+      <c r="P566" s="1"/>
+      <c r="Q566" s="1"/>
+    </row>
+    <row r="567" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F567" s="1"/>
+      <c r="G567" s="1"/>
+      <c r="H567" s="1"/>
+      <c r="J567" s="1"/>
+      <c r="K567" s="1"/>
+      <c r="L567" s="1"/>
+      <c r="M567" s="1"/>
+      <c r="N567" s="1"/>
+      <c r="O567" s="1"/>
+      <c r="P567" s="1"/>
+      <c r="Q567" s="1"/>
+    </row>
+    <row r="568" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F568" s="1"/>
+      <c r="G568" s="1"/>
+      <c r="H568" s="1"/>
+      <c r="J568" s="1"/>
+      <c r="K568" s="1"/>
+      <c r="L568" s="1"/>
+      <c r="M568" s="1"/>
+      <c r="N568" s="1"/>
+      <c r="O568" s="1"/>
+      <c r="P568" s="1"/>
+      <c r="Q568" s="1"/>
+    </row>
+    <row r="569" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F569" s="1"/>
+      <c r="G569" s="1"/>
+      <c r="H569" s="1"/>
+      <c r="J569" s="1"/>
+      <c r="K569" s="1"/>
+      <c r="L569" s="1"/>
+      <c r="M569" s="1"/>
+      <c r="N569" s="1"/>
+      <c r="O569" s="1"/>
+      <c r="P569" s="1"/>
+      <c r="Q569" s="1"/>
+    </row>
+    <row r="570" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F570" s="1"/>
+      <c r="G570" s="1"/>
+      <c r="H570" s="1"/>
+      <c r="J570" s="1"/>
+      <c r="K570" s="1"/>
+      <c r="L570" s="1"/>
+      <c r="M570" s="1"/>
+      <c r="N570" s="1"/>
+      <c r="O570" s="1"/>
+      <c r="P570" s="1"/>
+      <c r="Q570" s="1"/>
+    </row>
+    <row r="571" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F571" s="1"/>
+      <c r="G571" s="1"/>
+      <c r="H571" s="1"/>
+      <c r="J571" s="1"/>
+      <c r="K571" s="1"/>
+      <c r="L571" s="1"/>
+      <c r="M571" s="1"/>
+      <c r="N571" s="1"/>
+      <c r="O571" s="1"/>
+      <c r="P571" s="1"/>
+      <c r="Q571" s="1"/>
+    </row>
+    <row r="572" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F572" s="1"/>
+      <c r="G572" s="1"/>
+      <c r="H572" s="1"/>
+      <c r="I572" s="1"/>
+      <c r="J572" s="1"/>
+      <c r="K572" s="1"/>
+      <c r="L572" s="1"/>
+      <c r="M572" s="1"/>
+      <c r="N572" s="1"/>
+      <c r="O572" s="1"/>
+      <c r="P572" s="1"/>
+      <c r="Q572" s="1"/>
+    </row>
+    <row r="574" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F574" s="1"/>
+      <c r="G574" s="1"/>
+      <c r="H574" s="1"/>
+      <c r="I574" s="1"/>
+      <c r="J574" s="1"/>
+      <c r="K574" s="1"/>
+      <c r="L574" s="1"/>
+      <c r="M574" s="1"/>
+      <c r="N574" s="1"/>
+      <c r="O574" s="1"/>
+      <c r="P574" s="1"/>
+    </row>
+    <row r="578" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F578" s="1"/>
+    </row>
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F586" s="1"/>
+    </row>
+    <row r="593" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F593" s="1"/>
-      <c r="G593" s="1"/>
-      <c r="H593" s="1"/>
-      <c r="I593" s="1"/>
-      <c r="J593" s="1"/>
-      <c r="K593" s="1"/>
-      <c r="L593" s="1"/>
-      <c r="M593" s="1"/>
-      <c r="N593" s="1"/>
-      <c r="O593" s="1"/>
-      <c r="P593" s="1"/>
-    </row>
-    <row r="594" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F594" s="1"/>
-      <c r="G594" s="1"/>
-      <c r="H594" s="1"/>
-      <c r="I594" s="1"/>
-      <c r="J594" s="1"/>
-      <c r="K594" s="1"/>
-      <c r="L594" s="1"/>
-      <c r="M594" s="1"/>
-      <c r="N594" s="1"/>
-      <c r="O594" s="1"/>
-      <c r="P594" s="1"/>
-    </row>
-    <row r="595" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F595" s="1"/>
-      <c r="G595" s="1"/>
-      <c r="H595" s="1"/>
-      <c r="I595" s="1"/>
-      <c r="J595" s="1"/>
-      <c r="K595" s="1"/>
-      <c r="L595" s="1"/>
-      <c r="M595" s="1"/>
-      <c r="N595" s="1"/>
-      <c r="O595" s="1"/>
-      <c r="P595" s="1"/>
-    </row>
-    <row r="596" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F596" s="1"/>
-      <c r="G596" s="1"/>
-      <c r="H596" s="1"/>
-      <c r="I596" s="1"/>
-      <c r="J596" s="1"/>
-      <c r="K596" s="1"/>
-      <c r="L596" s="1"/>
-      <c r="M596" s="1"/>
-      <c r="N596" s="1"/>
-      <c r="O596" s="1"/>
-      <c r="P596" s="1"/>
-    </row>
-    <row r="597" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="597" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F597" s="1"/>
-      <c r="G597" s="1"/>
-      <c r="H597" s="1"/>
-      <c r="I597" s="1"/>
-      <c r="J597" s="1"/>
-      <c r="K597" s="1"/>
-      <c r="L597" s="1"/>
-      <c r="M597" s="1"/>
-      <c r="N597" s="1"/>
-      <c r="O597" s="1"/>
-      <c r="P597" s="1"/>
-    </row>
-    <row r="598" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F598" s="1"/>
-      <c r="G598" s="1"/>
-      <c r="H598" s="1"/>
-      <c r="I598" s="1"/>
-      <c r="J598" s="1"/>
-      <c r="K598" s="1"/>
-      <c r="L598" s="1"/>
-      <c r="M598" s="1"/>
-      <c r="N598" s="1"/>
-      <c r="O598" s="1"/>
-      <c r="P598" s="1"/>
-    </row>
-    <row r="599" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E599" s="1"/>
-      <c r="F599" s="1"/>
-      <c r="G599" s="1"/>
-      <c r="H599" s="1"/>
-      <c r="I599" s="1"/>
-      <c r="J599" s="1"/>
-      <c r="K599" s="1"/>
-      <c r="L599" s="1"/>
-      <c r="M599" s="1"/>
-      <c r="N599" s="1"/>
-      <c r="O599" s="1"/>
-      <c r="P599" s="1"/>
-    </row>
-    <row r="600" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E600" s="1"/>
+    </row>
+    <row r="600" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F600" s="1"/>
-      <c r="G600" s="1"/>
-      <c r="H600" s="1"/>
-      <c r="I600" s="1"/>
-      <c r="J600" s="1"/>
-      <c r="K600" s="1"/>
-      <c r="L600" s="1"/>
-      <c r="M600" s="1"/>
-      <c r="N600" s="1"/>
-      <c r="O600" s="1"/>
-      <c r="P600" s="1"/>
-    </row>
-    <row r="601" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="601" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F601" s="1"/>
       <c r="G601" s="1"/>
-      <c r="H601" s="1"/>
-      <c r="I601" s="1"/>
-      <c r="J601" s="1"/>
-      <c r="K601" s="1"/>
-      <c r="L601" s="1"/>
-      <c r="M601" s="1"/>
-      <c r="N601" s="1"/>
-      <c r="O601" s="1"/>
-      <c r="P601" s="1"/>
-    </row>
-    <row r="602" spans="5:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F602" s="1"/>
-      <c r="G602" s="1"/>
-      <c r="H602" s="1"/>
-      <c r="I602" s="1"/>
-      <c r="J602" s="1"/>
-      <c r="K602" s="1"/>
-      <c r="L602" s="1"/>
-      <c r="M602" s="1"/>
-      <c r="N602" s="1"/>
-      <c r="O602" s="1"/>
-      <c r="P602" s="1"/>
-    </row>
-    <row r="603" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F603" s="1"/>
-      <c r="G603" s="1"/>
-      <c r="H603" s="1"/>
-      <c r="I603" s="1"/>
-      <c r="J603" s="1"/>
-      <c r="K603" s="1"/>
-      <c r="L603" s="1"/>
-      <c r="M603" s="1"/>
-      <c r="N603" s="1"/>
-      <c r="O603" s="1"/>
-      <c r="P603" s="1"/>
-    </row>
-    <row r="604" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F604" s="1"/>
-      <c r="G604" s="1"/>
-      <c r="H604" s="1"/>
-      <c r="I604" s="1"/>
-      <c r="J604" s="1"/>
-      <c r="K604" s="1"/>
-      <c r="L604" s="1"/>
-      <c r="M604" s="1"/>
-      <c r="N604" s="1"/>
-      <c r="O604" s="1"/>
-      <c r="P604" s="1"/>
+    </row>
+    <row r="605" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F605" s="1"/>
+      <c r="G605" s="1"/>
+      <c r="H605" s="1"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="1"/>
+      <c r="K605" s="1"/>
+      <c r="L605" s="1"/>
+      <c r="M605" s="1"/>
+      <c r="N605" s="1"/>
+      <c r="O605" s="1"/>
+      <c r="P605" s="1"/>
+    </row>
+    <row r="606" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F606" s="1"/>
+      <c r="G606" s="1"/>
+      <c r="H606" s="1"/>
+      <c r="I606" s="1"/>
+      <c r="J606" s="1"/>
+      <c r="K606" s="1"/>
+      <c r="L606" s="1"/>
+      <c r="M606" s="1"/>
+      <c r="N606" s="1"/>
+      <c r="O606" s="1"/>
+      <c r="P606" s="1"/>
+    </row>
+    <row r="607" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F607" s="1"/>
+      <c r="G607" s="1"/>
+      <c r="H607" s="1"/>
+      <c r="I607" s="1"/>
+      <c r="J607" s="1"/>
+      <c r="K607" s="1"/>
+      <c r="L607" s="1"/>
+      <c r="M607" s="1"/>
+      <c r="N607" s="1"/>
+      <c r="O607" s="1"/>
+      <c r="P607" s="1"/>
+    </row>
+    <row r="653" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F653" s="1"/>
+      <c r="G653" s="1"/>
+      <c r="H653" s="1"/>
+      <c r="I653" s="1"/>
+      <c r="J653" s="1"/>
+      <c r="K653" s="1"/>
+      <c r="L653" s="1"/>
+      <c r="M653" s="1"/>
+      <c r="N653" s="1"/>
+      <c r="O653" s="1"/>
+      <c r="P653" s="1"/>
+    </row>
+    <row r="654" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F654" s="1"/>
+      <c r="G654" s="1"/>
+      <c r="H654" s="1"/>
+      <c r="I654" s="1"/>
+      <c r="J654" s="1"/>
+      <c r="K654" s="1"/>
+      <c r="L654" s="1"/>
+      <c r="M654" s="1"/>
+      <c r="N654" s="1"/>
+      <c r="O654" s="1"/>
+      <c r="P654" s="1"/>
+    </row>
+    <row r="656" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E656" s="1"/>
+      <c r="F656" s="1"/>
+      <c r="G656" s="1"/>
+      <c r="H656" s="1"/>
+      <c r="I656" s="1"/>
+      <c r="J656" s="1"/>
+      <c r="K656" s="1"/>
+      <c r="L656" s="1"/>
+      <c r="M656" s="1"/>
+      <c r="N656" s="1"/>
+      <c r="O656" s="1"/>
+      <c r="P656" s="1"/>
+    </row>
+    <row r="657" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E657" s="1"/>
+      <c r="F657" s="1"/>
+      <c r="G657" s="1"/>
+      <c r="H657" s="1"/>
+      <c r="I657" s="1"/>
+      <c r="J657" s="1"/>
+      <c r="K657" s="1"/>
+      <c r="L657" s="1"/>
+      <c r="M657" s="1"/>
+      <c r="N657" s="1"/>
+      <c r="O657" s="1"/>
+      <c r="P657" s="1"/>
+    </row>
+    <row r="658" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F658" s="1"/>
+      <c r="G658" s="1"/>
+      <c r="H658" s="1"/>
+      <c r="I658" s="1"/>
+      <c r="J658" s="1"/>
+      <c r="K658" s="1"/>
+      <c r="L658" s="1"/>
+      <c r="M658" s="1"/>
+      <c r="N658" s="1"/>
+      <c r="O658" s="1"/>
+      <c r="P658" s="1"/>
+    </row>
+    <row r="659" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F659" s="1"/>
+      <c r="G659" s="1"/>
+      <c r="H659" s="1"/>
+      <c r="I659" s="1"/>
+      <c r="J659" s="1"/>
+      <c r="K659" s="1"/>
+      <c r="L659" s="1"/>
+      <c r="M659" s="1"/>
+      <c r="N659" s="1"/>
+      <c r="O659" s="1"/>
+      <c r="P659" s="1"/>
+    </row>
+    <row r="660" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F660" s="1"/>
+      <c r="G660" s="1"/>
+      <c r="H660" s="1"/>
+      <c r="I660" s="1"/>
+      <c r="J660" s="1"/>
+      <c r="K660" s="1"/>
+      <c r="L660" s="1"/>
+      <c r="M660" s="1"/>
+      <c r="N660" s="1"/>
+      <c r="O660" s="1"/>
+      <c r="P660" s="1"/>
+    </row>
+    <row r="661" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F661" s="1"/>
+      <c r="G661" s="1"/>
+      <c r="H661" s="1"/>
+      <c r="I661" s="1"/>
+      <c r="J661" s="1"/>
+      <c r="K661" s="1"/>
+      <c r="L661" s="1"/>
+      <c r="M661" s="1"/>
+      <c r="N661" s="1"/>
+      <c r="O661" s="1"/>
+      <c r="P661" s="1"/>
+    </row>
+    <row r="662" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F662" s="1"/>
+      <c r="G662" s="1"/>
+      <c r="H662" s="1"/>
+      <c r="I662" s="1"/>
+      <c r="J662" s="1"/>
+      <c r="K662" s="1"/>
+      <c r="L662" s="1"/>
+      <c r="M662" s="1"/>
+      <c r="N662" s="1"/>
+      <c r="O662" s="1"/>
+      <c r="P662" s="1"/>
+    </row>
+    <row r="663" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F663" s="1"/>
+      <c r="G663" s="1"/>
+      <c r="H663" s="1"/>
+      <c r="I663" s="1"/>
+      <c r="J663" s="1"/>
+      <c r="K663" s="1"/>
+      <c r="L663" s="1"/>
+      <c r="M663" s="1"/>
+      <c r="N663" s="1"/>
+      <c r="O663" s="1"/>
+      <c r="P663" s="1"/>
+    </row>
+    <row r="664" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F664" s="1"/>
+      <c r="G664" s="1"/>
+      <c r="H664" s="1"/>
+      <c r="I664" s="1"/>
+      <c r="J664" s="1"/>
+      <c r="K664" s="1"/>
+      <c r="L664" s="1"/>
+      <c r="M664" s="1"/>
+      <c r="N664" s="1"/>
+      <c r="O664" s="1"/>
+      <c r="P664" s="1"/>
+    </row>
+    <row r="665" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E665" s="1"/>
+      <c r="F665" s="1"/>
+      <c r="G665" s="1"/>
+      <c r="H665" s="1"/>
+      <c r="I665" s="1"/>
+      <c r="J665" s="1"/>
+      <c r="K665" s="1"/>
+      <c r="L665" s="1"/>
+      <c r="M665" s="1"/>
+      <c r="N665" s="1"/>
+      <c r="O665" s="1"/>
+      <c r="P665" s="1"/>
+    </row>
+    <row r="666" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E666" s="1"/>
+      <c r="F666" s="1"/>
+      <c r="G666" s="1"/>
+      <c r="H666" s="1"/>
+      <c r="I666" s="1"/>
+      <c r="J666" s="1"/>
+      <c r="K666" s="1"/>
+      <c r="L666" s="1"/>
+      <c r="M666" s="1"/>
+      <c r="N666" s="1"/>
+      <c r="O666" s="1"/>
+      <c r="P666" s="1"/>
+    </row>
+    <row r="667" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F667" s="1"/>
+      <c r="G667" s="1"/>
+      <c r="H667" s="1"/>
+      <c r="I667" s="1"/>
+      <c r="J667" s="1"/>
+      <c r="K667" s="1"/>
+      <c r="L667" s="1"/>
+      <c r="M667" s="1"/>
+      <c r="N667" s="1"/>
+      <c r="O667" s="1"/>
+      <c r="P667" s="1"/>
+    </row>
+    <row r="668" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F668" s="1"/>
+      <c r="G668" s="1"/>
+      <c r="H668" s="1"/>
+      <c r="I668" s="1"/>
+      <c r="J668" s="1"/>
+      <c r="K668" s="1"/>
+      <c r="L668" s="1"/>
+      <c r="M668" s="1"/>
+      <c r="N668" s="1"/>
+      <c r="O668" s="1"/>
+      <c r="P668" s="1"/>
+    </row>
+    <row r="669" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F669" s="1"/>
+      <c r="G669" s="1"/>
+      <c r="H669" s="1"/>
+      <c r="I669" s="1"/>
+      <c r="J669" s="1"/>
+      <c r="K669" s="1"/>
+      <c r="L669" s="1"/>
+      <c r="M669" s="1"/>
+      <c r="N669" s="1"/>
+      <c r="O669" s="1"/>
+      <c r="P669" s="1"/>
+    </row>
+    <row r="670" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F670" s="1"/>
+      <c r="G670" s="1"/>
+      <c r="H670" s="1"/>
+      <c r="I670" s="1"/>
+      <c r="J670" s="1"/>
+      <c r="K670" s="1"/>
+      <c r="L670" s="1"/>
+      <c r="M670" s="1"/>
+      <c r="N670" s="1"/>
+      <c r="O670" s="1"/>
+      <c r="P670" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L490:P490 I490:J490">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  <conditionalFormatting sqref="L556:P556 I556:J556">
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L209:Q209 I209:J209">
+  <conditionalFormatting sqref="L275:Q275 I275:J275">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L157:P157 I157:J157">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5568,7 +6185,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5816,7 +6433,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,10 +6460,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="b">
         <v>0</v>
@@ -5854,7 +6471,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -5865,7 +6482,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -5876,10 +6493,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8" t="b">
         <v>0</v>
@@ -5919,6 +6536,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/config/tables/rounds/forms/rounds/rounds.xlsx
+++ b/app/config/tables/rounds/forms/rounds/rounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9B181-746C-43A5-A50B-7141739287BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADF868-756F-4EEF-83CB-4FA43492DF2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>setting_name</t>
   </si>
@@ -211,9 +211,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>else</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>A - MSF neonotologia</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -253,24 +247,9 @@
     <t>G - Gastro</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>I - Isolado</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>M - Miscellaneous</t>
-  </si>
-  <si>
-    <t>O - Observacon</t>
-  </si>
-  <si>
-    <t>U - Unidade curidade intensivo</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>U</t>
   </si>
   <si>
-    <t>cam1i</t>
-  </si>
-  <si>
     <t>camNA</t>
   </si>
   <si>
@@ -298,12 +274,6 @@
     <t xml:space="preserve">data('cam1na') != null </t>
   </si>
   <si>
-    <t>data('cam1na')</t>
-  </si>
-  <si>
-    <t>data('cam1i')</t>
-  </si>
-  <si>
     <t>roundsdate</t>
   </si>
   <si>
@@ -313,12 +283,6 @@
     <t>NA - Don't know</t>
   </si>
   <si>
-    <t>R - Respiratori</t>
-  </si>
-  <si>
-    <t>N - Disnotri</t>
-  </si>
-  <si>
     <t>Rounds</t>
   </si>
   <si>
@@ -335,6 +299,57 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C - Recobre</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D - Corridor</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>E - Isolamento</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R - Respiratoria</t>
+  </si>
+  <si>
+    <t>U - UCIP</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>W - Wambo</t>
+  </si>
+  <si>
+    <t>O - Observacao</t>
+  </si>
+  <si>
+    <t>N - Creni</t>
+  </si>
+  <si>
+    <t>M - Miscalanea</t>
+  </si>
+  <si>
+    <t>F - Recobre MSF</t>
+  </si>
+  <si>
+    <t>A - Neonatologia</t>
+  </si>
+  <si>
+    <t>NA - Não sabe</t>
   </si>
 </sst>
 </file>
@@ -759,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC090B2B-32F1-4207-9F55-EF712C3EAE7B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -786,7 +801,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -794,12 +809,12 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -878,10 +893,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -919,10 +934,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -932,11 +947,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:R670"/>
+  <dimension ref="A1:R668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>46</v>
@@ -1023,13 +1038,13 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,10 +1052,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,10 +1063,10 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1059,7 +1074,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,10 +1082,10 @@
         <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
+        <v>63</v>
+      </c>
+      <c r="L7">
+        <v>9999</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1079,30 +1094,42 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1187,33 +1214,31 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F31" s="1"/>
@@ -1265,12 +1290,12 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1284,6 +1309,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1291,20 +1317,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
@@ -1320,6 +1333,20 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1406,34 +1433,32 @@
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
@@ -1491,6 +1516,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -1504,6 +1530,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -1511,37 +1538,35 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
@@ -1599,6 +1624,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -1612,6 +1638,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -1619,37 +1646,35 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
@@ -1707,6 +1732,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -1716,32 +1742,33 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
@@ -1829,34 +1856,32 @@
     </row>
     <row r="85" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
@@ -1914,6 +1939,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -1927,6 +1953,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -1934,37 +1961,35 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
@@ -2022,6 +2047,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -2035,6 +2061,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -2042,37 +2069,35 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
     </row>
     <row r="105" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F109" s="1"/>
@@ -2130,6 +2155,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -2139,32 +2165,33 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
+    <row r="116" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
     </row>
     <row r="118" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F118" s="1"/>
@@ -2252,34 +2279,32 @@
     </row>
     <row r="124" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
     </row>
     <row r="126" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
     </row>
     <row r="128" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F128" s="1"/>
@@ -2337,6 +2362,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -2350,6 +2376,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -2357,37 +2384,35 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
     </row>
     <row r="134" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
     </row>
     <row r="136" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
     </row>
     <row r="138" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F138" s="1"/>
@@ -2445,6 +2470,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -2458,6 +2484,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -2465,37 +2492,35 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
     </row>
     <row r="144" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
     </row>
     <row r="146" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
     </row>
     <row r="148" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
@@ -2553,6 +2578,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -2562,32 +2588,33 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="1"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
+    <row r="155" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
     </row>
     <row r="157" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F157" s="1"/>
@@ -2671,37 +2698,35 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
     </row>
     <row r="163" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
     </row>
     <row r="165" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
     </row>
     <row r="167" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F167" s="1"/>
@@ -2759,6 +2784,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -2767,19 +2793,6 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
     </row>
     <row r="173" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F173" s="1"/>
@@ -2793,45 +2806,59 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-    </row>
-    <row r="175" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-    </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F179" s="1"/>
-    </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="1"/>
-    </row>
-    <row r="194" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F194" s="1"/>
-    </row>
-    <row r="197" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F198" s="1"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="1"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="1"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="195" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F195" s="1"/>
+    </row>
+    <row r="196" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F196" s="1"/>
+    </row>
+    <row r="199" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F199" s="1"/>
+    </row>
+    <row r="200" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
     </row>
     <row r="201" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
     </row>
-    <row r="202" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F203" s="1"/>
+    <row r="206" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
     </row>
     <row r="208" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F208" s="1"/>
@@ -2879,6 +2906,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -2893,6 +2921,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -2901,39 +2930,37 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
     </row>
     <row r="213" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-    </row>
-    <row r="214" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
     </row>
     <row r="215" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
     </row>
     <row r="217" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F217" s="1"/>
@@ -2995,6 +3022,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -3009,6 +3037,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -3017,39 +3046,37 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
     </row>
     <row r="223" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="1"/>
-      <c r="L223" s="1"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
-      <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-    </row>
-    <row r="224" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
-      <c r="I224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="1"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1"/>
-      <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
-      <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
     </row>
     <row r="225" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+    </row>
+    <row r="226" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
     </row>
     <row r="227" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
@@ -3111,6 +3138,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -3121,34 +3149,35 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1"/>
-      <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
-      <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-    </row>
-    <row r="233" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
-      <c r="I233" s="1"/>
-      <c r="J233" s="1"/>
-      <c r="K233" s="1"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
+    <row r="234" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+    </row>
+    <row r="235" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
     </row>
     <row r="236" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F236" s="1"/>
@@ -3242,36 +3271,34 @@
     </row>
     <row r="242" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
-      <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-    </row>
-    <row r="243" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
-      <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
     </row>
     <row r="244" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
+      <c r="G244" s="1"/>
+      <c r="H244" s="1"/>
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+      <c r="O244" s="1"/>
+      <c r="P244" s="1"/>
+      <c r="Q244" s="1"/>
+      <c r="R244" s="1"/>
+    </row>
+    <row r="245" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
     </row>
     <row r="246" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
@@ -3333,6 +3360,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -3347,6 +3375,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -3355,39 +3384,37 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
     </row>
     <row r="252" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
-    </row>
-    <row r="253" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
     </row>
     <row r="254" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
+      <c r="G254" s="1"/>
+      <c r="H254" s="1"/>
+      <c r="J254" s="1"/>
+      <c r="K254" s="1"/>
+      <c r="L254" s="1"/>
+      <c r="M254" s="1"/>
+      <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
+      <c r="Q254" s="1"/>
+      <c r="R254" s="1"/>
+    </row>
+    <row r="255" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F255" s="1"/>
+      <c r="G255" s="1"/>
+      <c r="H255" s="1"/>
+      <c r="J255" s="1"/>
+      <c r="K255" s="1"/>
+      <c r="L255" s="1"/>
+      <c r="M255" s="1"/>
+      <c r="N255" s="1"/>
+      <c r="O255" s="1"/>
+      <c r="P255" s="1"/>
+      <c r="Q255" s="1"/>
+      <c r="R255" s="1"/>
     </row>
     <row r="256" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
@@ -3449,6 +3476,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -3463,6 +3491,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -3471,39 +3500,37 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="R261" s="1"/>
     </row>
     <row r="262" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
-      <c r="I262" s="1"/>
-      <c r="J262" s="1"/>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
-      <c r="M262" s="1"/>
-      <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
-      <c r="P262" s="1"/>
-      <c r="Q262" s="1"/>
-      <c r="R262" s="1"/>
-    </row>
-    <row r="263" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
-      <c r="I263" s="1"/>
-      <c r="J263" s="1"/>
-      <c r="K263" s="1"/>
-      <c r="L263" s="1"/>
-      <c r="M263" s="1"/>
-      <c r="N263" s="1"/>
-      <c r="O263" s="1"/>
-      <c r="P263" s="1"/>
-      <c r="Q263" s="1"/>
     </row>
     <row r="264" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="J264" s="1"/>
+      <c r="K264" s="1"/>
+      <c r="L264" s="1"/>
+      <c r="M264" s="1"/>
+      <c r="N264" s="1"/>
+      <c r="O264" s="1"/>
+      <c r="P264" s="1"/>
+      <c r="Q264" s="1"/>
+      <c r="R264" s="1"/>
+    </row>
+    <row r="265" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="J265" s="1"/>
+      <c r="K265" s="1"/>
+      <c r="L265" s="1"/>
+      <c r="M265" s="1"/>
+      <c r="N265" s="1"/>
+      <c r="O265" s="1"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="1"/>
+      <c r="R265" s="1"/>
     </row>
     <row r="266" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F266" s="1"/>
@@ -3565,6 +3592,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
+      <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -3575,34 +3603,35 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
     </row>
-    <row r="271" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F271" s="1"/>
-      <c r="G271" s="1"/>
-      <c r="H271" s="1"/>
-      <c r="J271" s="1"/>
-      <c r="K271" s="1"/>
-      <c r="L271" s="1"/>
-      <c r="M271" s="1"/>
-      <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
-      <c r="P271" s="1"/>
-      <c r="Q271" s="1"/>
-      <c r="R271" s="1"/>
-    </row>
-    <row r="272" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F272" s="1"/>
-      <c r="G272" s="1"/>
-      <c r="H272" s="1"/>
-      <c r="I272" s="1"/>
-      <c r="J272" s="1"/>
-      <c r="K272" s="1"/>
-      <c r="L272" s="1"/>
-      <c r="M272" s="1"/>
-      <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
-      <c r="P272" s="1"/>
-      <c r="Q272" s="1"/>
-      <c r="R272" s="1"/>
+    <row r="273" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F273" s="1"/>
+      <c r="G273" s="1"/>
+      <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1"/>
+      <c r="K273" s="1"/>
+      <c r="L273" s="1"/>
+      <c r="M273" s="1"/>
+      <c r="N273" s="1"/>
+      <c r="O273" s="1"/>
+      <c r="P273" s="1"/>
+      <c r="Q273" s="1"/>
+      <c r="R273" s="1"/>
+    </row>
+    <row r="274" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F274" s="1"/>
+      <c r="G274" s="1"/>
+      <c r="H274" s="1"/>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1"/>
+      <c r="K274" s="1"/>
+      <c r="L274" s="1"/>
+      <c r="M274" s="1"/>
+      <c r="N274" s="1"/>
+      <c r="O274" s="1"/>
+      <c r="P274" s="1"/>
+      <c r="Q274" s="1"/>
+      <c r="R274" s="1"/>
     </row>
     <row r="275" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F275" s="1"/>
@@ -3692,39 +3721,37 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="R280" s="1"/>
     </row>
     <row r="281" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F281" s="1"/>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
-      <c r="I281" s="1"/>
-      <c r="J281" s="1"/>
-      <c r="K281" s="1"/>
-      <c r="L281" s="1"/>
-      <c r="M281" s="1"/>
-      <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
-      <c r="P281" s="1"/>
-      <c r="Q281" s="1"/>
-      <c r="R281" s="1"/>
-    </row>
-    <row r="282" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F282" s="1"/>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
-      <c r="I282" s="1"/>
-      <c r="J282" s="1"/>
-      <c r="K282" s="1"/>
-      <c r="L282" s="1"/>
-      <c r="M282" s="1"/>
-      <c r="N282" s="1"/>
-      <c r="O282" s="1"/>
-      <c r="P282" s="1"/>
-      <c r="Q282" s="1"/>
     </row>
     <row r="283" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F283" s="1"/>
+      <c r="G283" s="1"/>
+      <c r="H283" s="1"/>
+      <c r="J283" s="1"/>
+      <c r="K283" s="1"/>
+      <c r="L283" s="1"/>
+      <c r="M283" s="1"/>
+      <c r="N283" s="1"/>
+      <c r="O283" s="1"/>
+      <c r="P283" s="1"/>
+      <c r="Q283" s="1"/>
+      <c r="R283" s="1"/>
+    </row>
+    <row r="284" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F284" s="1"/>
+      <c r="G284" s="1"/>
+      <c r="H284" s="1"/>
+      <c r="J284" s="1"/>
+      <c r="K284" s="1"/>
+      <c r="L284" s="1"/>
+      <c r="M284" s="1"/>
+      <c r="N284" s="1"/>
+      <c r="O284" s="1"/>
+      <c r="P284" s="1"/>
+      <c r="Q284" s="1"/>
+      <c r="R284" s="1"/>
     </row>
     <row r="285" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F285" s="1"/>
@@ -3786,6 +3813,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -3795,20 +3823,6 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-    </row>
-    <row r="290" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F290" s="1"/>
-      <c r="G290" s="1"/>
-      <c r="H290" s="1"/>
-      <c r="J290" s="1"/>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
-      <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1"/>
-      <c r="Q290" s="1"/>
-      <c r="R290" s="1"/>
     </row>
     <row r="291" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
@@ -3823,46 +3837,37 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="R291" s="1"/>
-    </row>
-    <row r="293" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
-      <c r="M293" s="1"/>
-      <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-      <c r="P293" s="1"/>
-      <c r="Q293" s="1"/>
-    </row>
-    <row r="297" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F297" s="1"/>
-    </row>
-    <row r="305" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F305" s="1"/>
-    </row>
-    <row r="312" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F312" s="1"/>
-    </row>
-    <row r="315" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F316" s="1"/>
+    </row>
+    <row r="295" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F295" s="1"/>
+    </row>
+    <row r="303" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F303" s="1"/>
+    </row>
+    <row r="310" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F310" s="1"/>
+    </row>
+    <row r="313" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F314" s="1"/>
+    </row>
+    <row r="317" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F318" s="1"/>
+      <c r="G318" s="1"/>
     </row>
     <row r="319" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
     </row>
-    <row r="320" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F320" s="1"/>
-      <c r="G320" s="1"/>
-    </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F321" s="1"/>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355" s="3"/>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I356" s="3"/>
     </row>
     <row r="357" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I357" s="3"/>
@@ -3900,12 +3905,12 @@
     <row r="368" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I369" s="3"/>
-    </row>
     <row r="370" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I370" s="3"/>
     </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" s="3"/>
+    </row>
     <row r="372" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I372" s="3"/>
     </row>
@@ -3933,20 +3938,28 @@
     <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I381" s="3"/>
-    </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I382" s="3"/>
-    </row>
+    <row r="382" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="384" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F385" s="1"/>
+    </row>
     <row r="386" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F387" s="1"/>
-    </row>
-    <row r="388" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F388" s="1"/>
+      <c r="G388" s="1"/>
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+      <c r="K388" s="1"/>
+      <c r="L388" s="1"/>
+      <c r="M388" s="1"/>
+      <c r="N388" s="1"/>
+      <c r="O388" s="1"/>
+      <c r="P388" s="1"/>
+    </row>
     <row r="390" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
@@ -3959,8 +3972,21 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
     </row>
+    <row r="391" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+      <c r="M391" s="1"/>
+      <c r="N391" s="1"/>
+      <c r="O391" s="1"/>
+      <c r="P391" s="1"/>
+    </row>
     <row r="392" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
@@ -3974,7 +4000,6 @@
       <c r="P392" s="1"/>
     </row>
     <row r="393" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
@@ -4066,6 +4091,7 @@
       <c r="P399" s="1"/>
     </row>
     <row r="400" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E400" s="1"/>
       <c r="F400" s="1"/>
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
@@ -4079,6 +4105,7 @@
       <c r="P400" s="1"/>
     </row>
     <row r="401" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
@@ -4092,7 +4119,6 @@
       <c r="P401" s="1"/>
     </row>
     <row r="402" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
@@ -4106,7 +4132,6 @@
       <c r="P402" s="1"/>
     </row>
     <row r="403" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E403" s="1"/>
       <c r="F403" s="1"/>
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
@@ -4145,31 +4170,33 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
     </row>
-    <row r="406" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F406" s="1"/>
-      <c r="G406" s="1"/>
-      <c r="H406" s="1"/>
-      <c r="I406" s="1"/>
-      <c r="J406" s="1"/>
-      <c r="K406" s="1"/>
-      <c r="L406" s="1"/>
-      <c r="M406" s="1"/>
-      <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
-      <c r="P406" s="1"/>
-    </row>
-    <row r="407" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F407" s="1"/>
-      <c r="G407" s="1"/>
-      <c r="H407" s="1"/>
-      <c r="I407" s="1"/>
-      <c r="J407" s="1"/>
-      <c r="K407" s="1"/>
-      <c r="L407" s="1"/>
-      <c r="M407" s="1"/>
-      <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
-      <c r="P407" s="1"/>
+    <row r="418" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F418" s="1"/>
+      <c r="G418" s="1"/>
+      <c r="H418" s="1"/>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+      <c r="K418" s="1"/>
+      <c r="L418" s="1"/>
+      <c r="M418" s="1"/>
+      <c r="N418" s="1"/>
+      <c r="O418" s="1"/>
+      <c r="P418" s="1"/>
+      <c r="Q418" s="1"/>
+    </row>
+    <row r="419" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+      <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="1"/>
+      <c r="N419" s="1"/>
+      <c r="O419" s="1"/>
+      <c r="P419" s="1"/>
+      <c r="Q419" s="1"/>
     </row>
     <row r="420" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F420" s="1"/>
@@ -4255,33 +4282,31 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
     </row>
-    <row r="426" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F426" s="1"/>
-      <c r="G426" s="1"/>
-      <c r="H426" s="1"/>
-      <c r="I426" s="1"/>
-      <c r="J426" s="1"/>
-      <c r="K426" s="1"/>
-      <c r="L426" s="1"/>
-      <c r="M426" s="1"/>
-      <c r="N426" s="1"/>
-      <c r="O426" s="1"/>
-      <c r="P426" s="1"/>
-      <c r="Q426" s="1"/>
-    </row>
-    <row r="427" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F427" s="1"/>
-      <c r="G427" s="1"/>
-      <c r="H427" s="1"/>
-      <c r="I427" s="1"/>
-      <c r="J427" s="1"/>
-      <c r="K427" s="1"/>
-      <c r="L427" s="1"/>
-      <c r="M427" s="1"/>
-      <c r="N427" s="1"/>
-      <c r="O427" s="1"/>
-      <c r="P427" s="1"/>
-      <c r="Q427" s="1"/>
+    <row r="428" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F428" s="1"/>
+      <c r="G428" s="1"/>
+      <c r="H428" s="1"/>
+      <c r="J428" s="1"/>
+      <c r="K428" s="1"/>
+      <c r="L428" s="1"/>
+      <c r="M428" s="1"/>
+      <c r="N428" s="1"/>
+      <c r="O428" s="1"/>
+      <c r="P428" s="1"/>
+      <c r="Q428" s="1"/>
+    </row>
+    <row r="429" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F429" s="1"/>
+      <c r="G429" s="1"/>
+      <c r="H429" s="1"/>
+      <c r="J429" s="1"/>
+      <c r="K429" s="1"/>
+      <c r="L429" s="1"/>
+      <c r="M429" s="1"/>
+      <c r="N429" s="1"/>
+      <c r="O429" s="1"/>
+      <c r="P429" s="1"/>
+      <c r="Q429" s="1"/>
     </row>
     <row r="430" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F430" s="1"/>
@@ -4333,12 +4358,12 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
-      <c r="Q433" s="1"/>
     </row>
     <row r="434" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F434" s="1"/>
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
+      <c r="I434" s="1"/>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -4352,6 +4377,7 @@
       <c r="F435" s="1"/>
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
+      <c r="I435" s="1"/>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
@@ -4359,20 +4385,7 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-    </row>
-    <row r="436" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F436" s="1"/>
-      <c r="G436" s="1"/>
-      <c r="H436" s="1"/>
-      <c r="I436" s="1"/>
-      <c r="J436" s="1"/>
-      <c r="K436" s="1"/>
-      <c r="L436" s="1"/>
-      <c r="M436" s="1"/>
-      <c r="N436" s="1"/>
-      <c r="O436" s="1"/>
-      <c r="P436" s="1"/>
-      <c r="Q436" s="1"/>
+      <c r="Q435" s="1"/>
     </row>
     <row r="437" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F437" s="1"/>
@@ -4388,6 +4401,20 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
     </row>
+    <row r="438" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F438" s="1"/>
+      <c r="G438" s="1"/>
+      <c r="H438" s="1"/>
+      <c r="I438" s="1"/>
+      <c r="J438" s="1"/>
+      <c r="K438" s="1"/>
+      <c r="L438" s="1"/>
+      <c r="M438" s="1"/>
+      <c r="N438" s="1"/>
+      <c r="O438" s="1"/>
+      <c r="P438" s="1"/>
+      <c r="Q438" s="1"/>
+    </row>
     <row r="439" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F439" s="1"/>
       <c r="G439" s="1"/>
@@ -4474,34 +4501,32 @@
     </row>
     <row r="445" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F445" s="1"/>
-      <c r="G445" s="1"/>
-      <c r="H445" s="1"/>
-      <c r="I445" s="1"/>
-      <c r="J445" s="1"/>
-      <c r="K445" s="1"/>
-      <c r="L445" s="1"/>
-      <c r="M445" s="1"/>
-      <c r="N445" s="1"/>
-      <c r="O445" s="1"/>
-      <c r="P445" s="1"/>
-      <c r="Q445" s="1"/>
-    </row>
-    <row r="446" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F446" s="1"/>
-      <c r="G446" s="1"/>
-      <c r="H446" s="1"/>
-      <c r="I446" s="1"/>
-      <c r="J446" s="1"/>
-      <c r="K446" s="1"/>
-      <c r="L446" s="1"/>
-      <c r="M446" s="1"/>
-      <c r="N446" s="1"/>
-      <c r="O446" s="1"/>
-      <c r="P446" s="1"/>
-      <c r="Q446" s="1"/>
     </row>
     <row r="447" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
+      <c r="G447" s="1"/>
+      <c r="H447" s="1"/>
+      <c r="J447" s="1"/>
+      <c r="K447" s="1"/>
+      <c r="L447" s="1"/>
+      <c r="M447" s="1"/>
+      <c r="N447" s="1"/>
+      <c r="O447" s="1"/>
+      <c r="P447" s="1"/>
+      <c r="Q447" s="1"/>
+    </row>
+    <row r="448" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F448" s="1"/>
+      <c r="G448" s="1"/>
+      <c r="H448" s="1"/>
+      <c r="J448" s="1"/>
+      <c r="K448" s="1"/>
+      <c r="L448" s="1"/>
+      <c r="M448" s="1"/>
+      <c r="N448" s="1"/>
+      <c r="O448" s="1"/>
+      <c r="P448" s="1"/>
+      <c r="Q448" s="1"/>
     </row>
     <row r="449" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F449" s="1"/>
@@ -4559,6 +4584,7 @@
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
+      <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
@@ -4572,6 +4598,7 @@
       <c r="F454" s="1"/>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
+      <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
       <c r="L454" s="1"/>
@@ -4579,37 +4606,35 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
-      <c r="Q454" s="1"/>
     </row>
     <row r="455" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F455" s="1"/>
-      <c r="G455" s="1"/>
-      <c r="H455" s="1"/>
-      <c r="I455" s="1"/>
-      <c r="J455" s="1"/>
-      <c r="K455" s="1"/>
-      <c r="L455" s="1"/>
-      <c r="M455" s="1"/>
-      <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
-      <c r="Q455" s="1"/>
-    </row>
-    <row r="456" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F456" s="1"/>
-      <c r="G456" s="1"/>
-      <c r="H456" s="1"/>
-      <c r="I456" s="1"/>
-      <c r="J456" s="1"/>
-      <c r="K456" s="1"/>
-      <c r="L456" s="1"/>
-      <c r="M456" s="1"/>
-      <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
-      <c r="P456" s="1"/>
     </row>
     <row r="457" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
+      <c r="G457" s="1"/>
+      <c r="H457" s="1"/>
+      <c r="J457" s="1"/>
+      <c r="K457" s="1"/>
+      <c r="L457" s="1"/>
+      <c r="M457" s="1"/>
+      <c r="N457" s="1"/>
+      <c r="O457" s="1"/>
+      <c r="P457" s="1"/>
+      <c r="Q457" s="1"/>
+    </row>
+    <row r="458" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F458" s="1"/>
+      <c r="G458" s="1"/>
+      <c r="H458" s="1"/>
+      <c r="J458" s="1"/>
+      <c r="K458" s="1"/>
+      <c r="L458" s="1"/>
+      <c r="M458" s="1"/>
+      <c r="N458" s="1"/>
+      <c r="O458" s="1"/>
+      <c r="P458" s="1"/>
+      <c r="Q458" s="1"/>
     </row>
     <row r="459" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F459" s="1"/>
@@ -4667,6 +4692,7 @@
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
+      <c r="I463" s="1"/>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
@@ -4680,6 +4706,7 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
+      <c r="I464" s="1"/>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -4687,37 +4714,35 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
-      <c r="Q464" s="1"/>
     </row>
     <row r="465" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F465" s="1"/>
-      <c r="G465" s="1"/>
-      <c r="H465" s="1"/>
-      <c r="I465" s="1"/>
-      <c r="J465" s="1"/>
-      <c r="K465" s="1"/>
-      <c r="L465" s="1"/>
-      <c r="M465" s="1"/>
-      <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
-      <c r="P465" s="1"/>
-      <c r="Q465" s="1"/>
-    </row>
-    <row r="466" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F466" s="1"/>
-      <c r="G466" s="1"/>
-      <c r="H466" s="1"/>
-      <c r="I466" s="1"/>
-      <c r="J466" s="1"/>
-      <c r="K466" s="1"/>
-      <c r="L466" s="1"/>
-      <c r="M466" s="1"/>
-      <c r="N466" s="1"/>
-      <c r="O466" s="1"/>
-      <c r="P466" s="1"/>
     </row>
     <row r="467" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F467" s="1"/>
+      <c r="G467" s="1"/>
+      <c r="H467" s="1"/>
+      <c r="J467" s="1"/>
+      <c r="K467" s="1"/>
+      <c r="L467" s="1"/>
+      <c r="M467" s="1"/>
+      <c r="N467" s="1"/>
+      <c r="O467" s="1"/>
+      <c r="P467" s="1"/>
+      <c r="Q467" s="1"/>
+    </row>
+    <row r="468" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F468" s="1"/>
+      <c r="G468" s="1"/>
+      <c r="H468" s="1"/>
+      <c r="J468" s="1"/>
+      <c r="K468" s="1"/>
+      <c r="L468" s="1"/>
+      <c r="M468" s="1"/>
+      <c r="N468" s="1"/>
+      <c r="O468" s="1"/>
+      <c r="P468" s="1"/>
+      <c r="Q468" s="1"/>
     </row>
     <row r="469" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F469" s="1"/>
@@ -4775,6 +4800,7 @@
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
+      <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
@@ -4784,32 +4810,33 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
     </row>
-    <row r="474" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F474" s="1"/>
-      <c r="G474" s="1"/>
-      <c r="H474" s="1"/>
-      <c r="J474" s="1"/>
-      <c r="K474" s="1"/>
-      <c r="L474" s="1"/>
-      <c r="M474" s="1"/>
-      <c r="N474" s="1"/>
-      <c r="O474" s="1"/>
-      <c r="P474" s="1"/>
-      <c r="Q474" s="1"/>
-    </row>
-    <row r="475" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F475" s="1"/>
-      <c r="G475" s="1"/>
-      <c r="H475" s="1"/>
-      <c r="I475" s="1"/>
-      <c r="J475" s="1"/>
-      <c r="K475" s="1"/>
-      <c r="L475" s="1"/>
-      <c r="M475" s="1"/>
-      <c r="N475" s="1"/>
-      <c r="O475" s="1"/>
-      <c r="P475" s="1"/>
-      <c r="Q475" s="1"/>
+    <row r="476" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+      <c r="H476" s="1"/>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+      <c r="K476" s="1"/>
+      <c r="L476" s="1"/>
+      <c r="M476" s="1"/>
+      <c r="N476" s="1"/>
+      <c r="O476" s="1"/>
+      <c r="P476" s="1"/>
+      <c r="Q476" s="1"/>
+    </row>
+    <row r="477" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F477" s="1"/>
+      <c r="G477" s="1"/>
+      <c r="H477" s="1"/>
+      <c r="I477" s="1"/>
+      <c r="J477" s="1"/>
+      <c r="K477" s="1"/>
+      <c r="L477" s="1"/>
+      <c r="M477" s="1"/>
+      <c r="N477" s="1"/>
+      <c r="O477" s="1"/>
+      <c r="P477" s="1"/>
+      <c r="Q477" s="1"/>
     </row>
     <row r="478" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F478" s="1"/>
@@ -4897,34 +4924,32 @@
     </row>
     <row r="484" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F484" s="1"/>
-      <c r="G484" s="1"/>
-      <c r="H484" s="1"/>
-      <c r="I484" s="1"/>
-      <c r="J484" s="1"/>
-      <c r="K484" s="1"/>
-      <c r="L484" s="1"/>
-      <c r="M484" s="1"/>
-      <c r="N484" s="1"/>
-      <c r="O484" s="1"/>
-      <c r="P484" s="1"/>
-      <c r="Q484" s="1"/>
-    </row>
-    <row r="485" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F485" s="1"/>
-      <c r="G485" s="1"/>
-      <c r="H485" s="1"/>
-      <c r="I485" s="1"/>
-      <c r="J485" s="1"/>
-      <c r="K485" s="1"/>
-      <c r="L485" s="1"/>
-      <c r="M485" s="1"/>
-      <c r="N485" s="1"/>
-      <c r="O485" s="1"/>
-      <c r="P485" s="1"/>
-      <c r="Q485" s="1"/>
     </row>
     <row r="486" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F486" s="1"/>
+      <c r="G486" s="1"/>
+      <c r="H486" s="1"/>
+      <c r="J486" s="1"/>
+      <c r="K486" s="1"/>
+      <c r="L486" s="1"/>
+      <c r="M486" s="1"/>
+      <c r="N486" s="1"/>
+      <c r="O486" s="1"/>
+      <c r="P486" s="1"/>
+      <c r="Q486" s="1"/>
+    </row>
+    <row r="487" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F487" s="1"/>
+      <c r="G487" s="1"/>
+      <c r="H487" s="1"/>
+      <c r="J487" s="1"/>
+      <c r="K487" s="1"/>
+      <c r="L487" s="1"/>
+      <c r="M487" s="1"/>
+      <c r="N487" s="1"/>
+      <c r="O487" s="1"/>
+      <c r="P487" s="1"/>
+      <c r="Q487" s="1"/>
     </row>
     <row r="488" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F488" s="1"/>
@@ -4982,6 +5007,7 @@
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
+      <c r="I492" s="1"/>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
@@ -4995,6 +5021,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
+      <c r="I493" s="1"/>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
       <c r="L493" s="1"/>
@@ -5002,37 +5029,35 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
-      <c r="Q493" s="1"/>
     </row>
     <row r="494" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F494" s="1"/>
-      <c r="G494" s="1"/>
-      <c r="H494" s="1"/>
-      <c r="I494" s="1"/>
-      <c r="J494" s="1"/>
-      <c r="K494" s="1"/>
-      <c r="L494" s="1"/>
-      <c r="M494" s="1"/>
-      <c r="N494" s="1"/>
-      <c r="O494" s="1"/>
-      <c r="P494" s="1"/>
-      <c r="Q494" s="1"/>
-    </row>
-    <row r="495" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F495" s="1"/>
-      <c r="G495" s="1"/>
-      <c r="H495" s="1"/>
-      <c r="I495" s="1"/>
-      <c r="J495" s="1"/>
-      <c r="K495" s="1"/>
-      <c r="L495" s="1"/>
-      <c r="M495" s="1"/>
-      <c r="N495" s="1"/>
-      <c r="O495" s="1"/>
-      <c r="P495" s="1"/>
     </row>
     <row r="496" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
+      <c r="G496" s="1"/>
+      <c r="H496" s="1"/>
+      <c r="J496" s="1"/>
+      <c r="K496" s="1"/>
+      <c r="L496" s="1"/>
+      <c r="M496" s="1"/>
+      <c r="N496" s="1"/>
+      <c r="O496" s="1"/>
+      <c r="P496" s="1"/>
+      <c r="Q496" s="1"/>
+    </row>
+    <row r="497" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F497" s="1"/>
+      <c r="G497" s="1"/>
+      <c r="H497" s="1"/>
+      <c r="J497" s="1"/>
+      <c r="K497" s="1"/>
+      <c r="L497" s="1"/>
+      <c r="M497" s="1"/>
+      <c r="N497" s="1"/>
+      <c r="O497" s="1"/>
+      <c r="P497" s="1"/>
+      <c r="Q497" s="1"/>
     </row>
     <row r="498" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F498" s="1"/>
@@ -5090,6 +5115,7 @@
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
+      <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -5103,6 +5129,7 @@
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
+      <c r="I503" s="1"/>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -5110,37 +5137,35 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
       <c r="P503" s="1"/>
-      <c r="Q503" s="1"/>
     </row>
     <row r="504" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F504" s="1"/>
-      <c r="G504" s="1"/>
-      <c r="H504" s="1"/>
-      <c r="I504" s="1"/>
-      <c r="J504" s="1"/>
-      <c r="K504" s="1"/>
-      <c r="L504" s="1"/>
-      <c r="M504" s="1"/>
-      <c r="N504" s="1"/>
-      <c r="O504" s="1"/>
-      <c r="P504" s="1"/>
-      <c r="Q504" s="1"/>
-    </row>
-    <row r="505" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F505" s="1"/>
-      <c r="G505" s="1"/>
-      <c r="H505" s="1"/>
-      <c r="I505" s="1"/>
-      <c r="J505" s="1"/>
-      <c r="K505" s="1"/>
-      <c r="L505" s="1"/>
-      <c r="M505" s="1"/>
-      <c r="N505" s="1"/>
-      <c r="O505" s="1"/>
-      <c r="P505" s="1"/>
     </row>
     <row r="506" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F506" s="1"/>
+      <c r="G506" s="1"/>
+      <c r="H506" s="1"/>
+      <c r="J506" s="1"/>
+      <c r="K506" s="1"/>
+      <c r="L506" s="1"/>
+      <c r="M506" s="1"/>
+      <c r="N506" s="1"/>
+      <c r="O506" s="1"/>
+      <c r="P506" s="1"/>
+      <c r="Q506" s="1"/>
+    </row>
+    <row r="507" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F507" s="1"/>
+      <c r="G507" s="1"/>
+      <c r="H507" s="1"/>
+      <c r="J507" s="1"/>
+      <c r="K507" s="1"/>
+      <c r="L507" s="1"/>
+      <c r="M507" s="1"/>
+      <c r="N507" s="1"/>
+      <c r="O507" s="1"/>
+      <c r="P507" s="1"/>
+      <c r="Q507" s="1"/>
     </row>
     <row r="508" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F508" s="1"/>
@@ -5198,6 +5223,7 @@
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
+      <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
@@ -5207,32 +5233,33 @@
       <c r="P512" s="1"/>
       <c r="Q512" s="1"/>
     </row>
-    <row r="513" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F513" s="1"/>
-      <c r="G513" s="1"/>
-      <c r="H513" s="1"/>
-      <c r="J513" s="1"/>
-      <c r="K513" s="1"/>
-      <c r="L513" s="1"/>
-      <c r="M513" s="1"/>
-      <c r="N513" s="1"/>
-      <c r="O513" s="1"/>
-      <c r="P513" s="1"/>
-      <c r="Q513" s="1"/>
-    </row>
-    <row r="514" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F514" s="1"/>
-      <c r="G514" s="1"/>
-      <c r="H514" s="1"/>
-      <c r="I514" s="1"/>
-      <c r="J514" s="1"/>
-      <c r="K514" s="1"/>
-      <c r="L514" s="1"/>
-      <c r="M514" s="1"/>
-      <c r="N514" s="1"/>
-      <c r="O514" s="1"/>
-      <c r="P514" s="1"/>
-      <c r="Q514" s="1"/>
+    <row r="515" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F515" s="1"/>
+      <c r="G515" s="1"/>
+      <c r="H515" s="1"/>
+      <c r="I515" s="1"/>
+      <c r="J515" s="1"/>
+      <c r="K515" s="1"/>
+      <c r="L515" s="1"/>
+      <c r="M515" s="1"/>
+      <c r="N515" s="1"/>
+      <c r="O515" s="1"/>
+      <c r="P515" s="1"/>
+      <c r="Q515" s="1"/>
+    </row>
+    <row r="516" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F516" s="1"/>
+      <c r="G516" s="1"/>
+      <c r="H516" s="1"/>
+      <c r="I516" s="1"/>
+      <c r="J516" s="1"/>
+      <c r="K516" s="1"/>
+      <c r="L516" s="1"/>
+      <c r="M516" s="1"/>
+      <c r="N516" s="1"/>
+      <c r="O516" s="1"/>
+      <c r="P516" s="1"/>
+      <c r="Q516" s="1"/>
     </row>
     <row r="517" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F517" s="1"/>
@@ -5320,34 +5347,32 @@
     </row>
     <row r="523" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F523" s="1"/>
-      <c r="G523" s="1"/>
-      <c r="H523" s="1"/>
-      <c r="I523" s="1"/>
-      <c r="J523" s="1"/>
-      <c r="K523" s="1"/>
-      <c r="L523" s="1"/>
-      <c r="M523" s="1"/>
-      <c r="N523" s="1"/>
-      <c r="O523" s="1"/>
-      <c r="P523" s="1"/>
-      <c r="Q523" s="1"/>
-    </row>
-    <row r="524" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F524" s="1"/>
-      <c r="G524" s="1"/>
-      <c r="H524" s="1"/>
-      <c r="I524" s="1"/>
-      <c r="J524" s="1"/>
-      <c r="K524" s="1"/>
-      <c r="L524" s="1"/>
-      <c r="M524" s="1"/>
-      <c r="N524" s="1"/>
-      <c r="O524" s="1"/>
-      <c r="P524" s="1"/>
-      <c r="Q524" s="1"/>
     </row>
     <row r="525" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F525" s="1"/>
+      <c r="G525" s="1"/>
+      <c r="H525" s="1"/>
+      <c r="J525" s="1"/>
+      <c r="K525" s="1"/>
+      <c r="L525" s="1"/>
+      <c r="M525" s="1"/>
+      <c r="N525" s="1"/>
+      <c r="O525" s="1"/>
+      <c r="P525" s="1"/>
+      <c r="Q525" s="1"/>
+    </row>
+    <row r="526" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F526" s="1"/>
+      <c r="G526" s="1"/>
+      <c r="H526" s="1"/>
+      <c r="J526" s="1"/>
+      <c r="K526" s="1"/>
+      <c r="L526" s="1"/>
+      <c r="M526" s="1"/>
+      <c r="N526" s="1"/>
+      <c r="O526" s="1"/>
+      <c r="P526" s="1"/>
+      <c r="Q526" s="1"/>
     </row>
     <row r="527" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F527" s="1"/>
@@ -5405,6 +5430,7 @@
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
       <c r="H531" s="1"/>
+      <c r="I531" s="1"/>
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
@@ -5418,6 +5444,7 @@
       <c r="F532" s="1"/>
       <c r="G532" s="1"/>
       <c r="H532" s="1"/>
+      <c r="I532" s="1"/>
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
@@ -5425,37 +5452,35 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
       <c r="P532" s="1"/>
-      <c r="Q532" s="1"/>
     </row>
     <row r="533" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F533" s="1"/>
-      <c r="G533" s="1"/>
-      <c r="H533" s="1"/>
-      <c r="I533" s="1"/>
-      <c r="J533" s="1"/>
-      <c r="K533" s="1"/>
-      <c r="L533" s="1"/>
-      <c r="M533" s="1"/>
-      <c r="N533" s="1"/>
-      <c r="O533" s="1"/>
-      <c r="P533" s="1"/>
-      <c r="Q533" s="1"/>
-    </row>
-    <row r="534" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F534" s="1"/>
-      <c r="G534" s="1"/>
-      <c r="H534" s="1"/>
-      <c r="I534" s="1"/>
-      <c r="J534" s="1"/>
-      <c r="K534" s="1"/>
-      <c r="L534" s="1"/>
-      <c r="M534" s="1"/>
-      <c r="N534" s="1"/>
-      <c r="O534" s="1"/>
-      <c r="P534" s="1"/>
     </row>
     <row r="535" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F535" s="1"/>
+      <c r="G535" s="1"/>
+      <c r="H535" s="1"/>
+      <c r="J535" s="1"/>
+      <c r="K535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1"/>
+      <c r="N535" s="1"/>
+      <c r="O535" s="1"/>
+      <c r="P535" s="1"/>
+      <c r="Q535" s="1"/>
+    </row>
+    <row r="536" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F536" s="1"/>
+      <c r="G536" s="1"/>
+      <c r="H536" s="1"/>
+      <c r="J536" s="1"/>
+      <c r="K536" s="1"/>
+      <c r="L536" s="1"/>
+      <c r="M536" s="1"/>
+      <c r="N536" s="1"/>
+      <c r="O536" s="1"/>
+      <c r="P536" s="1"/>
+      <c r="Q536" s="1"/>
     </row>
     <row r="537" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F537" s="1"/>
@@ -5513,6 +5538,7 @@
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
+      <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
@@ -5526,6 +5552,7 @@
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
+      <c r="I542" s="1"/>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
@@ -5533,37 +5560,35 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
       <c r="P542" s="1"/>
-      <c r="Q542" s="1"/>
     </row>
     <row r="543" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F543" s="1"/>
-      <c r="G543" s="1"/>
-      <c r="H543" s="1"/>
-      <c r="I543" s="1"/>
-      <c r="J543" s="1"/>
-      <c r="K543" s="1"/>
-      <c r="L543" s="1"/>
-      <c r="M543" s="1"/>
-      <c r="N543" s="1"/>
-      <c r="O543" s="1"/>
-      <c r="P543" s="1"/>
-      <c r="Q543" s="1"/>
-    </row>
-    <row r="544" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F544" s="1"/>
-      <c r="G544" s="1"/>
-      <c r="H544" s="1"/>
-      <c r="I544" s="1"/>
-      <c r="J544" s="1"/>
-      <c r="K544" s="1"/>
-      <c r="L544" s="1"/>
-      <c r="M544" s="1"/>
-      <c r="N544" s="1"/>
-      <c r="O544" s="1"/>
-      <c r="P544" s="1"/>
     </row>
     <row r="545" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F545" s="1"/>
+      <c r="G545" s="1"/>
+      <c r="H545" s="1"/>
+      <c r="J545" s="1"/>
+      <c r="K545" s="1"/>
+      <c r="L545" s="1"/>
+      <c r="M545" s="1"/>
+      <c r="N545" s="1"/>
+      <c r="O545" s="1"/>
+      <c r="P545" s="1"/>
+      <c r="Q545" s="1"/>
+    </row>
+    <row r="546" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F546" s="1"/>
+      <c r="G546" s="1"/>
+      <c r="H546" s="1"/>
+      <c r="J546" s="1"/>
+      <c r="K546" s="1"/>
+      <c r="L546" s="1"/>
+      <c r="M546" s="1"/>
+      <c r="N546" s="1"/>
+      <c r="O546" s="1"/>
+      <c r="P546" s="1"/>
+      <c r="Q546" s="1"/>
     </row>
     <row r="547" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F547" s="1"/>
@@ -5621,6 +5646,7 @@
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
+      <c r="I551" s="1"/>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
@@ -5630,32 +5656,33 @@
       <c r="P551" s="1"/>
       <c r="Q551" s="1"/>
     </row>
-    <row r="552" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F552" s="1"/>
-      <c r="G552" s="1"/>
-      <c r="H552" s="1"/>
-      <c r="J552" s="1"/>
-      <c r="K552" s="1"/>
-      <c r="L552" s="1"/>
-      <c r="M552" s="1"/>
-      <c r="N552" s="1"/>
-      <c r="O552" s="1"/>
-      <c r="P552" s="1"/>
-      <c r="Q552" s="1"/>
-    </row>
-    <row r="553" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F553" s="1"/>
-      <c r="G553" s="1"/>
-      <c r="H553" s="1"/>
-      <c r="I553" s="1"/>
-      <c r="J553" s="1"/>
-      <c r="K553" s="1"/>
-      <c r="L553" s="1"/>
-      <c r="M553" s="1"/>
-      <c r="N553" s="1"/>
-      <c r="O553" s="1"/>
-      <c r="P553" s="1"/>
-      <c r="Q553" s="1"/>
+    <row r="554" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F554" s="1"/>
+      <c r="G554" s="1"/>
+      <c r="H554" s="1"/>
+      <c r="I554" s="1"/>
+      <c r="J554" s="1"/>
+      <c r="K554" s="1"/>
+      <c r="L554" s="1"/>
+      <c r="M554" s="1"/>
+      <c r="N554" s="1"/>
+      <c r="O554" s="1"/>
+      <c r="P554" s="1"/>
+      <c r="Q554" s="1"/>
+    </row>
+    <row r="555" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F555" s="1"/>
+      <c r="G555" s="1"/>
+      <c r="H555" s="1"/>
+      <c r="I555" s="1"/>
+      <c r="J555" s="1"/>
+      <c r="K555" s="1"/>
+      <c r="L555" s="1"/>
+      <c r="M555" s="1"/>
+      <c r="N555" s="1"/>
+      <c r="O555" s="1"/>
+      <c r="P555" s="1"/>
+      <c r="Q555" s="1"/>
     </row>
     <row r="556" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F556" s="1"/>
@@ -5739,37 +5766,35 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
       <c r="P561" s="1"/>
-      <c r="Q561" s="1"/>
     </row>
     <row r="562" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F562" s="1"/>
-      <c r="G562" s="1"/>
-      <c r="H562" s="1"/>
-      <c r="I562" s="1"/>
-      <c r="J562" s="1"/>
-      <c r="K562" s="1"/>
-      <c r="L562" s="1"/>
-      <c r="M562" s="1"/>
-      <c r="N562" s="1"/>
-      <c r="O562" s="1"/>
-      <c r="P562" s="1"/>
-      <c r="Q562" s="1"/>
-    </row>
-    <row r="563" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F563" s="1"/>
-      <c r="G563" s="1"/>
-      <c r="H563" s="1"/>
-      <c r="I563" s="1"/>
-      <c r="J563" s="1"/>
-      <c r="K563" s="1"/>
-      <c r="L563" s="1"/>
-      <c r="M563" s="1"/>
-      <c r="N563" s="1"/>
-      <c r="O563" s="1"/>
-      <c r="P563" s="1"/>
     </row>
     <row r="564" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F564" s="1"/>
+      <c r="G564" s="1"/>
+      <c r="H564" s="1"/>
+      <c r="J564" s="1"/>
+      <c r="K564" s="1"/>
+      <c r="L564" s="1"/>
+      <c r="M564" s="1"/>
+      <c r="N564" s="1"/>
+      <c r="O564" s="1"/>
+      <c r="P564" s="1"/>
+      <c r="Q564" s="1"/>
+    </row>
+    <row r="565" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F565" s="1"/>
+      <c r="G565" s="1"/>
+      <c r="H565" s="1"/>
+      <c r="J565" s="1"/>
+      <c r="K565" s="1"/>
+      <c r="L565" s="1"/>
+      <c r="M565" s="1"/>
+      <c r="N565" s="1"/>
+      <c r="O565" s="1"/>
+      <c r="P565" s="1"/>
+      <c r="Q565" s="1"/>
     </row>
     <row r="566" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F566" s="1"/>
@@ -5827,6 +5852,7 @@
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
       <c r="H570" s="1"/>
+      <c r="I570" s="1"/>
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
@@ -5835,19 +5861,6 @@
       <c r="O570" s="1"/>
       <c r="P570" s="1"/>
       <c r="Q570" s="1"/>
-    </row>
-    <row r="571" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F571" s="1"/>
-      <c r="G571" s="1"/>
-      <c r="H571" s="1"/>
-      <c r="J571" s="1"/>
-      <c r="K571" s="1"/>
-      <c r="L571" s="1"/>
-      <c r="M571" s="1"/>
-      <c r="N571" s="1"/>
-      <c r="O571" s="1"/>
-      <c r="P571" s="1"/>
-      <c r="Q571" s="1"/>
     </row>
     <row r="572" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F572" s="1"/>
@@ -5861,45 +5874,57 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
       <c r="P572" s="1"/>
-      <c r="Q572" s="1"/>
-    </row>
-    <row r="574" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F574" s="1"/>
-      <c r="G574" s="1"/>
-      <c r="H574" s="1"/>
-      <c r="I574" s="1"/>
-      <c r="J574" s="1"/>
-      <c r="K574" s="1"/>
-      <c r="L574" s="1"/>
-      <c r="M574" s="1"/>
-      <c r="N574" s="1"/>
-      <c r="O574" s="1"/>
-      <c r="P574" s="1"/>
-    </row>
-    <row r="578" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F578" s="1"/>
-    </row>
-    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F586" s="1"/>
-    </row>
-    <row r="593" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F593" s="1"/>
-    </row>
-    <row r="596" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F596" s="1"/>
-    </row>
-    <row r="597" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F597" s="1"/>
+    </row>
+    <row r="576" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F576" s="1"/>
+    </row>
+    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F584" s="1"/>
+    </row>
+    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F591" s="1"/>
+    </row>
+    <row r="594" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F594" s="1"/>
+    </row>
+    <row r="595" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F595" s="1"/>
+    </row>
+    <row r="598" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F598" s="1"/>
+    </row>
+    <row r="599" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F599" s="1"/>
+      <c r="G599" s="1"/>
     </row>
     <row r="600" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F600" s="1"/>
     </row>
-    <row r="601" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F601" s="1"/>
-      <c r="G601" s="1"/>
-    </row>
-    <row r="602" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F602" s="1"/>
+    <row r="603" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F603" s="1"/>
+      <c r="G603" s="1"/>
+      <c r="H603" s="1"/>
+      <c r="I603" s="1"/>
+      <c r="J603" s="1"/>
+      <c r="K603" s="1"/>
+      <c r="L603" s="1"/>
+      <c r="M603" s="1"/>
+      <c r="N603" s="1"/>
+      <c r="O603" s="1"/>
+      <c r="P603" s="1"/>
+    </row>
+    <row r="604" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F604" s="1"/>
+      <c r="G604" s="1"/>
+      <c r="H604" s="1"/>
+      <c r="I604" s="1"/>
+      <c r="J604" s="1"/>
+      <c r="K604" s="1"/>
+      <c r="L604" s="1"/>
+      <c r="M604" s="1"/>
+      <c r="N604" s="1"/>
+      <c r="O604" s="1"/>
+      <c r="P604" s="1"/>
     </row>
     <row r="605" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F605" s="1"/>
@@ -5914,46 +5939,34 @@
       <c r="O605" s="1"/>
       <c r="P605" s="1"/>
     </row>
-    <row r="606" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F606" s="1"/>
-      <c r="G606" s="1"/>
-      <c r="H606" s="1"/>
-      <c r="I606" s="1"/>
-      <c r="J606" s="1"/>
-      <c r="K606" s="1"/>
-      <c r="L606" s="1"/>
-      <c r="M606" s="1"/>
-      <c r="N606" s="1"/>
-      <c r="O606" s="1"/>
-      <c r="P606" s="1"/>
-    </row>
-    <row r="607" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F607" s="1"/>
-      <c r="G607" s="1"/>
-      <c r="H607" s="1"/>
-      <c r="I607" s="1"/>
-      <c r="J607" s="1"/>
-      <c r="K607" s="1"/>
-      <c r="L607" s="1"/>
-      <c r="M607" s="1"/>
-      <c r="N607" s="1"/>
-      <c r="O607" s="1"/>
-      <c r="P607" s="1"/>
-    </row>
-    <row r="653" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F653" s="1"/>
-      <c r="G653" s="1"/>
-      <c r="H653" s="1"/>
-      <c r="I653" s="1"/>
-      <c r="J653" s="1"/>
-      <c r="K653" s="1"/>
-      <c r="L653" s="1"/>
-      <c r="M653" s="1"/>
-      <c r="N653" s="1"/>
-      <c r="O653" s="1"/>
-      <c r="P653" s="1"/>
+    <row r="651" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F651" s="1"/>
+      <c r="G651" s="1"/>
+      <c r="H651" s="1"/>
+      <c r="I651" s="1"/>
+      <c r="J651" s="1"/>
+      <c r="K651" s="1"/>
+      <c r="L651" s="1"/>
+      <c r="M651" s="1"/>
+      <c r="N651" s="1"/>
+      <c r="O651" s="1"/>
+      <c r="P651" s="1"/>
+    </row>
+    <row r="652" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F652" s="1"/>
+      <c r="G652" s="1"/>
+      <c r="H652" s="1"/>
+      <c r="I652" s="1"/>
+      <c r="J652" s="1"/>
+      <c r="K652" s="1"/>
+      <c r="L652" s="1"/>
+      <c r="M652" s="1"/>
+      <c r="N652" s="1"/>
+      <c r="O652" s="1"/>
+      <c r="P652" s="1"/>
     </row>
     <row r="654" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E654" s="1"/>
       <c r="F654" s="1"/>
       <c r="G654" s="1"/>
       <c r="H654" s="1"/>
@@ -5966,8 +5979,21 @@
       <c r="O654" s="1"/>
       <c r="P654" s="1"/>
     </row>
+    <row r="655" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E655" s="1"/>
+      <c r="F655" s="1"/>
+      <c r="G655" s="1"/>
+      <c r="H655" s="1"/>
+      <c r="I655" s="1"/>
+      <c r="J655" s="1"/>
+      <c r="K655" s="1"/>
+      <c r="L655" s="1"/>
+      <c r="M655" s="1"/>
+      <c r="N655" s="1"/>
+      <c r="O655" s="1"/>
+      <c r="P655" s="1"/>
+    </row>
     <row r="656" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E656" s="1"/>
       <c r="F656" s="1"/>
       <c r="G656" s="1"/>
       <c r="H656" s="1"/>
@@ -5981,7 +6007,6 @@
       <c r="P656" s="1"/>
     </row>
     <row r="657" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E657" s="1"/>
       <c r="F657" s="1"/>
       <c r="G657" s="1"/>
       <c r="H657" s="1"/>
@@ -6060,6 +6085,7 @@
       <c r="P662" s="1"/>
     </row>
     <row r="663" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E663" s="1"/>
       <c r="F663" s="1"/>
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
@@ -6073,6 +6099,7 @@
       <c r="P663" s="1"/>
     </row>
     <row r="664" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E664" s="1"/>
       <c r="F664" s="1"/>
       <c r="G664" s="1"/>
       <c r="H664" s="1"/>
@@ -6086,7 +6113,6 @@
       <c r="P664" s="1"/>
     </row>
     <row r="665" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E665" s="1"/>
       <c r="F665" s="1"/>
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
@@ -6100,7 +6126,6 @@
       <c r="P665" s="1"/>
     </row>
     <row r="666" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E666" s="1"/>
       <c r="F666" s="1"/>
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
@@ -6139,40 +6164,14 @@
       <c r="O668" s="1"/>
       <c r="P668" s="1"/>
     </row>
-    <row r="669" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F669" s="1"/>
-      <c r="G669" s="1"/>
-      <c r="H669" s="1"/>
-      <c r="I669" s="1"/>
-      <c r="J669" s="1"/>
-      <c r="K669" s="1"/>
-      <c r="L669" s="1"/>
-      <c r="M669" s="1"/>
-      <c r="N669" s="1"/>
-      <c r="O669" s="1"/>
-      <c r="P669" s="1"/>
-    </row>
-    <row r="670" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F670" s="1"/>
-      <c r="G670" s="1"/>
-      <c r="H670" s="1"/>
-      <c r="I670" s="1"/>
-      <c r="J670" s="1"/>
-      <c r="K670" s="1"/>
-      <c r="L670" s="1"/>
-      <c r="M670" s="1"/>
-      <c r="N670" s="1"/>
-      <c r="O670" s="1"/>
-      <c r="P670" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L556:P556 I556:J556">
+  <conditionalFormatting sqref="L554:P554 I554:J554">
     <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L275:Q275 I275:J275">
+  <conditionalFormatting sqref="L273:Q273 I273:J273">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L157:P157 I157:J157">
+  <conditionalFormatting sqref="L155:P155 I155:J155">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6182,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6196,7 +6195,7 @@
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -6210,127 +6209,214 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="7" t="str">
+      <c r="B16" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="C16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6430,10 +6516,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6460,7 +6546,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>16</v>
@@ -6471,7 +6557,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>8</v>
@@ -6493,7 +6579,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -6504,7 +6590,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>22</v>
@@ -6515,23 +6601,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/app/config/tables/rounds/forms/rounds/rounds.xlsx
+++ b/app/config/tables/rounds/forms/rounds/rounds.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADF868-756F-4EEF-83CB-4FA43492DF2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B5004B-9E6D-4EB8-8D4A-333B452662B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>setting_name</t>
   </si>
@@ -226,12 +226,6 @@
     <t>cam1</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Bed</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -350,6 +344,81 @@
   </si>
   <si>
     <t>NA - Não sabe</t>
+  </si>
+  <si>
+    <t>seccheck</t>
+  </si>
+  <si>
+    <t>Same section</t>
+  </si>
+  <si>
+    <t>New section</t>
+  </si>
+  <si>
+    <t>sec1check</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>selected(data('sec1check'),'2')</t>
+  </si>
+  <si>
+    <t>sec1i</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>data('sec1i')</t>
+  </si>
+  <si>
+    <t>cam1i</t>
+  </si>
+  <si>
+    <t>data('cam1i')</t>
+  </si>
+  <si>
+    <t>cam1check</t>
+  </si>
+  <si>
+    <t>camcheck</t>
+  </si>
+  <si>
+    <t>selected(data('cam1check'),'2')</t>
+  </si>
+  <si>
+    <t>Same bed</t>
+  </si>
+  <si>
+    <t>New bed</t>
+  </si>
+  <si>
+    <t>cam1n</t>
+  </si>
+  <si>
+    <t>data('cam1n')</t>
+  </si>
+  <si>
+    <t>Section: {{data.sec1i}}</t>
+  </si>
+  <si>
+    <t>Bed: {{data.cam1i}}</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(data('sec1'),'NA') || data('cam1na') != null </t>
+  </si>
+  <si>
+    <t>What have been done to find the child?</t>
+  </si>
+  <si>
+    <t>lateroundcom</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
 </sst>
 </file>
@@ -801,7 +870,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -809,12 +878,12 @@
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -934,7 +1003,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -947,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:R668"/>
+  <dimension ref="A1:R684"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>46</v>
@@ -1035,262 +1104,220 @@
     </row>
     <row r="3" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>59</v>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
+    <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1319,6 +1346,20 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1389,39 +1430,10 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-    </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -1433,6 +1445,29 @@
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
@@ -1471,12 +1506,12 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -1490,6 +1525,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -1498,19 +1534,6 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
@@ -1538,14 +1561,41 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -1559,6 +1609,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -1572,6 +1623,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -1585,6 +1637,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -1596,35 +1649,11 @@
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -1638,7 +1667,6 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -1646,9 +1674,33 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
@@ -1680,6 +1732,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -1693,6 +1746,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -1700,39 +1754,14 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -1742,11 +1771,36 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
     <row r="77" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -1760,7 +1814,6 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -1774,7 +1827,6 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -1810,41 +1862,14 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
     </row>
     <row r="82" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -1856,6 +1881,29 @@
     </row>
     <row r="85" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
     </row>
     <row r="87" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
@@ -1900,6 +1948,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -1908,32 +1957,6 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
@@ -1961,14 +1984,41 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -1982,6 +2032,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -1995,6 +2046,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -2008,6 +2060,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -2019,35 +2072,11 @@
     </row>
     <row r="101" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
     </row>
     <row r="103" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -2061,7 +2090,6 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -2069,9 +2097,33 @@
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
     </row>
     <row r="105" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
@@ -2103,6 +2155,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -2116,6 +2169,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -2123,39 +2177,14 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
     </row>
     <row r="113" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -2165,11 +2194,36 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
     </row>
+    <row r="114" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+    </row>
     <row r="116" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -2183,7 +2237,6 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -2197,7 +2250,6 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -2233,41 +2285,14 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
     </row>
     <row r="121" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
     </row>
     <row r="123" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -2279,6 +2304,29 @@
     </row>
     <row r="124" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
     </row>
     <row r="126" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F126" s="1"/>
@@ -2323,6 +2371,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -2331,32 +2380,6 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
     </row>
     <row r="132" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F132" s="1"/>
@@ -2384,14 +2407,41 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
     </row>
     <row r="134" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
     </row>
     <row r="136" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -2405,6 +2455,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -2418,6 +2469,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -2431,6 +2483,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -2442,35 +2495,11 @@
     </row>
     <row r="140" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
     </row>
     <row r="142" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -2484,7 +2513,6 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -2492,9 +2520,33 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
     </row>
     <row r="144" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
     </row>
     <row r="146" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F146" s="1"/>
@@ -2526,6 +2578,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -2539,6 +2592,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -2546,39 +2600,14 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
     </row>
     <row r="150" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
     </row>
     <row r="152" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -2588,11 +2617,36 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
     </row>
+    <row r="153" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+    </row>
     <row r="155" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -2606,7 +2660,6 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -2620,7 +2673,6 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -2656,41 +2708,14 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
     </row>
     <row r="160" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
     </row>
     <row r="162" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -2698,9 +2723,33 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
     </row>
     <row r="163" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
     </row>
     <row r="165" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F165" s="1"/>
@@ -2745,6 +2794,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -2753,32 +2803,6 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
     </row>
     <row r="171" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
@@ -2794,6 +2818,20 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
     </row>
+    <row r="172" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+    </row>
     <row r="173" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -2806,238 +2844,214 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-    </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F177" s="1"/>
-    </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+    </row>
+    <row r="179" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F179" s="1"/>
+    </row>
+    <row r="181" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F185" s="1"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="1"/>
-    </row>
-    <row r="195" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F196" s="1"/>
-    </row>
-    <row r="199" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="189" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="1"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
     </row>
-    <row r="206" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
-      <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
-      <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-    </row>
-    <row r="207" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
-      <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
-      <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-    </row>
-    <row r="208" spans="6:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-    </row>
-    <row r="209" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="1"/>
-      <c r="L209" s="1"/>
-      <c r="M209" s="1"/>
-      <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
-      <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-    </row>
-    <row r="210" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="1"/>
-      <c r="L210" s="1"/>
-      <c r="M210" s="1"/>
-      <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
-      <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
     </row>
     <row r="211" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="1"/>
-      <c r="L211" s="1"/>
-      <c r="M211" s="1"/>
-      <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
-      <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
     </row>
     <row r="212" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="1"/>
-      <c r="L212" s="1"/>
-      <c r="M212" s="1"/>
-      <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
-      <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F213" s="1"/>
     </row>
     <row r="215" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
     </row>
     <row r="216" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
     </row>
     <row r="217" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-    </row>
-    <row r="218" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-    </row>
-    <row r="219" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-    </row>
-    <row r="220" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-    </row>
-    <row r="221" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-      <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
     </row>
     <row r="222" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -3046,9 +3060,35 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
     </row>
     <row r="223" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+    </row>
+    <row r="224" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
     </row>
     <row r="225" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
@@ -3082,6 +3122,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -3096,6 +3137,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -3104,41 +3146,14 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
     </row>
     <row r="229" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
-      <c r="J229" s="1"/>
-      <c r="K229" s="1"/>
-      <c r="L229" s="1"/>
-      <c r="M229" s="1"/>
-      <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-    </row>
-    <row r="230" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
-      <c r="J230" s="1"/>
-      <c r="K230" s="1"/>
-      <c r="L230" s="1"/>
-      <c r="M230" s="1"/>
-      <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
     </row>
     <row r="231" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
-      <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -3149,11 +3164,38 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
+    <row r="232" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+    </row>
     <row r="234" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -3168,7 +3210,6 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -3183,7 +3224,6 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -3222,43 +3262,14 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
     </row>
     <row r="239" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
-      <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
-    </row>
-    <row r="240" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
-      <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
     </row>
     <row r="241" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -3271,6 +3282,31 @@
     </row>
     <row r="242" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F242" s="1"/>
+      <c r="G242" s="1"/>
+      <c r="H242" s="1"/>
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+      <c r="O242" s="1"/>
+      <c r="P242" s="1"/>
+      <c r="Q242" s="1"/>
+      <c r="R242" s="1"/>
+    </row>
+    <row r="243" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F243" s="1"/>
+      <c r="G243" s="1"/>
+      <c r="H243" s="1"/>
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+      <c r="O243" s="1"/>
+      <c r="P243" s="1"/>
+      <c r="Q243" s="1"/>
+      <c r="R243" s="1"/>
     </row>
     <row r="244" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
@@ -3318,6 +3354,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -3327,34 +3364,6 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-    </row>
-    <row r="248" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
-      <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-      <c r="R248" s="1"/>
-    </row>
-    <row r="249" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-      <c r="R249" s="1"/>
     </row>
     <row r="250" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
@@ -3384,14 +3393,43 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
     </row>
     <row r="252" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+    </row>
+    <row r="253" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F253" s="1"/>
+      <c r="G253" s="1"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="1"/>
+      <c r="J253" s="1"/>
+      <c r="K253" s="1"/>
+      <c r="L253" s="1"/>
+      <c r="M253" s="1"/>
+      <c r="N253" s="1"/>
+      <c r="O253" s="1"/>
+      <c r="P253" s="1"/>
+      <c r="Q253" s="1"/>
+      <c r="R253" s="1"/>
     </row>
     <row r="254" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
+      <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -3406,6 +3444,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
+      <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -3420,6 +3459,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
+      <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -3434,6 +3474,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
+      <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -3446,37 +3487,11 @@
     </row>
     <row r="258" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-      <c r="R258" s="1"/>
-    </row>
-    <row r="259" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
-      <c r="J259" s="1"/>
-      <c r="K259" s="1"/>
-      <c r="L259" s="1"/>
-      <c r="M259" s="1"/>
-      <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
-      <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
-      <c r="R259" s="1"/>
     </row>
     <row r="260" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
-      <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -3491,7 +3506,6 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
-      <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -3500,9 +3514,35 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
+      <c r="R261" s="1"/>
     </row>
     <row r="262" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="J262" s="1"/>
+      <c r="K262" s="1"/>
+      <c r="L262" s="1"/>
+      <c r="M262" s="1"/>
+      <c r="N262" s="1"/>
+      <c r="O262" s="1"/>
+      <c r="P262" s="1"/>
+      <c r="Q262" s="1"/>
+      <c r="R262" s="1"/>
+    </row>
+    <row r="263" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="J263" s="1"/>
+      <c r="K263" s="1"/>
+      <c r="L263" s="1"/>
+      <c r="M263" s="1"/>
+      <c r="N263" s="1"/>
+      <c r="O263" s="1"/>
+      <c r="P263" s="1"/>
+      <c r="Q263" s="1"/>
+      <c r="R263" s="1"/>
     </row>
     <row r="264" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
@@ -3536,6 +3576,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
@@ -3550,6 +3591,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -3558,41 +3600,14 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="R267" s="1"/>
     </row>
     <row r="268" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
-      <c r="G268" s="1"/>
-      <c r="H268" s="1"/>
-      <c r="J268" s="1"/>
-      <c r="K268" s="1"/>
-      <c r="L268" s="1"/>
-      <c r="M268" s="1"/>
-      <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
-      <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
-      <c r="R268" s="1"/>
-    </row>
-    <row r="269" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="1"/>
-      <c r="L269" s="1"/>
-      <c r="M269" s="1"/>
-      <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
-      <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
-      <c r="R269" s="1"/>
     </row>
     <row r="270" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
-      <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
@@ -3603,11 +3618,38 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
     </row>
+    <row r="271" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F271" s="1"/>
+      <c r="G271" s="1"/>
+      <c r="H271" s="1"/>
+      <c r="J271" s="1"/>
+      <c r="K271" s="1"/>
+      <c r="L271" s="1"/>
+      <c r="M271" s="1"/>
+      <c r="N271" s="1"/>
+      <c r="O271" s="1"/>
+      <c r="P271" s="1"/>
+      <c r="Q271" s="1"/>
+      <c r="R271" s="1"/>
+    </row>
+    <row r="272" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F272" s="1"/>
+      <c r="G272" s="1"/>
+      <c r="H272" s="1"/>
+      <c r="J272" s="1"/>
+      <c r="K272" s="1"/>
+      <c r="L272" s="1"/>
+      <c r="M272" s="1"/>
+      <c r="N272" s="1"/>
+      <c r="O272" s="1"/>
+      <c r="P272" s="1"/>
+      <c r="Q272" s="1"/>
+      <c r="R272" s="1"/>
+    </row>
     <row r="273" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
-      <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -3622,7 +3664,6 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
-      <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -3637,7 +3678,6 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
-      <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
@@ -3676,43 +3716,14 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="R277" s="1"/>
     </row>
     <row r="278" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F278" s="1"/>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
-      <c r="I278" s="1"/>
-      <c r="J278" s="1"/>
-      <c r="K278" s="1"/>
-      <c r="L278" s="1"/>
-      <c r="M278" s="1"/>
-      <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
-      <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
-      <c r="R278" s="1"/>
-    </row>
-    <row r="279" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F279" s="1"/>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
-      <c r="I279" s="1"/>
-      <c r="J279" s="1"/>
-      <c r="K279" s="1"/>
-      <c r="L279" s="1"/>
-      <c r="M279" s="1"/>
-      <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
-      <c r="P279" s="1"/>
-      <c r="Q279" s="1"/>
-      <c r="R279" s="1"/>
     </row>
     <row r="280" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
-      <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
       <c r="L280" s="1"/>
@@ -3721,9 +3732,35 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
+      <c r="R280" s="1"/>
     </row>
     <row r="281" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="H281" s="1"/>
+      <c r="J281" s="1"/>
+      <c r="K281" s="1"/>
+      <c r="L281" s="1"/>
+      <c r="M281" s="1"/>
+      <c r="N281" s="1"/>
+      <c r="O281" s="1"/>
+      <c r="P281" s="1"/>
+      <c r="Q281" s="1"/>
+      <c r="R281" s="1"/>
+    </row>
+    <row r="282" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="H282" s="1"/>
+      <c r="J282" s="1"/>
+      <c r="K282" s="1"/>
+      <c r="L282" s="1"/>
+      <c r="M282" s="1"/>
+      <c r="N282" s="1"/>
+      <c r="O282" s="1"/>
+      <c r="P282" s="1"/>
+      <c r="Q282" s="1"/>
+      <c r="R282" s="1"/>
     </row>
     <row r="283" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F283" s="1"/>
@@ -3771,6 +3808,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
+      <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
@@ -3780,34 +3818,6 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-    </row>
-    <row r="287" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F287" s="1"/>
-      <c r="G287" s="1"/>
-      <c r="H287" s="1"/>
-      <c r="J287" s="1"/>
-      <c r="K287" s="1"/>
-      <c r="L287" s="1"/>
-      <c r="M287" s="1"/>
-      <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
-      <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
-      <c r="R287" s="1"/>
-    </row>
-    <row r="288" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F288" s="1"/>
-      <c r="G288" s="1"/>
-      <c r="H288" s="1"/>
-      <c r="J288" s="1"/>
-      <c r="K288" s="1"/>
-      <c r="L288" s="1"/>
-      <c r="M288" s="1"/>
-      <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
-      <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
-      <c r="R288" s="1"/>
     </row>
     <row r="289" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
@@ -3824,6 +3834,21 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
     </row>
+    <row r="290" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F290" s="1"/>
+      <c r="G290" s="1"/>
+      <c r="H290" s="1"/>
+      <c r="I290" s="1"/>
+      <c r="J290" s="1"/>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
+      <c r="N290" s="1"/>
+      <c r="O290" s="1"/>
+      <c r="P290" s="1"/>
+      <c r="Q290" s="1"/>
+      <c r="R290" s="1"/>
+    </row>
     <row r="291" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
@@ -3837,76 +3862,222 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
+      <c r="R291" s="1"/>
+    </row>
+    <row r="292" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="H292" s="1"/>
+      <c r="I292" s="1"/>
+      <c r="J292" s="1"/>
+      <c r="K292" s="1"/>
+      <c r="L292" s="1"/>
+      <c r="M292" s="1"/>
+      <c r="N292" s="1"/>
+      <c r="O292" s="1"/>
+      <c r="P292" s="1"/>
+      <c r="Q292" s="1"/>
+      <c r="R292" s="1"/>
+    </row>
+    <row r="293" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="H293" s="1"/>
+      <c r="I293" s="1"/>
+      <c r="J293" s="1"/>
+      <c r="K293" s="1"/>
+      <c r="L293" s="1"/>
+      <c r="M293" s="1"/>
+      <c r="N293" s="1"/>
+      <c r="O293" s="1"/>
+      <c r="P293" s="1"/>
+      <c r="Q293" s="1"/>
+      <c r="R293" s="1"/>
+    </row>
+    <row r="294" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="H294" s="1"/>
+      <c r="I294" s="1"/>
+      <c r="J294" s="1"/>
+      <c r="K294" s="1"/>
+      <c r="L294" s="1"/>
+      <c r="M294" s="1"/>
+      <c r="N294" s="1"/>
+      <c r="O294" s="1"/>
+      <c r="P294" s="1"/>
+      <c r="Q294" s="1"/>
+      <c r="R294" s="1"/>
     </row>
     <row r="295" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="H295" s="1"/>
+      <c r="I295" s="1"/>
+      <c r="J295" s="1"/>
+      <c r="K295" s="1"/>
+      <c r="L295" s="1"/>
+      <c r="M295" s="1"/>
+      <c r="N295" s="1"/>
+      <c r="O295" s="1"/>
+      <c r="P295" s="1"/>
+      <c r="Q295" s="1"/>
+      <c r="R295" s="1"/>
+    </row>
+    <row r="296" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="H296" s="1"/>
+      <c r="I296" s="1"/>
+      <c r="J296" s="1"/>
+      <c r="K296" s="1"/>
+      <c r="L296" s="1"/>
+      <c r="M296" s="1"/>
+      <c r="N296" s="1"/>
+      <c r="O296" s="1"/>
+      <c r="P296" s="1"/>
+      <c r="Q296" s="1"/>
+    </row>
+    <row r="297" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F297" s="1"/>
+    </row>
+    <row r="299" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F299" s="1"/>
+      <c r="G299" s="1"/>
+      <c r="H299" s="1"/>
+      <c r="J299" s="1"/>
+      <c r="K299" s="1"/>
+      <c r="L299" s="1"/>
+      <c r="M299" s="1"/>
+      <c r="N299" s="1"/>
+      <c r="O299" s="1"/>
+      <c r="P299" s="1"/>
+      <c r="Q299" s="1"/>
+      <c r="R299" s="1"/>
+    </row>
+    <row r="300" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F300" s="1"/>
+      <c r="G300" s="1"/>
+      <c r="H300" s="1"/>
+      <c r="J300" s="1"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="1"/>
+      <c r="M300" s="1"/>
+      <c r="N300" s="1"/>
+      <c r="O300" s="1"/>
+      <c r="P300" s="1"/>
+      <c r="Q300" s="1"/>
+      <c r="R300" s="1"/>
+    </row>
+    <row r="301" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F301" s="1"/>
+      <c r="G301" s="1"/>
+      <c r="H301" s="1"/>
+      <c r="J301" s="1"/>
+      <c r="K301" s="1"/>
+      <c r="L301" s="1"/>
+      <c r="M301" s="1"/>
+      <c r="N301" s="1"/>
+      <c r="O301" s="1"/>
+      <c r="P301" s="1"/>
+      <c r="Q301" s="1"/>
+      <c r="R301" s="1"/>
+    </row>
+    <row r="302" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F302" s="1"/>
+      <c r="G302" s="1"/>
+      <c r="H302" s="1"/>
+      <c r="J302" s="1"/>
+      <c r="K302" s="1"/>
+      <c r="L302" s="1"/>
+      <c r="M302" s="1"/>
+      <c r="N302" s="1"/>
+      <c r="O302" s="1"/>
+      <c r="P302" s="1"/>
+      <c r="Q302" s="1"/>
+      <c r="R302" s="1"/>
     </row>
     <row r="303" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F303" s="1"/>
-    </row>
-    <row r="310" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F310" s="1"/>
-    </row>
-    <row r="313" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F314" s="1"/>
-    </row>
-    <row r="317" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F318" s="1"/>
-      <c r="G318" s="1"/>
-    </row>
-    <row r="319" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="G303" s="1"/>
+      <c r="H303" s="1"/>
+      <c r="J303" s="1"/>
+      <c r="K303" s="1"/>
+      <c r="L303" s="1"/>
+      <c r="M303" s="1"/>
+      <c r="N303" s="1"/>
+      <c r="O303" s="1"/>
+      <c r="P303" s="1"/>
+      <c r="Q303" s="1"/>
+      <c r="R303" s="1"/>
+    </row>
+    <row r="304" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F304" s="1"/>
+      <c r="G304" s="1"/>
+      <c r="H304" s="1"/>
+      <c r="J304" s="1"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="1"/>
+      <c r="M304" s="1"/>
+      <c r="N304" s="1"/>
+      <c r="O304" s="1"/>
+      <c r="P304" s="1"/>
+      <c r="Q304" s="1"/>
+      <c r="R304" s="1"/>
+    </row>
+    <row r="305" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F305" s="1"/>
+      <c r="G305" s="1"/>
+      <c r="H305" s="1"/>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+      <c r="K305" s="1"/>
+      <c r="L305" s="1"/>
+      <c r="M305" s="1"/>
+      <c r="N305" s="1"/>
+      <c r="O305" s="1"/>
+      <c r="P305" s="1"/>
+      <c r="Q305" s="1"/>
+      <c r="R305" s="1"/>
+    </row>
+    <row r="307" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F307" s="1"/>
+      <c r="G307" s="1"/>
+      <c r="H307" s="1"/>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+      <c r="K307" s="1"/>
+      <c r="L307" s="1"/>
+      <c r="M307" s="1"/>
+      <c r="N307" s="1"/>
+      <c r="O307" s="1"/>
+      <c r="P307" s="1"/>
+      <c r="Q307" s="1"/>
+    </row>
+    <row r="311" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F311" s="1"/>
+    </row>
+    <row r="319" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F319" s="1"/>
     </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I355" s="3"/>
-    </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I356" s="3"/>
-    </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I357" s="3"/>
-    </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I358" s="3"/>
-    </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I359" s="3"/>
-    </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I360" s="3"/>
-    </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I361" s="3"/>
-    </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I362" s="3"/>
-    </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I363" s="3"/>
-    </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I364" s="3"/>
-    </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I365" s="3"/>
-    </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I366" s="3"/>
-    </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I367" s="3"/>
-    </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I368" s="3"/>
-    </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I370" s="3"/>
+    <row r="326" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F326" s="1"/>
+    </row>
+    <row r="329" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F330" s="1"/>
+    </row>
+    <row r="333" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F334" s="1"/>
+      <c r="G334" s="1"/>
+    </row>
+    <row r="335" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F335" s="1"/>
     </row>
     <row r="371" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I371" s="3"/>
@@ -3938,212 +4109,58 @@
     <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="3"/>
     </row>
-    <row r="382" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F385" s="1"/>
-    </row>
-    <row r="386" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F388" s="1"/>
-      <c r="G388" s="1"/>
-      <c r="H388" s="1"/>
-      <c r="I388" s="1"/>
-      <c r="J388" s="1"/>
-      <c r="K388" s="1"/>
-      <c r="L388" s="1"/>
-      <c r="M388" s="1"/>
-      <c r="N388" s="1"/>
-      <c r="O388" s="1"/>
-      <c r="P388" s="1"/>
-    </row>
-    <row r="390" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E390" s="1"/>
-      <c r="F390" s="1"/>
-      <c r="G390" s="1"/>
-      <c r="H390" s="1"/>
-      <c r="I390" s="1"/>
-      <c r="J390" s="1"/>
-      <c r="K390" s="1"/>
-      <c r="L390" s="1"/>
-      <c r="M390" s="1"/>
-      <c r="N390" s="1"/>
-      <c r="O390" s="1"/>
-      <c r="P390" s="1"/>
-    </row>
-    <row r="391" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E391" s="1"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="1"/>
-      <c r="H391" s="1"/>
-      <c r="I391" s="1"/>
-      <c r="J391" s="1"/>
-      <c r="K391" s="1"/>
-      <c r="L391" s="1"/>
-      <c r="M391" s="1"/>
-      <c r="N391" s="1"/>
-      <c r="O391" s="1"/>
-      <c r="P391" s="1"/>
-    </row>
-    <row r="392" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F392" s="1"/>
-      <c r="G392" s="1"/>
-      <c r="H392" s="1"/>
-      <c r="I392" s="1"/>
-      <c r="J392" s="1"/>
-      <c r="K392" s="1"/>
-      <c r="L392" s="1"/>
-      <c r="M392" s="1"/>
-      <c r="N392" s="1"/>
-      <c r="O392" s="1"/>
-      <c r="P392" s="1"/>
-    </row>
-    <row r="393" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F393" s="1"/>
-      <c r="G393" s="1"/>
-      <c r="H393" s="1"/>
-      <c r="I393" s="1"/>
-      <c r="J393" s="1"/>
-      <c r="K393" s="1"/>
-      <c r="L393" s="1"/>
-      <c r="M393" s="1"/>
-      <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
-      <c r="P393" s="1"/>
-    </row>
-    <row r="394" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F394" s="1"/>
-      <c r="G394" s="1"/>
-      <c r="H394" s="1"/>
-      <c r="I394" s="1"/>
-      <c r="J394" s="1"/>
-      <c r="K394" s="1"/>
-      <c r="L394" s="1"/>
-      <c r="M394" s="1"/>
-      <c r="N394" s="1"/>
-      <c r="O394" s="1"/>
-      <c r="P394" s="1"/>
-    </row>
-    <row r="395" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F395" s="1"/>
-      <c r="G395" s="1"/>
-      <c r="H395" s="1"/>
-      <c r="I395" s="1"/>
-      <c r="J395" s="1"/>
-      <c r="K395" s="1"/>
-      <c r="L395" s="1"/>
-      <c r="M395" s="1"/>
-      <c r="N395" s="1"/>
-      <c r="O395" s="1"/>
-      <c r="P395" s="1"/>
-    </row>
-    <row r="396" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F396" s="1"/>
-      <c r="G396" s="1"/>
-      <c r="H396" s="1"/>
-      <c r="I396" s="1"/>
-      <c r="J396" s="1"/>
-      <c r="K396" s="1"/>
-      <c r="L396" s="1"/>
-      <c r="M396" s="1"/>
-      <c r="N396" s="1"/>
-      <c r="O396" s="1"/>
-      <c r="P396" s="1"/>
-    </row>
-    <row r="397" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F397" s="1"/>
-      <c r="G397" s="1"/>
-      <c r="H397" s="1"/>
-      <c r="I397" s="1"/>
-      <c r="J397" s="1"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1"/>
-      <c r="M397" s="1"/>
-      <c r="N397" s="1"/>
-      <c r="O397" s="1"/>
-      <c r="P397" s="1"/>
-    </row>
-    <row r="398" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F398" s="1"/>
-      <c r="G398" s="1"/>
-      <c r="H398" s="1"/>
-      <c r="I398" s="1"/>
-      <c r="J398" s="1"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1"/>
-      <c r="M398" s="1"/>
-      <c r="N398" s="1"/>
-      <c r="O398" s="1"/>
-      <c r="P398" s="1"/>
-    </row>
-    <row r="399" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F399" s="1"/>
-      <c r="G399" s="1"/>
-      <c r="H399" s="1"/>
-      <c r="I399" s="1"/>
-      <c r="J399" s="1"/>
-      <c r="K399" s="1"/>
-      <c r="L399" s="1"/>
-      <c r="M399" s="1"/>
-      <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
-      <c r="P399" s="1"/>
-    </row>
-    <row r="400" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E400" s="1"/>
-      <c r="F400" s="1"/>
-      <c r="G400" s="1"/>
-      <c r="H400" s="1"/>
-      <c r="I400" s="1"/>
-      <c r="J400" s="1"/>
-      <c r="K400" s="1"/>
-      <c r="L400" s="1"/>
-      <c r="M400" s="1"/>
-      <c r="N400" s="1"/>
-      <c r="O400" s="1"/>
-      <c r="P400" s="1"/>
-    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="3"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382" s="3"/>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383" s="3"/>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I384" s="3"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386" s="3"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" s="3"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" s="3"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" s="3"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" s="3"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" s="3"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392" s="3"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" s="3"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I394" s="3"/>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395" s="3"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I396" s="3"/>
+    </row>
+    <row r="398" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="401" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="1"/>
-      <c r="H401" s="1"/>
-      <c r="I401" s="1"/>
-      <c r="J401" s="1"/>
-      <c r="K401" s="1"/>
-      <c r="L401" s="1"/>
-      <c r="M401" s="1"/>
-      <c r="N401" s="1"/>
-      <c r="O401" s="1"/>
-      <c r="P401" s="1"/>
-    </row>
-    <row r="402" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F402" s="1"/>
-      <c r="G402" s="1"/>
-      <c r="H402" s="1"/>
-      <c r="I402" s="1"/>
-      <c r="J402" s="1"/>
-      <c r="K402" s="1"/>
-      <c r="L402" s="1"/>
-      <c r="M402" s="1"/>
-      <c r="N402" s="1"/>
-      <c r="O402" s="1"/>
-      <c r="P402" s="1"/>
-    </row>
-    <row r="403" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F403" s="1"/>
-      <c r="G403" s="1"/>
-      <c r="H403" s="1"/>
-      <c r="I403" s="1"/>
-      <c r="J403" s="1"/>
-      <c r="K403" s="1"/>
-      <c r="L403" s="1"/>
-      <c r="M403" s="1"/>
-      <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
-      <c r="P403" s="1"/>
-    </row>
+    </row>
+    <row r="402" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="404" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -4157,20 +4174,167 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
     </row>
-    <row r="405" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F405" s="1"/>
-      <c r="G405" s="1"/>
-      <c r="H405" s="1"/>
-      <c r="I405" s="1"/>
-      <c r="J405" s="1"/>
-      <c r="K405" s="1"/>
-      <c r="L405" s="1"/>
-      <c r="M405" s="1"/>
-      <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
-      <c r="P405" s="1"/>
-    </row>
-    <row r="418" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E406" s="1"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="1"/>
+      <c r="H406" s="1"/>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+      <c r="K406" s="1"/>
+      <c r="L406" s="1"/>
+      <c r="M406" s="1"/>
+      <c r="N406" s="1"/>
+      <c r="O406" s="1"/>
+      <c r="P406" s="1"/>
+    </row>
+    <row r="407" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E407" s="1"/>
+      <c r="F407" s="1"/>
+      <c r="G407" s="1"/>
+      <c r="H407" s="1"/>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+      <c r="K407" s="1"/>
+      <c r="L407" s="1"/>
+      <c r="M407" s="1"/>
+      <c r="N407" s="1"/>
+      <c r="O407" s="1"/>
+      <c r="P407" s="1"/>
+    </row>
+    <row r="408" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F408" s="1"/>
+      <c r="G408" s="1"/>
+      <c r="H408" s="1"/>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+      <c r="K408" s="1"/>
+      <c r="L408" s="1"/>
+      <c r="M408" s="1"/>
+      <c r="N408" s="1"/>
+      <c r="O408" s="1"/>
+      <c r="P408" s="1"/>
+    </row>
+    <row r="409" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F409" s="1"/>
+      <c r="G409" s="1"/>
+      <c r="H409" s="1"/>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+      <c r="K409" s="1"/>
+      <c r="L409" s="1"/>
+      <c r="M409" s="1"/>
+      <c r="N409" s="1"/>
+      <c r="O409" s="1"/>
+      <c r="P409" s="1"/>
+    </row>
+    <row r="410" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F410" s="1"/>
+      <c r="G410" s="1"/>
+      <c r="H410" s="1"/>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+      <c r="K410" s="1"/>
+      <c r="L410" s="1"/>
+      <c r="M410" s="1"/>
+      <c r="N410" s="1"/>
+      <c r="O410" s="1"/>
+      <c r="P410" s="1"/>
+    </row>
+    <row r="411" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F411" s="1"/>
+      <c r="G411" s="1"/>
+      <c r="H411" s="1"/>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+      <c r="K411" s="1"/>
+      <c r="L411" s="1"/>
+      <c r="M411" s="1"/>
+      <c r="N411" s="1"/>
+      <c r="O411" s="1"/>
+      <c r="P411" s="1"/>
+    </row>
+    <row r="412" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F412" s="1"/>
+      <c r="G412" s="1"/>
+      <c r="H412" s="1"/>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+      <c r="K412" s="1"/>
+      <c r="L412" s="1"/>
+      <c r="M412" s="1"/>
+      <c r="N412" s="1"/>
+      <c r="O412" s="1"/>
+      <c r="P412" s="1"/>
+    </row>
+    <row r="413" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F413" s="1"/>
+      <c r="G413" s="1"/>
+      <c r="H413" s="1"/>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+      <c r="K413" s="1"/>
+      <c r="L413" s="1"/>
+      <c r="M413" s="1"/>
+      <c r="N413" s="1"/>
+      <c r="O413" s="1"/>
+      <c r="P413" s="1"/>
+    </row>
+    <row r="414" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F414" s="1"/>
+      <c r="G414" s="1"/>
+      <c r="H414" s="1"/>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+      <c r="K414" s="1"/>
+      <c r="L414" s="1"/>
+      <c r="M414" s="1"/>
+      <c r="N414" s="1"/>
+      <c r="O414" s="1"/>
+      <c r="P414" s="1"/>
+    </row>
+    <row r="415" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F415" s="1"/>
+      <c r="G415" s="1"/>
+      <c r="H415" s="1"/>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+      <c r="K415" s="1"/>
+      <c r="L415" s="1"/>
+      <c r="M415" s="1"/>
+      <c r="N415" s="1"/>
+      <c r="O415" s="1"/>
+      <c r="P415" s="1"/>
+    </row>
+    <row r="416" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E416" s="1"/>
+      <c r="F416" s="1"/>
+      <c r="G416" s="1"/>
+      <c r="H416" s="1"/>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+      <c r="K416" s="1"/>
+      <c r="L416" s="1"/>
+      <c r="M416" s="1"/>
+      <c r="N416" s="1"/>
+      <c r="O416" s="1"/>
+      <c r="P416" s="1"/>
+    </row>
+    <row r="417" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E417" s="1"/>
+      <c r="F417" s="1"/>
+      <c r="G417" s="1"/>
+      <c r="H417" s="1"/>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+      <c r="K417" s="1"/>
+      <c r="L417" s="1"/>
+      <c r="M417" s="1"/>
+      <c r="N417" s="1"/>
+      <c r="O417" s="1"/>
+      <c r="P417" s="1"/>
+    </row>
+    <row r="418" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F418" s="1"/>
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
@@ -4182,9 +4346,8 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-    </row>
-    <row r="419" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
@@ -4196,9 +4359,8 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
-    </row>
-    <row r="420" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F420" s="1"/>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
@@ -4210,9 +4372,8 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
-      <c r="Q420" s="1"/>
-    </row>
-    <row r="421" spans="6:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F421" s="1"/>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
@@ -4224,140 +4385,6 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
-      <c r="Q421" s="1"/>
-    </row>
-    <row r="422" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F422" s="1"/>
-      <c r="G422" s="1"/>
-      <c r="H422" s="1"/>
-      <c r="I422" s="1"/>
-      <c r="J422" s="1"/>
-      <c r="K422" s="1"/>
-      <c r="L422" s="1"/>
-      <c r="M422" s="1"/>
-      <c r="N422" s="1"/>
-      <c r="O422" s="1"/>
-      <c r="P422" s="1"/>
-      <c r="Q422" s="1"/>
-    </row>
-    <row r="423" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F423" s="1"/>
-      <c r="G423" s="1"/>
-      <c r="H423" s="1"/>
-      <c r="I423" s="1"/>
-      <c r="J423" s="1"/>
-      <c r="K423" s="1"/>
-      <c r="L423" s="1"/>
-      <c r="M423" s="1"/>
-      <c r="N423" s="1"/>
-      <c r="O423" s="1"/>
-      <c r="P423" s="1"/>
-      <c r="Q423" s="1"/>
-    </row>
-    <row r="424" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F424" s="1"/>
-      <c r="G424" s="1"/>
-      <c r="H424" s="1"/>
-      <c r="I424" s="1"/>
-      <c r="J424" s="1"/>
-      <c r="K424" s="1"/>
-      <c r="L424" s="1"/>
-      <c r="M424" s="1"/>
-      <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
-      <c r="P424" s="1"/>
-      <c r="Q424" s="1"/>
-    </row>
-    <row r="425" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F425" s="1"/>
-      <c r="G425" s="1"/>
-      <c r="H425" s="1"/>
-      <c r="I425" s="1"/>
-      <c r="J425" s="1"/>
-      <c r="K425" s="1"/>
-      <c r="L425" s="1"/>
-      <c r="M425" s="1"/>
-      <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
-      <c r="P425" s="1"/>
-      <c r="Q425" s="1"/>
-    </row>
-    <row r="428" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F428" s="1"/>
-      <c r="G428" s="1"/>
-      <c r="H428" s="1"/>
-      <c r="J428" s="1"/>
-      <c r="K428" s="1"/>
-      <c r="L428" s="1"/>
-      <c r="M428" s="1"/>
-      <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
-      <c r="P428" s="1"/>
-      <c r="Q428" s="1"/>
-    </row>
-    <row r="429" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F429" s="1"/>
-      <c r="G429" s="1"/>
-      <c r="H429" s="1"/>
-      <c r="J429" s="1"/>
-      <c r="K429" s="1"/>
-      <c r="L429" s="1"/>
-      <c r="M429" s="1"/>
-      <c r="N429" s="1"/>
-      <c r="O429" s="1"/>
-      <c r="P429" s="1"/>
-      <c r="Q429" s="1"/>
-    </row>
-    <row r="430" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F430" s="1"/>
-      <c r="G430" s="1"/>
-      <c r="H430" s="1"/>
-      <c r="J430" s="1"/>
-      <c r="K430" s="1"/>
-      <c r="L430" s="1"/>
-      <c r="M430" s="1"/>
-      <c r="N430" s="1"/>
-      <c r="O430" s="1"/>
-      <c r="P430" s="1"/>
-      <c r="Q430" s="1"/>
-    </row>
-    <row r="431" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F431" s="1"/>
-      <c r="G431" s="1"/>
-      <c r="H431" s="1"/>
-      <c r="J431" s="1"/>
-      <c r="K431" s="1"/>
-      <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
-      <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
-      <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-    </row>
-    <row r="432" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F432" s="1"/>
-      <c r="G432" s="1"/>
-      <c r="H432" s="1"/>
-      <c r="J432" s="1"/>
-      <c r="K432" s="1"/>
-      <c r="L432" s="1"/>
-      <c r="M432" s="1"/>
-      <c r="N432" s="1"/>
-      <c r="O432" s="1"/>
-      <c r="P432" s="1"/>
-      <c r="Q432" s="1"/>
-    </row>
-    <row r="433" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F433" s="1"/>
-      <c r="G433" s="1"/>
-      <c r="H433" s="1"/>
-      <c r="J433" s="1"/>
-      <c r="K433" s="1"/>
-      <c r="L433" s="1"/>
-      <c r="M433" s="1"/>
-      <c r="N433" s="1"/>
-      <c r="O433" s="1"/>
-      <c r="P433" s="1"/>
     </row>
     <row r="434" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F434" s="1"/>
@@ -4387,6 +4414,20 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
     </row>
+    <row r="436" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F436" s="1"/>
+      <c r="G436" s="1"/>
+      <c r="H436" s="1"/>
+      <c r="I436" s="1"/>
+      <c r="J436" s="1"/>
+      <c r="K436" s="1"/>
+      <c r="L436" s="1"/>
+      <c r="M436" s="1"/>
+      <c r="N436" s="1"/>
+      <c r="O436" s="1"/>
+      <c r="P436" s="1"/>
+      <c r="Q436" s="1"/>
+    </row>
     <row r="437" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F437" s="1"/>
       <c r="G437" s="1"/>
@@ -4457,39 +4498,10 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
     </row>
-    <row r="442" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F442" s="1"/>
-      <c r="G442" s="1"/>
-      <c r="H442" s="1"/>
-      <c r="I442" s="1"/>
-      <c r="J442" s="1"/>
-      <c r="K442" s="1"/>
-      <c r="L442" s="1"/>
-      <c r="M442" s="1"/>
-      <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
-      <c r="P442" s="1"/>
-      <c r="Q442" s="1"/>
-    </row>
-    <row r="443" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F443" s="1"/>
-      <c r="G443" s="1"/>
-      <c r="H443" s="1"/>
-      <c r="I443" s="1"/>
-      <c r="J443" s="1"/>
-      <c r="K443" s="1"/>
-      <c r="L443" s="1"/>
-      <c r="M443" s="1"/>
-      <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
-      <c r="P443" s="1"/>
-      <c r="Q443" s="1"/>
-    </row>
     <row r="444" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F444" s="1"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
-      <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
@@ -4501,6 +4513,29 @@
     </row>
     <row r="445" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F445" s="1"/>
+      <c r="G445" s="1"/>
+      <c r="H445" s="1"/>
+      <c r="J445" s="1"/>
+      <c r="K445" s="1"/>
+      <c r="L445" s="1"/>
+      <c r="M445" s="1"/>
+      <c r="N445" s="1"/>
+      <c r="O445" s="1"/>
+      <c r="P445" s="1"/>
+      <c r="Q445" s="1"/>
+    </row>
+    <row r="446" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F446" s="1"/>
+      <c r="G446" s="1"/>
+      <c r="H446" s="1"/>
+      <c r="J446" s="1"/>
+      <c r="K446" s="1"/>
+      <c r="L446" s="1"/>
+      <c r="M446" s="1"/>
+      <c r="N446" s="1"/>
+      <c r="O446" s="1"/>
+      <c r="P446" s="1"/>
+      <c r="Q446" s="1"/>
     </row>
     <row r="447" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F447" s="1"/>
@@ -4539,12 +4574,12 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
-      <c r="Q449" s="1"/>
     </row>
     <row r="450" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F450" s="1"/>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
+      <c r="I450" s="1"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
       <c r="L450" s="1"/>
@@ -4558,6 +4593,7 @@
       <c r="F451" s="1"/>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
+      <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
@@ -4566,19 +4602,6 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-    </row>
-    <row r="452" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F452" s="1"/>
-      <c r="G452" s="1"/>
-      <c r="H452" s="1"/>
-      <c r="J452" s="1"/>
-      <c r="K452" s="1"/>
-      <c r="L452" s="1"/>
-      <c r="M452" s="1"/>
-      <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
-      <c r="Q452" s="1"/>
     </row>
     <row r="453" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F453" s="1"/>
@@ -4606,14 +4629,41 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
+      <c r="Q454" s="1"/>
     </row>
     <row r="455" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F455" s="1"/>
+      <c r="G455" s="1"/>
+      <c r="H455" s="1"/>
+      <c r="I455" s="1"/>
+      <c r="J455" s="1"/>
+      <c r="K455" s="1"/>
+      <c r="L455" s="1"/>
+      <c r="M455" s="1"/>
+      <c r="N455" s="1"/>
+      <c r="O455" s="1"/>
+      <c r="P455" s="1"/>
+      <c r="Q455" s="1"/>
+    </row>
+    <row r="456" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F456" s="1"/>
+      <c r="G456" s="1"/>
+      <c r="H456" s="1"/>
+      <c r="I456" s="1"/>
+      <c r="J456" s="1"/>
+      <c r="K456" s="1"/>
+      <c r="L456" s="1"/>
+      <c r="M456" s="1"/>
+      <c r="N456" s="1"/>
+      <c r="O456" s="1"/>
+      <c r="P456" s="1"/>
+      <c r="Q456" s="1"/>
     </row>
     <row r="457" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
+      <c r="I457" s="1"/>
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
@@ -4627,6 +4677,7 @@
       <c r="F458" s="1"/>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
+      <c r="I458" s="1"/>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
@@ -4640,6 +4691,7 @@
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
+      <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -4653,6 +4705,7 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
+      <c r="I460" s="1"/>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
@@ -4664,35 +4717,11 @@
     </row>
     <row r="461" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F461" s="1"/>
-      <c r="G461" s="1"/>
-      <c r="H461" s="1"/>
-      <c r="J461" s="1"/>
-      <c r="K461" s="1"/>
-      <c r="L461" s="1"/>
-      <c r="M461" s="1"/>
-      <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
-      <c r="P461" s="1"/>
-      <c r="Q461" s="1"/>
-    </row>
-    <row r="462" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F462" s="1"/>
-      <c r="G462" s="1"/>
-      <c r="H462" s="1"/>
-      <c r="J462" s="1"/>
-      <c r="K462" s="1"/>
-      <c r="L462" s="1"/>
-      <c r="M462" s="1"/>
-      <c r="N462" s="1"/>
-      <c r="O462" s="1"/>
-      <c r="P462" s="1"/>
-      <c r="Q462" s="1"/>
     </row>
     <row r="463" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F463" s="1"/>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
-      <c r="I463" s="1"/>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
@@ -4706,7 +4735,6 @@
       <c r="F464" s="1"/>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
-      <c r="I464" s="1"/>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -4714,9 +4742,33 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
+      <c r="Q464" s="1"/>
     </row>
     <row r="465" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F465" s="1"/>
+      <c r="G465" s="1"/>
+      <c r="H465" s="1"/>
+      <c r="J465" s="1"/>
+      <c r="K465" s="1"/>
+      <c r="L465" s="1"/>
+      <c r="M465" s="1"/>
+      <c r="N465" s="1"/>
+      <c r="O465" s="1"/>
+      <c r="P465" s="1"/>
+      <c r="Q465" s="1"/>
+    </row>
+    <row r="466" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F466" s="1"/>
+      <c r="G466" s="1"/>
+      <c r="H466" s="1"/>
+      <c r="J466" s="1"/>
+      <c r="K466" s="1"/>
+      <c r="L466" s="1"/>
+      <c r="M466" s="1"/>
+      <c r="N466" s="1"/>
+      <c r="O466" s="1"/>
+      <c r="P466" s="1"/>
+      <c r="Q466" s="1"/>
     </row>
     <row r="467" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F467" s="1"/>
@@ -4748,6 +4800,7 @@
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
+      <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
@@ -4761,6 +4814,7 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
+      <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
@@ -4768,39 +4822,14 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
-      <c r="Q470" s="1"/>
     </row>
     <row r="471" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F471" s="1"/>
-      <c r="G471" s="1"/>
-      <c r="H471" s="1"/>
-      <c r="J471" s="1"/>
-      <c r="K471" s="1"/>
-      <c r="L471" s="1"/>
-      <c r="M471" s="1"/>
-      <c r="N471" s="1"/>
-      <c r="O471" s="1"/>
-      <c r="P471" s="1"/>
-      <c r="Q471" s="1"/>
-    </row>
-    <row r="472" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F472" s="1"/>
-      <c r="G472" s="1"/>
-      <c r="H472" s="1"/>
-      <c r="J472" s="1"/>
-      <c r="K472" s="1"/>
-      <c r="L472" s="1"/>
-      <c r="M472" s="1"/>
-      <c r="N472" s="1"/>
-      <c r="O472" s="1"/>
-      <c r="P472" s="1"/>
-      <c r="Q472" s="1"/>
     </row>
     <row r="473" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F473" s="1"/>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
-      <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
@@ -4810,11 +4839,36 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
     </row>
+    <row r="474" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F474" s="1"/>
+      <c r="G474" s="1"/>
+      <c r="H474" s="1"/>
+      <c r="J474" s="1"/>
+      <c r="K474" s="1"/>
+      <c r="L474" s="1"/>
+      <c r="M474" s="1"/>
+      <c r="N474" s="1"/>
+      <c r="O474" s="1"/>
+      <c r="P474" s="1"/>
+      <c r="Q474" s="1"/>
+    </row>
+    <row r="475" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F475" s="1"/>
+      <c r="G475" s="1"/>
+      <c r="H475" s="1"/>
+      <c r="J475" s="1"/>
+      <c r="K475" s="1"/>
+      <c r="L475" s="1"/>
+      <c r="M475" s="1"/>
+      <c r="N475" s="1"/>
+      <c r="O475" s="1"/>
+      <c r="P475" s="1"/>
+      <c r="Q475" s="1"/>
+    </row>
     <row r="476" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
-      <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
@@ -4828,7 +4882,6 @@
       <c r="F477" s="1"/>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
-      <c r="I477" s="1"/>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
       <c r="L477" s="1"/>
@@ -4842,7 +4895,6 @@
       <c r="F478" s="1"/>
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
-      <c r="I478" s="1"/>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
@@ -4878,41 +4930,14 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
-      <c r="Q480" s="1"/>
     </row>
     <row r="481" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F481" s="1"/>
-      <c r="G481" s="1"/>
-      <c r="H481" s="1"/>
-      <c r="I481" s="1"/>
-      <c r="J481" s="1"/>
-      <c r="K481" s="1"/>
-      <c r="L481" s="1"/>
-      <c r="M481" s="1"/>
-      <c r="N481" s="1"/>
-      <c r="O481" s="1"/>
-      <c r="P481" s="1"/>
-      <c r="Q481" s="1"/>
-    </row>
-    <row r="482" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F482" s="1"/>
-      <c r="G482" s="1"/>
-      <c r="H482" s="1"/>
-      <c r="I482" s="1"/>
-      <c r="J482" s="1"/>
-      <c r="K482" s="1"/>
-      <c r="L482" s="1"/>
-      <c r="M482" s="1"/>
-      <c r="N482" s="1"/>
-      <c r="O482" s="1"/>
-      <c r="P482" s="1"/>
-      <c r="Q482" s="1"/>
     </row>
     <row r="483" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F483" s="1"/>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
-      <c r="I483" s="1"/>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
       <c r="L483" s="1"/>
@@ -4924,6 +4949,29 @@
     </row>
     <row r="484" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F484" s="1"/>
+      <c r="G484" s="1"/>
+      <c r="H484" s="1"/>
+      <c r="J484" s="1"/>
+      <c r="K484" s="1"/>
+      <c r="L484" s="1"/>
+      <c r="M484" s="1"/>
+      <c r="N484" s="1"/>
+      <c r="O484" s="1"/>
+      <c r="P484" s="1"/>
+      <c r="Q484" s="1"/>
+    </row>
+    <row r="485" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F485" s="1"/>
+      <c r="G485" s="1"/>
+      <c r="H485" s="1"/>
+      <c r="J485" s="1"/>
+      <c r="K485" s="1"/>
+      <c r="L485" s="1"/>
+      <c r="M485" s="1"/>
+      <c r="N485" s="1"/>
+      <c r="O485" s="1"/>
+      <c r="P485" s="1"/>
+      <c r="Q485" s="1"/>
     </row>
     <row r="486" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F486" s="1"/>
@@ -4968,6 +5016,7 @@
       <c r="F489" s="1"/>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
+      <c r="I489" s="1"/>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
@@ -4976,32 +5025,6 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-    </row>
-    <row r="490" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F490" s="1"/>
-      <c r="G490" s="1"/>
-      <c r="H490" s="1"/>
-      <c r="J490" s="1"/>
-      <c r="K490" s="1"/>
-      <c r="L490" s="1"/>
-      <c r="M490" s="1"/>
-      <c r="N490" s="1"/>
-      <c r="O490" s="1"/>
-      <c r="P490" s="1"/>
-      <c r="Q490" s="1"/>
-    </row>
-    <row r="491" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F491" s="1"/>
-      <c r="G491" s="1"/>
-      <c r="H491" s="1"/>
-      <c r="J491" s="1"/>
-      <c r="K491" s="1"/>
-      <c r="L491" s="1"/>
-      <c r="M491" s="1"/>
-      <c r="N491" s="1"/>
-      <c r="O491" s="1"/>
-      <c r="P491" s="1"/>
-      <c r="Q491" s="1"/>
     </row>
     <row r="492" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F492" s="1"/>
@@ -5029,14 +5052,41 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
+      <c r="Q493" s="1"/>
     </row>
     <row r="494" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F494" s="1"/>
+      <c r="G494" s="1"/>
+      <c r="H494" s="1"/>
+      <c r="I494" s="1"/>
+      <c r="J494" s="1"/>
+      <c r="K494" s="1"/>
+      <c r="L494" s="1"/>
+      <c r="M494" s="1"/>
+      <c r="N494" s="1"/>
+      <c r="O494" s="1"/>
+      <c r="P494" s="1"/>
+      <c r="Q494" s="1"/>
+    </row>
+    <row r="495" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F495" s="1"/>
+      <c r="G495" s="1"/>
+      <c r="H495" s="1"/>
+      <c r="I495" s="1"/>
+      <c r="J495" s="1"/>
+      <c r="K495" s="1"/>
+      <c r="L495" s="1"/>
+      <c r="M495" s="1"/>
+      <c r="N495" s="1"/>
+      <c r="O495" s="1"/>
+      <c r="P495" s="1"/>
+      <c r="Q495" s="1"/>
     </row>
     <row r="496" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
+      <c r="I496" s="1"/>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
@@ -5050,6 +5100,7 @@
       <c r="F497" s="1"/>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
+      <c r="I497" s="1"/>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
@@ -5063,6 +5114,7 @@
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
+      <c r="I498" s="1"/>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
@@ -5076,6 +5128,7 @@
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
+      <c r="I499" s="1"/>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
@@ -5087,35 +5140,11 @@
     </row>
     <row r="500" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F500" s="1"/>
-      <c r="G500" s="1"/>
-      <c r="H500" s="1"/>
-      <c r="J500" s="1"/>
-      <c r="K500" s="1"/>
-      <c r="L500" s="1"/>
-      <c r="M500" s="1"/>
-      <c r="N500" s="1"/>
-      <c r="O500" s="1"/>
-      <c r="P500" s="1"/>
-      <c r="Q500" s="1"/>
-    </row>
-    <row r="501" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F501" s="1"/>
-      <c r="G501" s="1"/>
-      <c r="H501" s="1"/>
-      <c r="J501" s="1"/>
-      <c r="K501" s="1"/>
-      <c r="L501" s="1"/>
-      <c r="M501" s="1"/>
-      <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
-      <c r="P501" s="1"/>
-      <c r="Q501" s="1"/>
     </row>
     <row r="502" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F502" s="1"/>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
-      <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -5129,7 +5158,6 @@
       <c r="F503" s="1"/>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
-      <c r="I503" s="1"/>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -5137,9 +5165,33 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
       <c r="P503" s="1"/>
+      <c r="Q503" s="1"/>
     </row>
     <row r="504" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F504" s="1"/>
+      <c r="G504" s="1"/>
+      <c r="H504" s="1"/>
+      <c r="J504" s="1"/>
+      <c r="K504" s="1"/>
+      <c r="L504" s="1"/>
+      <c r="M504" s="1"/>
+      <c r="N504" s="1"/>
+      <c r="O504" s="1"/>
+      <c r="P504" s="1"/>
+      <c r="Q504" s="1"/>
+    </row>
+    <row r="505" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F505" s="1"/>
+      <c r="G505" s="1"/>
+      <c r="H505" s="1"/>
+      <c r="J505" s="1"/>
+      <c r="K505" s="1"/>
+      <c r="L505" s="1"/>
+      <c r="M505" s="1"/>
+      <c r="N505" s="1"/>
+      <c r="O505" s="1"/>
+      <c r="P505" s="1"/>
+      <c r="Q505" s="1"/>
     </row>
     <row r="506" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F506" s="1"/>
@@ -5171,6 +5223,7 @@
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
+      <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
@@ -5184,6 +5237,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
+      <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -5191,39 +5245,14 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
       <c r="P509" s="1"/>
-      <c r="Q509" s="1"/>
     </row>
     <row r="510" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F510" s="1"/>
-      <c r="G510" s="1"/>
-      <c r="H510" s="1"/>
-      <c r="J510" s="1"/>
-      <c r="K510" s="1"/>
-      <c r="L510" s="1"/>
-      <c r="M510" s="1"/>
-      <c r="N510" s="1"/>
-      <c r="O510" s="1"/>
-      <c r="P510" s="1"/>
-      <c r="Q510" s="1"/>
-    </row>
-    <row r="511" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F511" s="1"/>
-      <c r="G511" s="1"/>
-      <c r="H511" s="1"/>
-      <c r="J511" s="1"/>
-      <c r="K511" s="1"/>
-      <c r="L511" s="1"/>
-      <c r="M511" s="1"/>
-      <c r="N511" s="1"/>
-      <c r="O511" s="1"/>
-      <c r="P511" s="1"/>
-      <c r="Q511" s="1"/>
     </row>
     <row r="512" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F512" s="1"/>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
-      <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
@@ -5233,11 +5262,36 @@
       <c r="P512" s="1"/>
       <c r="Q512" s="1"/>
     </row>
+    <row r="513" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F513" s="1"/>
+      <c r="G513" s="1"/>
+      <c r="H513" s="1"/>
+      <c r="J513" s="1"/>
+      <c r="K513" s="1"/>
+      <c r="L513" s="1"/>
+      <c r="M513" s="1"/>
+      <c r="N513" s="1"/>
+      <c r="O513" s="1"/>
+      <c r="P513" s="1"/>
+      <c r="Q513" s="1"/>
+    </row>
+    <row r="514" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F514" s="1"/>
+      <c r="G514" s="1"/>
+      <c r="H514" s="1"/>
+      <c r="J514" s="1"/>
+      <c r="K514" s="1"/>
+      <c r="L514" s="1"/>
+      <c r="M514" s="1"/>
+      <c r="N514" s="1"/>
+      <c r="O514" s="1"/>
+      <c r="P514" s="1"/>
+      <c r="Q514" s="1"/>
+    </row>
     <row r="515" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
-      <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
@@ -5251,7 +5305,6 @@
       <c r="F516" s="1"/>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
-      <c r="I516" s="1"/>
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
@@ -5265,7 +5318,6 @@
       <c r="F517" s="1"/>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
-      <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
@@ -5301,41 +5353,14 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
       <c r="P519" s="1"/>
-      <c r="Q519" s="1"/>
     </row>
     <row r="520" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F520" s="1"/>
-      <c r="G520" s="1"/>
-      <c r="H520" s="1"/>
-      <c r="I520" s="1"/>
-      <c r="J520" s="1"/>
-      <c r="K520" s="1"/>
-      <c r="L520" s="1"/>
-      <c r="M520" s="1"/>
-      <c r="N520" s="1"/>
-      <c r="O520" s="1"/>
-      <c r="P520" s="1"/>
-      <c r="Q520" s="1"/>
-    </row>
-    <row r="521" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F521" s="1"/>
-      <c r="G521" s="1"/>
-      <c r="H521" s="1"/>
-      <c r="I521" s="1"/>
-      <c r="J521" s="1"/>
-      <c r="K521" s="1"/>
-      <c r="L521" s="1"/>
-      <c r="M521" s="1"/>
-      <c r="N521" s="1"/>
-      <c r="O521" s="1"/>
-      <c r="P521" s="1"/>
-      <c r="Q521" s="1"/>
     </row>
     <row r="522" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
-      <c r="I522" s="1"/>
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
@@ -5347,6 +5372,29 @@
     </row>
     <row r="523" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F523" s="1"/>
+      <c r="G523" s="1"/>
+      <c r="H523" s="1"/>
+      <c r="J523" s="1"/>
+      <c r="K523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1"/>
+      <c r="N523" s="1"/>
+      <c r="O523" s="1"/>
+      <c r="P523" s="1"/>
+      <c r="Q523" s="1"/>
+    </row>
+    <row r="524" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F524" s="1"/>
+      <c r="G524" s="1"/>
+      <c r="H524" s="1"/>
+      <c r="J524" s="1"/>
+      <c r="K524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1"/>
+      <c r="N524" s="1"/>
+      <c r="O524" s="1"/>
+      <c r="P524" s="1"/>
+      <c r="Q524" s="1"/>
     </row>
     <row r="525" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F525" s="1"/>
@@ -5391,6 +5439,7 @@
       <c r="F528" s="1"/>
       <c r="G528" s="1"/>
       <c r="H528" s="1"/>
+      <c r="I528" s="1"/>
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
       <c r="L528" s="1"/>
@@ -5399,32 +5448,6 @@
       <c r="O528" s="1"/>
       <c r="P528" s="1"/>
       <c r="Q528" s="1"/>
-    </row>
-    <row r="529" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F529" s="1"/>
-      <c r="G529" s="1"/>
-      <c r="H529" s="1"/>
-      <c r="J529" s="1"/>
-      <c r="K529" s="1"/>
-      <c r="L529" s="1"/>
-      <c r="M529" s="1"/>
-      <c r="N529" s="1"/>
-      <c r="O529" s="1"/>
-      <c r="P529" s="1"/>
-      <c r="Q529" s="1"/>
-    </row>
-    <row r="530" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F530" s="1"/>
-      <c r="G530" s="1"/>
-      <c r="H530" s="1"/>
-      <c r="J530" s="1"/>
-      <c r="K530" s="1"/>
-      <c r="L530" s="1"/>
-      <c r="M530" s="1"/>
-      <c r="N530" s="1"/>
-      <c r="O530" s="1"/>
-      <c r="P530" s="1"/>
-      <c r="Q530" s="1"/>
     </row>
     <row r="531" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F531" s="1"/>
@@ -5452,14 +5475,41 @@
       <c r="N532" s="1"/>
       <c r="O532" s="1"/>
       <c r="P532" s="1"/>
+      <c r="Q532" s="1"/>
     </row>
     <row r="533" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F533" s="1"/>
+      <c r="G533" s="1"/>
+      <c r="H533" s="1"/>
+      <c r="I533" s="1"/>
+      <c r="J533" s="1"/>
+      <c r="K533" s="1"/>
+      <c r="L533" s="1"/>
+      <c r="M533" s="1"/>
+      <c r="N533" s="1"/>
+      <c r="O533" s="1"/>
+      <c r="P533" s="1"/>
+      <c r="Q533" s="1"/>
+    </row>
+    <row r="534" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F534" s="1"/>
+      <c r="G534" s="1"/>
+      <c r="H534" s="1"/>
+      <c r="I534" s="1"/>
+      <c r="J534" s="1"/>
+      <c r="K534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1"/>
+      <c r="N534" s="1"/>
+      <c r="O534" s="1"/>
+      <c r="P534" s="1"/>
+      <c r="Q534" s="1"/>
     </row>
     <row r="535" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F535" s="1"/>
       <c r="G535" s="1"/>
       <c r="H535" s="1"/>
+      <c r="I535" s="1"/>
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
@@ -5473,6 +5523,7 @@
       <c r="F536" s="1"/>
       <c r="G536" s="1"/>
       <c r="H536" s="1"/>
+      <c r="I536" s="1"/>
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
@@ -5486,6 +5537,7 @@
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
+      <c r="I537" s="1"/>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
@@ -5499,6 +5551,7 @@
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
+      <c r="I538" s="1"/>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
@@ -5510,35 +5563,11 @@
     </row>
     <row r="539" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F539" s="1"/>
-      <c r="G539" s="1"/>
-      <c r="H539" s="1"/>
-      <c r="J539" s="1"/>
-      <c r="K539" s="1"/>
-      <c r="L539" s="1"/>
-      <c r="M539" s="1"/>
-      <c r="N539" s="1"/>
-      <c r="O539" s="1"/>
-      <c r="P539" s="1"/>
-      <c r="Q539" s="1"/>
-    </row>
-    <row r="540" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F540" s="1"/>
-      <c r="G540" s="1"/>
-      <c r="H540" s="1"/>
-      <c r="J540" s="1"/>
-      <c r="K540" s="1"/>
-      <c r="L540" s="1"/>
-      <c r="M540" s="1"/>
-      <c r="N540" s="1"/>
-      <c r="O540" s="1"/>
-      <c r="P540" s="1"/>
-      <c r="Q540" s="1"/>
     </row>
     <row r="541" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F541" s="1"/>
       <c r="G541" s="1"/>
       <c r="H541" s="1"/>
-      <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
       <c r="L541" s="1"/>
@@ -5552,7 +5581,6 @@
       <c r="F542" s="1"/>
       <c r="G542" s="1"/>
       <c r="H542" s="1"/>
-      <c r="I542" s="1"/>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
       <c r="L542" s="1"/>
@@ -5560,9 +5588,33 @@
       <c r="N542" s="1"/>
       <c r="O542" s="1"/>
       <c r="P542" s="1"/>
+      <c r="Q542" s="1"/>
     </row>
     <row r="543" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F543" s="1"/>
+      <c r="G543" s="1"/>
+      <c r="H543" s="1"/>
+      <c r="J543" s="1"/>
+      <c r="K543" s="1"/>
+      <c r="L543" s="1"/>
+      <c r="M543" s="1"/>
+      <c r="N543" s="1"/>
+      <c r="O543" s="1"/>
+      <c r="P543" s="1"/>
+      <c r="Q543" s="1"/>
+    </row>
+    <row r="544" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F544" s="1"/>
+      <c r="G544" s="1"/>
+      <c r="H544" s="1"/>
+      <c r="J544" s="1"/>
+      <c r="K544" s="1"/>
+      <c r="L544" s="1"/>
+      <c r="M544" s="1"/>
+      <c r="N544" s="1"/>
+      <c r="O544" s="1"/>
+      <c r="P544" s="1"/>
+      <c r="Q544" s="1"/>
     </row>
     <row r="545" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F545" s="1"/>
@@ -5594,6 +5646,7 @@
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
+      <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
@@ -5607,6 +5660,7 @@
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
+      <c r="I548" s="1"/>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
@@ -5614,39 +5668,14 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
       <c r="P548" s="1"/>
-      <c r="Q548" s="1"/>
     </row>
     <row r="549" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F549" s="1"/>
-      <c r="G549" s="1"/>
-      <c r="H549" s="1"/>
-      <c r="J549" s="1"/>
-      <c r="K549" s="1"/>
-      <c r="L549" s="1"/>
-      <c r="M549" s="1"/>
-      <c r="N549" s="1"/>
-      <c r="O549" s="1"/>
-      <c r="P549" s="1"/>
-      <c r="Q549" s="1"/>
-    </row>
-    <row r="550" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F550" s="1"/>
-      <c r="G550" s="1"/>
-      <c r="H550" s="1"/>
-      <c r="J550" s="1"/>
-      <c r="K550" s="1"/>
-      <c r="L550" s="1"/>
-      <c r="M550" s="1"/>
-      <c r="N550" s="1"/>
-      <c r="O550" s="1"/>
-      <c r="P550" s="1"/>
-      <c r="Q550" s="1"/>
     </row>
     <row r="551" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F551" s="1"/>
       <c r="G551" s="1"/>
       <c r="H551" s="1"/>
-      <c r="I551" s="1"/>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
@@ -5656,11 +5685,36 @@
       <c r="P551" s="1"/>
       <c r="Q551" s="1"/>
     </row>
+    <row r="552" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F552" s="1"/>
+      <c r="G552" s="1"/>
+      <c r="H552" s="1"/>
+      <c r="J552" s="1"/>
+      <c r="K552" s="1"/>
+      <c r="L552" s="1"/>
+      <c r="M552" s="1"/>
+      <c r="N552" s="1"/>
+      <c r="O552" s="1"/>
+      <c r="P552" s="1"/>
+      <c r="Q552" s="1"/>
+    </row>
+    <row r="553" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F553" s="1"/>
+      <c r="G553" s="1"/>
+      <c r="H553" s="1"/>
+      <c r="J553" s="1"/>
+      <c r="K553" s="1"/>
+      <c r="L553" s="1"/>
+      <c r="M553" s="1"/>
+      <c r="N553" s="1"/>
+      <c r="O553" s="1"/>
+      <c r="P553" s="1"/>
+      <c r="Q553" s="1"/>
+    </row>
     <row r="554" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
-      <c r="I554" s="1"/>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
@@ -5674,7 +5728,6 @@
       <c r="F555" s="1"/>
       <c r="G555" s="1"/>
       <c r="H555" s="1"/>
-      <c r="I555" s="1"/>
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
       <c r="L555" s="1"/>
@@ -5688,7 +5741,6 @@
       <c r="F556" s="1"/>
       <c r="G556" s="1"/>
       <c r="H556" s="1"/>
-      <c r="I556" s="1"/>
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
       <c r="L556" s="1"/>
@@ -5724,41 +5776,14 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
       <c r="P558" s="1"/>
-      <c r="Q558" s="1"/>
     </row>
     <row r="559" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F559" s="1"/>
-      <c r="G559" s="1"/>
-      <c r="H559" s="1"/>
-      <c r="I559" s="1"/>
-      <c r="J559" s="1"/>
-      <c r="K559" s="1"/>
-      <c r="L559" s="1"/>
-      <c r="M559" s="1"/>
-      <c r="N559" s="1"/>
-      <c r="O559" s="1"/>
-      <c r="P559" s="1"/>
-      <c r="Q559" s="1"/>
-    </row>
-    <row r="560" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F560" s="1"/>
-      <c r="G560" s="1"/>
-      <c r="H560" s="1"/>
-      <c r="I560" s="1"/>
-      <c r="J560" s="1"/>
-      <c r="K560" s="1"/>
-      <c r="L560" s="1"/>
-      <c r="M560" s="1"/>
-      <c r="N560" s="1"/>
-      <c r="O560" s="1"/>
-      <c r="P560" s="1"/>
-      <c r="Q560" s="1"/>
     </row>
     <row r="561" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F561" s="1"/>
       <c r="G561" s="1"/>
       <c r="H561" s="1"/>
-      <c r="I561" s="1"/>
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
@@ -5766,9 +5791,33 @@
       <c r="N561" s="1"/>
       <c r="O561" s="1"/>
       <c r="P561" s="1"/>
+      <c r="Q561" s="1"/>
     </row>
     <row r="562" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F562" s="1"/>
+      <c r="G562" s="1"/>
+      <c r="H562" s="1"/>
+      <c r="J562" s="1"/>
+      <c r="K562" s="1"/>
+      <c r="L562" s="1"/>
+      <c r="M562" s="1"/>
+      <c r="N562" s="1"/>
+      <c r="O562" s="1"/>
+      <c r="P562" s="1"/>
+      <c r="Q562" s="1"/>
+    </row>
+    <row r="563" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F563" s="1"/>
+      <c r="G563" s="1"/>
+      <c r="H563" s="1"/>
+      <c r="J563" s="1"/>
+      <c r="K563" s="1"/>
+      <c r="L563" s="1"/>
+      <c r="M563" s="1"/>
+      <c r="N563" s="1"/>
+      <c r="O563" s="1"/>
+      <c r="P563" s="1"/>
+      <c r="Q563" s="1"/>
     </row>
     <row r="564" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F564" s="1"/>
@@ -5813,6 +5862,7 @@
       <c r="F567" s="1"/>
       <c r="G567" s="1"/>
       <c r="H567" s="1"/>
+      <c r="I567" s="1"/>
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
@@ -5821,32 +5871,6 @@
       <c r="O567" s="1"/>
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
-    </row>
-    <row r="568" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F568" s="1"/>
-      <c r="G568" s="1"/>
-      <c r="H568" s="1"/>
-      <c r="J568" s="1"/>
-      <c r="K568" s="1"/>
-      <c r="L568" s="1"/>
-      <c r="M568" s="1"/>
-      <c r="N568" s="1"/>
-      <c r="O568" s="1"/>
-      <c r="P568" s="1"/>
-      <c r="Q568" s="1"/>
-    </row>
-    <row r="569" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F569" s="1"/>
-      <c r="G569" s="1"/>
-      <c r="H569" s="1"/>
-      <c r="J569" s="1"/>
-      <c r="K569" s="1"/>
-      <c r="L569" s="1"/>
-      <c r="M569" s="1"/>
-      <c r="N569" s="1"/>
-      <c r="O569" s="1"/>
-      <c r="P569" s="1"/>
-      <c r="Q569" s="1"/>
     </row>
     <row r="570" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F570" s="1"/>
@@ -5862,6 +5886,20 @@
       <c r="P570" s="1"/>
       <c r="Q570" s="1"/>
     </row>
+    <row r="571" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F571" s="1"/>
+      <c r="G571" s="1"/>
+      <c r="H571" s="1"/>
+      <c r="I571" s="1"/>
+      <c r="J571" s="1"/>
+      <c r="K571" s="1"/>
+      <c r="L571" s="1"/>
+      <c r="M571" s="1"/>
+      <c r="N571" s="1"/>
+      <c r="O571" s="1"/>
+      <c r="P571" s="1"/>
+      <c r="Q571" s="1"/>
+    </row>
     <row r="572" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F572" s="1"/>
       <c r="G572" s="1"/>
@@ -5874,269 +5912,248 @@
       <c r="N572" s="1"/>
       <c r="O572" s="1"/>
       <c r="P572" s="1"/>
+      <c r="Q572" s="1"/>
+    </row>
+    <row r="573" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F573" s="1"/>
+      <c r="G573" s="1"/>
+      <c r="H573" s="1"/>
+      <c r="I573" s="1"/>
+      <c r="J573" s="1"/>
+      <c r="K573" s="1"/>
+      <c r="L573" s="1"/>
+      <c r="M573" s="1"/>
+      <c r="N573" s="1"/>
+      <c r="O573" s="1"/>
+      <c r="P573" s="1"/>
+      <c r="Q573" s="1"/>
+    </row>
+    <row r="574" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F574" s="1"/>
+      <c r="G574" s="1"/>
+      <c r="H574" s="1"/>
+      <c r="I574" s="1"/>
+      <c r="J574" s="1"/>
+      <c r="K574" s="1"/>
+      <c r="L574" s="1"/>
+      <c r="M574" s="1"/>
+      <c r="N574" s="1"/>
+      <c r="O574" s="1"/>
+      <c r="P574" s="1"/>
+      <c r="Q574" s="1"/>
+    </row>
+    <row r="575" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F575" s="1"/>
+      <c r="G575" s="1"/>
+      <c r="H575" s="1"/>
+      <c r="I575" s="1"/>
+      <c r="J575" s="1"/>
+      <c r="K575" s="1"/>
+      <c r="L575" s="1"/>
+      <c r="M575" s="1"/>
+      <c r="N575" s="1"/>
+      <c r="O575" s="1"/>
+      <c r="P575" s="1"/>
+      <c r="Q575" s="1"/>
     </row>
     <row r="576" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F576" s="1"/>
-    </row>
-    <row r="584" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="G576" s="1"/>
+      <c r="H576" s="1"/>
+      <c r="I576" s="1"/>
+      <c r="J576" s="1"/>
+      <c r="K576" s="1"/>
+      <c r="L576" s="1"/>
+      <c r="M576" s="1"/>
+      <c r="N576" s="1"/>
+      <c r="O576" s="1"/>
+      <c r="P576" s="1"/>
+      <c r="Q576" s="1"/>
+    </row>
+    <row r="577" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F577" s="1"/>
+      <c r="G577" s="1"/>
+      <c r="H577" s="1"/>
+      <c r="I577" s="1"/>
+      <c r="J577" s="1"/>
+      <c r="K577" s="1"/>
+      <c r="L577" s="1"/>
+      <c r="M577" s="1"/>
+      <c r="N577" s="1"/>
+      <c r="O577" s="1"/>
+      <c r="P577" s="1"/>
+    </row>
+    <row r="578" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F578" s="1"/>
+    </row>
+    <row r="580" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F580" s="1"/>
+      <c r="G580" s="1"/>
+      <c r="H580" s="1"/>
+      <c r="J580" s="1"/>
+      <c r="K580" s="1"/>
+      <c r="L580" s="1"/>
+      <c r="M580" s="1"/>
+      <c r="N580" s="1"/>
+      <c r="O580" s="1"/>
+      <c r="P580" s="1"/>
+      <c r="Q580" s="1"/>
+    </row>
+    <row r="581" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F581" s="1"/>
+      <c r="G581" s="1"/>
+      <c r="H581" s="1"/>
+      <c r="J581" s="1"/>
+      <c r="K581" s="1"/>
+      <c r="L581" s="1"/>
+      <c r="M581" s="1"/>
+      <c r="N581" s="1"/>
+      <c r="O581" s="1"/>
+      <c r="P581" s="1"/>
+      <c r="Q581" s="1"/>
+    </row>
+    <row r="582" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F582" s="1"/>
+      <c r="G582" s="1"/>
+      <c r="H582" s="1"/>
+      <c r="J582" s="1"/>
+      <c r="K582" s="1"/>
+      <c r="L582" s="1"/>
+      <c r="M582" s="1"/>
+      <c r="N582" s="1"/>
+      <c r="O582" s="1"/>
+      <c r="P582" s="1"/>
+      <c r="Q582" s="1"/>
+    </row>
+    <row r="583" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F583" s="1"/>
+      <c r="G583" s="1"/>
+      <c r="H583" s="1"/>
+      <c r="J583" s="1"/>
+      <c r="K583" s="1"/>
+      <c r="L583" s="1"/>
+      <c r="M583" s="1"/>
+      <c r="N583" s="1"/>
+      <c r="O583" s="1"/>
+      <c r="P583" s="1"/>
+      <c r="Q583" s="1"/>
+    </row>
+    <row r="584" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F584" s="1"/>
-    </row>
-    <row r="591" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F591" s="1"/>
-    </row>
-    <row r="594" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F594" s="1"/>
-    </row>
-    <row r="595" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F595" s="1"/>
-    </row>
-    <row r="598" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F598" s="1"/>
-    </row>
-    <row r="599" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F599" s="1"/>
-      <c r="G599" s="1"/>
-    </row>
-    <row r="600" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="G584" s="1"/>
+      <c r="H584" s="1"/>
+      <c r="J584" s="1"/>
+      <c r="K584" s="1"/>
+      <c r="L584" s="1"/>
+      <c r="M584" s="1"/>
+      <c r="N584" s="1"/>
+      <c r="O584" s="1"/>
+      <c r="P584" s="1"/>
+      <c r="Q584" s="1"/>
+    </row>
+    <row r="585" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F585" s="1"/>
+      <c r="G585" s="1"/>
+      <c r="H585" s="1"/>
+      <c r="J585" s="1"/>
+      <c r="K585" s="1"/>
+      <c r="L585" s="1"/>
+      <c r="M585" s="1"/>
+      <c r="N585" s="1"/>
+      <c r="O585" s="1"/>
+      <c r="P585" s="1"/>
+      <c r="Q585" s="1"/>
+    </row>
+    <row r="586" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F586" s="1"/>
+      <c r="G586" s="1"/>
+      <c r="H586" s="1"/>
+      <c r="I586" s="1"/>
+      <c r="J586" s="1"/>
+      <c r="K586" s="1"/>
+      <c r="L586" s="1"/>
+      <c r="M586" s="1"/>
+      <c r="N586" s="1"/>
+      <c r="O586" s="1"/>
+      <c r="P586" s="1"/>
+      <c r="Q586" s="1"/>
+    </row>
+    <row r="588" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F588" s="1"/>
+      <c r="G588" s="1"/>
+      <c r="H588" s="1"/>
+      <c r="I588" s="1"/>
+      <c r="J588" s="1"/>
+      <c r="K588" s="1"/>
+      <c r="L588" s="1"/>
+      <c r="M588" s="1"/>
+      <c r="N588" s="1"/>
+      <c r="O588" s="1"/>
+      <c r="P588" s="1"/>
+    </row>
+    <row r="592" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F592" s="1"/>
+    </row>
+    <row r="600" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F600" s="1"/>
     </row>
-    <row r="603" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F603" s="1"/>
-      <c r="G603" s="1"/>
-      <c r="H603" s="1"/>
-      <c r="I603" s="1"/>
-      <c r="J603" s="1"/>
-      <c r="K603" s="1"/>
-      <c r="L603" s="1"/>
-      <c r="M603" s="1"/>
-      <c r="N603" s="1"/>
-      <c r="O603" s="1"/>
-      <c r="P603" s="1"/>
-    </row>
-    <row r="604" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F604" s="1"/>
-      <c r="G604" s="1"/>
-      <c r="H604" s="1"/>
-      <c r="I604" s="1"/>
-      <c r="J604" s="1"/>
-      <c r="K604" s="1"/>
-      <c r="L604" s="1"/>
-      <c r="M604" s="1"/>
-      <c r="N604" s="1"/>
-      <c r="O604" s="1"/>
-      <c r="P604" s="1"/>
-    </row>
-    <row r="605" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F605" s="1"/>
-      <c r="G605" s="1"/>
-      <c r="H605" s="1"/>
-      <c r="I605" s="1"/>
-      <c r="J605" s="1"/>
-      <c r="K605" s="1"/>
-      <c r="L605" s="1"/>
-      <c r="M605" s="1"/>
-      <c r="N605" s="1"/>
-      <c r="O605" s="1"/>
-      <c r="P605" s="1"/>
-    </row>
-    <row r="651" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F651" s="1"/>
-      <c r="G651" s="1"/>
-      <c r="H651" s="1"/>
-      <c r="I651" s="1"/>
-      <c r="J651" s="1"/>
-      <c r="K651" s="1"/>
-      <c r="L651" s="1"/>
-      <c r="M651" s="1"/>
-      <c r="N651" s="1"/>
-      <c r="O651" s="1"/>
-      <c r="P651" s="1"/>
-    </row>
-    <row r="652" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F652" s="1"/>
-      <c r="G652" s="1"/>
-      <c r="H652" s="1"/>
-      <c r="I652" s="1"/>
-      <c r="J652" s="1"/>
-      <c r="K652" s="1"/>
-      <c r="L652" s="1"/>
-      <c r="M652" s="1"/>
-      <c r="N652" s="1"/>
-      <c r="O652" s="1"/>
-      <c r="P652" s="1"/>
-    </row>
-    <row r="654" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E654" s="1"/>
-      <c r="F654" s="1"/>
-      <c r="G654" s="1"/>
-      <c r="H654" s="1"/>
-      <c r="I654" s="1"/>
-      <c r="J654" s="1"/>
-      <c r="K654" s="1"/>
-      <c r="L654" s="1"/>
-      <c r="M654" s="1"/>
-      <c r="N654" s="1"/>
-      <c r="O654" s="1"/>
-      <c r="P654" s="1"/>
-    </row>
-    <row r="655" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E655" s="1"/>
-      <c r="F655" s="1"/>
-      <c r="G655" s="1"/>
-      <c r="H655" s="1"/>
-      <c r="I655" s="1"/>
-      <c r="J655" s="1"/>
-      <c r="K655" s="1"/>
-      <c r="L655" s="1"/>
-      <c r="M655" s="1"/>
-      <c r="N655" s="1"/>
-      <c r="O655" s="1"/>
-      <c r="P655" s="1"/>
-    </row>
-    <row r="656" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F656" s="1"/>
-      <c r="G656" s="1"/>
-      <c r="H656" s="1"/>
-      <c r="I656" s="1"/>
-      <c r="J656" s="1"/>
-      <c r="K656" s="1"/>
-      <c r="L656" s="1"/>
-      <c r="M656" s="1"/>
-      <c r="N656" s="1"/>
-      <c r="O656" s="1"/>
-      <c r="P656" s="1"/>
-    </row>
-    <row r="657" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F657" s="1"/>
-      <c r="G657" s="1"/>
-      <c r="H657" s="1"/>
-      <c r="I657" s="1"/>
-      <c r="J657" s="1"/>
-      <c r="K657" s="1"/>
-      <c r="L657" s="1"/>
-      <c r="M657" s="1"/>
-      <c r="N657" s="1"/>
-      <c r="O657" s="1"/>
-      <c r="P657" s="1"/>
-    </row>
-    <row r="658" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F658" s="1"/>
-      <c r="G658" s="1"/>
-      <c r="H658" s="1"/>
-      <c r="I658" s="1"/>
-      <c r="J658" s="1"/>
-      <c r="K658" s="1"/>
-      <c r="L658" s="1"/>
-      <c r="M658" s="1"/>
-      <c r="N658" s="1"/>
-      <c r="O658" s="1"/>
-      <c r="P658" s="1"/>
-    </row>
-    <row r="659" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F659" s="1"/>
-      <c r="G659" s="1"/>
-      <c r="H659" s="1"/>
-      <c r="I659" s="1"/>
-      <c r="J659" s="1"/>
-      <c r="K659" s="1"/>
-      <c r="L659" s="1"/>
-      <c r="M659" s="1"/>
-      <c r="N659" s="1"/>
-      <c r="O659" s="1"/>
-      <c r="P659" s="1"/>
-    </row>
-    <row r="660" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F660" s="1"/>
-      <c r="G660" s="1"/>
-      <c r="H660" s="1"/>
-      <c r="I660" s="1"/>
-      <c r="J660" s="1"/>
-      <c r="K660" s="1"/>
-      <c r="L660" s="1"/>
-      <c r="M660" s="1"/>
-      <c r="N660" s="1"/>
-      <c r="O660" s="1"/>
-      <c r="P660" s="1"/>
-    </row>
-    <row r="661" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F661" s="1"/>
-      <c r="G661" s="1"/>
-      <c r="H661" s="1"/>
-      <c r="I661" s="1"/>
-      <c r="J661" s="1"/>
-      <c r="K661" s="1"/>
-      <c r="L661" s="1"/>
-      <c r="M661" s="1"/>
-      <c r="N661" s="1"/>
-      <c r="O661" s="1"/>
-      <c r="P661" s="1"/>
-    </row>
-    <row r="662" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F662" s="1"/>
-      <c r="G662" s="1"/>
-      <c r="H662" s="1"/>
-      <c r="I662" s="1"/>
-      <c r="J662" s="1"/>
-      <c r="K662" s="1"/>
-      <c r="L662" s="1"/>
-      <c r="M662" s="1"/>
-      <c r="N662" s="1"/>
-      <c r="O662" s="1"/>
-      <c r="P662" s="1"/>
-    </row>
-    <row r="663" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E663" s="1"/>
-      <c r="F663" s="1"/>
-      <c r="G663" s="1"/>
-      <c r="H663" s="1"/>
-      <c r="I663" s="1"/>
-      <c r="J663" s="1"/>
-      <c r="K663" s="1"/>
-      <c r="L663" s="1"/>
-      <c r="M663" s="1"/>
-      <c r="N663" s="1"/>
-      <c r="O663" s="1"/>
-      <c r="P663" s="1"/>
-    </row>
-    <row r="664" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E664" s="1"/>
-      <c r="F664" s="1"/>
-      <c r="G664" s="1"/>
-      <c r="H664" s="1"/>
-      <c r="I664" s="1"/>
-      <c r="J664" s="1"/>
-      <c r="K664" s="1"/>
-      <c r="L664" s="1"/>
-      <c r="M664" s="1"/>
-      <c r="N664" s="1"/>
-      <c r="O664" s="1"/>
-      <c r="P664" s="1"/>
-    </row>
-    <row r="665" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F665" s="1"/>
-      <c r="G665" s="1"/>
-      <c r="H665" s="1"/>
-      <c r="I665" s="1"/>
-      <c r="J665" s="1"/>
-      <c r="K665" s="1"/>
-      <c r="L665" s="1"/>
-      <c r="M665" s="1"/>
-      <c r="N665" s="1"/>
-      <c r="O665" s="1"/>
-      <c r="P665" s="1"/>
-    </row>
-    <row r="666" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F666" s="1"/>
-      <c r="G666" s="1"/>
-      <c r="H666" s="1"/>
-      <c r="I666" s="1"/>
-      <c r="J666" s="1"/>
-      <c r="K666" s="1"/>
-      <c r="L666" s="1"/>
-      <c r="M666" s="1"/>
-      <c r="N666" s="1"/>
-      <c r="O666" s="1"/>
-      <c r="P666" s="1"/>
+    <row r="607" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F607" s="1"/>
+    </row>
+    <row r="610" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F610" s="1"/>
+    </row>
+    <row r="611" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F611" s="1"/>
+    </row>
+    <row r="614" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F614" s="1"/>
+    </row>
+    <row r="615" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F615" s="1"/>
+      <c r="G615" s="1"/>
+    </row>
+    <row r="616" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F616" s="1"/>
+    </row>
+    <row r="619" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F619" s="1"/>
+      <c r="G619" s="1"/>
+      <c r="H619" s="1"/>
+      <c r="I619" s="1"/>
+      <c r="J619" s="1"/>
+      <c r="K619" s="1"/>
+      <c r="L619" s="1"/>
+      <c r="M619" s="1"/>
+      <c r="N619" s="1"/>
+      <c r="O619" s="1"/>
+      <c r="P619" s="1"/>
+    </row>
+    <row r="620" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F620" s="1"/>
+      <c r="G620" s="1"/>
+      <c r="H620" s="1"/>
+      <c r="I620" s="1"/>
+      <c r="J620" s="1"/>
+      <c r="K620" s="1"/>
+      <c r="L620" s="1"/>
+      <c r="M620" s="1"/>
+      <c r="N620" s="1"/>
+      <c r="O620" s="1"/>
+      <c r="P620" s="1"/>
+    </row>
+    <row r="621" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F621" s="1"/>
+      <c r="G621" s="1"/>
+      <c r="H621" s="1"/>
+      <c r="I621" s="1"/>
+      <c r="J621" s="1"/>
+      <c r="K621" s="1"/>
+      <c r="L621" s="1"/>
+      <c r="M621" s="1"/>
+      <c r="N621" s="1"/>
+      <c r="O621" s="1"/>
+      <c r="P621" s="1"/>
     </row>
     <row r="667" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F667" s="1"/>
@@ -6164,14 +6181,213 @@
       <c r="O668" s="1"/>
       <c r="P668" s="1"/>
     </row>
+    <row r="670" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E670" s="1"/>
+      <c r="F670" s="1"/>
+      <c r="G670" s="1"/>
+      <c r="H670" s="1"/>
+      <c r="I670" s="1"/>
+      <c r="J670" s="1"/>
+      <c r="K670" s="1"/>
+      <c r="L670" s="1"/>
+      <c r="M670" s="1"/>
+      <c r="N670" s="1"/>
+      <c r="O670" s="1"/>
+      <c r="P670" s="1"/>
+    </row>
+    <row r="671" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E671" s="1"/>
+      <c r="F671" s="1"/>
+      <c r="G671" s="1"/>
+      <c r="H671" s="1"/>
+      <c r="I671" s="1"/>
+      <c r="J671" s="1"/>
+      <c r="K671" s="1"/>
+      <c r="L671" s="1"/>
+      <c r="M671" s="1"/>
+      <c r="N671" s="1"/>
+      <c r="O671" s="1"/>
+      <c r="P671" s="1"/>
+    </row>
+    <row r="672" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F672" s="1"/>
+      <c r="G672" s="1"/>
+      <c r="H672" s="1"/>
+      <c r="I672" s="1"/>
+      <c r="J672" s="1"/>
+      <c r="K672" s="1"/>
+      <c r="L672" s="1"/>
+      <c r="M672" s="1"/>
+      <c r="N672" s="1"/>
+      <c r="O672" s="1"/>
+      <c r="P672" s="1"/>
+    </row>
+    <row r="673" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F673" s="1"/>
+      <c r="G673" s="1"/>
+      <c r="H673" s="1"/>
+      <c r="I673" s="1"/>
+      <c r="J673" s="1"/>
+      <c r="K673" s="1"/>
+      <c r="L673" s="1"/>
+      <c r="M673" s="1"/>
+      <c r="N673" s="1"/>
+      <c r="O673" s="1"/>
+      <c r="P673" s="1"/>
+    </row>
+    <row r="674" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F674" s="1"/>
+      <c r="G674" s="1"/>
+      <c r="H674" s="1"/>
+      <c r="I674" s="1"/>
+      <c r="J674" s="1"/>
+      <c r="K674" s="1"/>
+      <c r="L674" s="1"/>
+      <c r="M674" s="1"/>
+      <c r="N674" s="1"/>
+      <c r="O674" s="1"/>
+      <c r="P674" s="1"/>
+    </row>
+    <row r="675" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F675" s="1"/>
+      <c r="G675" s="1"/>
+      <c r="H675" s="1"/>
+      <c r="I675" s="1"/>
+      <c r="J675" s="1"/>
+      <c r="K675" s="1"/>
+      <c r="L675" s="1"/>
+      <c r="M675" s="1"/>
+      <c r="N675" s="1"/>
+      <c r="O675" s="1"/>
+      <c r="P675" s="1"/>
+    </row>
+    <row r="676" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F676" s="1"/>
+      <c r="G676" s="1"/>
+      <c r="H676" s="1"/>
+      <c r="I676" s="1"/>
+      <c r="J676" s="1"/>
+      <c r="K676" s="1"/>
+      <c r="L676" s="1"/>
+      <c r="M676" s="1"/>
+      <c r="N676" s="1"/>
+      <c r="O676" s="1"/>
+      <c r="P676" s="1"/>
+    </row>
+    <row r="677" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F677" s="1"/>
+      <c r="G677" s="1"/>
+      <c r="H677" s="1"/>
+      <c r="I677" s="1"/>
+      <c r="J677" s="1"/>
+      <c r="K677" s="1"/>
+      <c r="L677" s="1"/>
+      <c r="M677" s="1"/>
+      <c r="N677" s="1"/>
+      <c r="O677" s="1"/>
+      <c r="P677" s="1"/>
+    </row>
+    <row r="678" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F678" s="1"/>
+      <c r="G678" s="1"/>
+      <c r="H678" s="1"/>
+      <c r="I678" s="1"/>
+      <c r="J678" s="1"/>
+      <c r="K678" s="1"/>
+      <c r="L678" s="1"/>
+      <c r="M678" s="1"/>
+      <c r="N678" s="1"/>
+      <c r="O678" s="1"/>
+      <c r="P678" s="1"/>
+    </row>
+    <row r="679" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E679" s="1"/>
+      <c r="F679" s="1"/>
+      <c r="G679" s="1"/>
+      <c r="H679" s="1"/>
+      <c r="I679" s="1"/>
+      <c r="J679" s="1"/>
+      <c r="K679" s="1"/>
+      <c r="L679" s="1"/>
+      <c r="M679" s="1"/>
+      <c r="N679" s="1"/>
+      <c r="O679" s="1"/>
+      <c r="P679" s="1"/>
+    </row>
+    <row r="680" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E680" s="1"/>
+      <c r="F680" s="1"/>
+      <c r="G680" s="1"/>
+      <c r="H680" s="1"/>
+      <c r="I680" s="1"/>
+      <c r="J680" s="1"/>
+      <c r="K680" s="1"/>
+      <c r="L680" s="1"/>
+      <c r="M680" s="1"/>
+      <c r="N680" s="1"/>
+      <c r="O680" s="1"/>
+      <c r="P680" s="1"/>
+    </row>
+    <row r="681" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F681" s="1"/>
+      <c r="G681" s="1"/>
+      <c r="H681" s="1"/>
+      <c r="I681" s="1"/>
+      <c r="J681" s="1"/>
+      <c r="K681" s="1"/>
+      <c r="L681" s="1"/>
+      <c r="M681" s="1"/>
+      <c r="N681" s="1"/>
+      <c r="O681" s="1"/>
+      <c r="P681" s="1"/>
+    </row>
+    <row r="682" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F682" s="1"/>
+      <c r="G682" s="1"/>
+      <c r="H682" s="1"/>
+      <c r="I682" s="1"/>
+      <c r="J682" s="1"/>
+      <c r="K682" s="1"/>
+      <c r="L682" s="1"/>
+      <c r="M682" s="1"/>
+      <c r="N682" s="1"/>
+      <c r="O682" s="1"/>
+      <c r="P682" s="1"/>
+    </row>
+    <row r="683" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F683" s="1"/>
+      <c r="G683" s="1"/>
+      <c r="H683" s="1"/>
+      <c r="I683" s="1"/>
+      <c r="J683" s="1"/>
+      <c r="K683" s="1"/>
+      <c r="L683" s="1"/>
+      <c r="M683" s="1"/>
+      <c r="N683" s="1"/>
+      <c r="O683" s="1"/>
+      <c r="P683" s="1"/>
+    </row>
+    <row r="684" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F684" s="1"/>
+      <c r="G684" s="1"/>
+      <c r="H684" s="1"/>
+      <c r="I684" s="1"/>
+      <c r="J684" s="1"/>
+      <c r="K684" s="1"/>
+      <c r="L684" s="1"/>
+      <c r="M684" s="1"/>
+      <c r="N684" s="1"/>
+      <c r="O684" s="1"/>
+      <c r="P684" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L554:P554 I554:J554">
+  <conditionalFormatting sqref="L570:P570 I570:J570">
     <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L273:Q273 I273:J273">
+  <conditionalFormatting sqref="L289:Q289 I289:J289">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L155:P155 I155:J155">
+  <conditionalFormatting sqref="L171:P171 I171:J171">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6181,10 +6397,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6214,13 +6430,13 @@
         <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6228,13 +6444,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6242,13 +6458,13 @@
         <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,13 +6472,13 @@
         <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,13 +6486,13 @@
         <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6284,13 +6500,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6298,13 +6514,13 @@
         <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,13 +6528,13 @@
         <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,13 +6542,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6340,13 +6556,13 @@
         <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6354,13 +6570,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6368,13 +6584,13 @@
         <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6382,13 +6598,13 @@
         <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6399,24 +6615,76 @@
         <v>32</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="5" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6516,10 +6784,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6557,10 +6825,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="b">
         <v>0</v>
@@ -6568,7 +6836,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>8</v>
@@ -6579,7 +6847,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -6590,29 +6858,95 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="9" t="b">
+      <c r="C12" s="9" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C13">
+    <sortCondition ref="A10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/rounds/forms/rounds/rounds.xlsx
+++ b/app/config/tables/rounds/forms/rounds/rounds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B5004B-9E6D-4EB8-8D4A-333B452662B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D273A-C311-49D5-A6D5-6A3B0C54B3DA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="prompt_types" sheetId="5" r:id="rId6"/>
     <sheet name="model" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
   <si>
     <t>setting_name</t>
   </si>
@@ -346,24 +346,9 @@
     <t>NA - Não sabe</t>
   </si>
   <si>
-    <t>seccheck</t>
-  </si>
-  <si>
-    <t>Same section</t>
-  </si>
-  <si>
-    <t>New section</t>
-  </si>
-  <si>
-    <t>sec1check</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
-    <t>selected(data('sec1check'),'2')</t>
-  </si>
-  <si>
     <t>sec1i</t>
   </si>
   <si>
@@ -379,21 +364,6 @@
     <t>data('cam1i')</t>
   </si>
   <si>
-    <t>cam1check</t>
-  </si>
-  <si>
-    <t>camcheck</t>
-  </si>
-  <si>
-    <t>selected(data('cam1check'),'2')</t>
-  </si>
-  <si>
-    <t>Same bed</t>
-  </si>
-  <si>
-    <t>New bed</t>
-  </si>
-  <si>
     <t>cam1n</t>
   </si>
   <si>
@@ -419,6 +389,27 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>seccam</t>
+  </si>
+  <si>
+    <t>selected(data('seccam'),'2')</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>Same section and bed</t>
+  </si>
+  <si>
+    <t>Different section or bed</t>
+  </si>
+  <si>
+    <t>assistant</t>
   </si>
 </sst>
 </file>
@@ -895,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20190502</v>
+        <v>20190404</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,11 +1007,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
-  <dimension ref="A1:R684"/>
+  <dimension ref="A1:R680"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,10 +1095,10 @@
     </row>
     <row r="3" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -1115,119 +1106,116 @@
     </row>
     <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>111</v>
+      <c r="G7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>59</v>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" t="b">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <v>9999</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="L13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
+      <c r="B14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1235,89 +1223,119 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="L16">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="L18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="P24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="6:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1374,39 +1392,10 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -1420,7 +1409,6 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -1429,6 +1417,32 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
@@ -1454,12 +1468,12 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -1473,6 +1487,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -1482,23 +1497,11 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -1506,6 +1509,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
@@ -1535,6 +1539,20 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1593,37 +1611,11 @@
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -1637,7 +1629,6 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -1649,6 +1640,29 @@
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
@@ -1680,6 +1694,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -1693,6 +1708,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -1700,39 +1716,14 @@
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -1746,7 +1737,6 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -1754,9 +1744,33 @@
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F74" s="1"/>
@@ -1788,6 +1802,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -1801,6 +1816,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -1808,39 +1824,14 @@
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -1854,7 +1845,6 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -1862,9 +1852,33 @@
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
     </row>
     <row r="82" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
@@ -1896,6 +1910,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -1905,36 +1920,11 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-    </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -1958,6 +1948,34 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
+    <row r="91" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
     <row r="93" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -2016,37 +2034,11 @@
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -2060,7 +2052,6 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -2072,6 +2063,29 @@
     </row>
     <row r="101" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
     </row>
     <row r="103" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F103" s="1"/>
@@ -2103,6 +2117,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -2116,6 +2131,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -2123,39 +2139,14 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -2169,7 +2160,6 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -2177,9 +2167,33 @@
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
     </row>
     <row r="113" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
@@ -2211,6 +2225,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -2224,6 +2239,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -2231,39 +2247,14 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
     </row>
     <row r="117" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
     </row>
     <row r="119" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -2277,7 +2268,6 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -2285,9 +2275,33 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
     </row>
     <row r="121" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
     </row>
     <row r="123" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F123" s="1"/>
@@ -2319,6 +2333,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -2328,36 +2343,11 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-    </row>
     <row r="128" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -2381,6 +2371,34 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
     </row>
+    <row r="130" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
     <row r="132" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -2439,37 +2457,11 @@
     </row>
     <row r="136" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
     </row>
     <row r="138" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -2483,7 +2475,6 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -2495,6 +2486,29 @@
     </row>
     <row r="140" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
     </row>
     <row r="142" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F142" s="1"/>
@@ -2526,6 +2540,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -2539,6 +2554,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -2546,39 +2562,14 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
     </row>
     <row r="146" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
     </row>
     <row r="148" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -2592,7 +2583,6 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -2600,9 +2590,33 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
     </row>
     <row r="150" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
     </row>
     <row r="152" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F152" s="1"/>
@@ -2634,6 +2648,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -2647,6 +2662,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -2654,39 +2670,14 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
     </row>
     <row r="156" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="1"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
     </row>
     <row r="158" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -2700,7 +2691,6 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -2708,9 +2698,33 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
     </row>
     <row r="160" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
     </row>
     <row r="162" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F162" s="1"/>
@@ -2742,6 +2756,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -2751,36 +2766,11 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-    </row>
     <row r="167" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -2804,6 +2794,34 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
     </row>
+    <row r="169" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+    </row>
     <row r="171" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -2858,41 +2876,14 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
     </row>
     <row r="175" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
     </row>
     <row r="177" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -2906,7 +2897,6 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -2914,9 +2904,33 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
     </row>
     <row r="179" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
     </row>
     <row r="181" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F181" s="1"/>
@@ -2948,6 +2962,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -2957,23 +2972,11 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="1"/>
-      <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-    </row>
     <row r="185" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -2981,53 +2984,18 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
     </row>
     <row r="189" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="1"/>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="1"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="1"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="1"/>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="1"/>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208" s="1"/>
@@ -3037,16 +3005,66 @@
     </row>
     <row r="212" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F212" s="1"/>
-    </row>
-    <row r="215" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-    </row>
-    <row r="217" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F217" s="1"/>
+      <c r="G212" s="1"/>
+    </row>
+    <row r="213" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F213" s="1"/>
+    </row>
+    <row r="218" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+    </row>
+    <row r="219" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+    </row>
+    <row r="220" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+    </row>
+    <row r="221" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
     </row>
     <row r="222" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
@@ -3066,6 +3084,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -3080,6 +3099,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -3088,41 +3108,14 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
     </row>
     <row r="225" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
-      <c r="J225" s="1"/>
-      <c r="K225" s="1"/>
-      <c r="L225" s="1"/>
-      <c r="M225" s="1"/>
-      <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
-      <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-    </row>
-    <row r="226" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
-      <c r="J226" s="1"/>
-      <c r="K226" s="1"/>
-      <c r="L226" s="1"/>
-      <c r="M226" s="1"/>
-      <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
-      <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
     </row>
     <row r="227" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
-      <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -3137,7 +3130,6 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
-      <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -3146,9 +3138,35 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
     </row>
     <row r="229" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
     </row>
     <row r="231" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
@@ -3182,6 +3200,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -3196,6 +3215,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -3204,41 +3224,14 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
     </row>
     <row r="235" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
-      <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-    </row>
-    <row r="236" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
-      <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
     </row>
     <row r="237" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -3253,7 +3246,6 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -3262,9 +3254,35 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
     </row>
     <row r="239" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+    </row>
+    <row r="240" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
     </row>
     <row r="241" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
@@ -3298,6 +3316,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
+      <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -3308,38 +3327,11 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
     </row>
-    <row r="244" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
-      <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-      <c r="R244" s="1"/>
-    </row>
-    <row r="245" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
-      <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-    </row>
     <row r="246" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -3365,6 +3357,36 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
     </row>
+    <row r="248" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+    </row>
+    <row r="249" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+    </row>
     <row r="250" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
@@ -3427,39 +3449,11 @@
     </row>
     <row r="254" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
-    </row>
-    <row r="255" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
-      <c r="R255" s="1"/>
     </row>
     <row r="256" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -3474,7 +3468,6 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -3487,6 +3480,31 @@
     </row>
     <row r="258" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F258" s="1"/>
+      <c r="G258" s="1"/>
+      <c r="H258" s="1"/>
+      <c r="J258" s="1"/>
+      <c r="K258" s="1"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1"/>
+      <c r="N258" s="1"/>
+      <c r="O258" s="1"/>
+      <c r="P258" s="1"/>
+      <c r="Q258" s="1"/>
+      <c r="R258" s="1"/>
+    </row>
+    <row r="259" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F259" s="1"/>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1"/>
+      <c r="J259" s="1"/>
+      <c r="K259" s="1"/>
+      <c r="L259" s="1"/>
+      <c r="M259" s="1"/>
+      <c r="N259" s="1"/>
+      <c r="O259" s="1"/>
+      <c r="P259" s="1"/>
+      <c r="Q259" s="1"/>
+      <c r="R259" s="1"/>
     </row>
     <row r="260" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F260" s="1"/>
@@ -3520,6 +3538,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
@@ -3534,6 +3553,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -3542,41 +3562,14 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="R263" s="1"/>
     </row>
     <row r="264" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-      <c r="J264" s="1"/>
-      <c r="K264" s="1"/>
-      <c r="L264" s="1"/>
-      <c r="M264" s="1"/>
-      <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
-      <c r="P264" s="1"/>
-      <c r="Q264" s="1"/>
-      <c r="R264" s="1"/>
-    </row>
-    <row r="265" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F265" s="1"/>
-      <c r="G265" s="1"/>
-      <c r="H265" s="1"/>
-      <c r="J265" s="1"/>
-      <c r="K265" s="1"/>
-      <c r="L265" s="1"/>
-      <c r="M265" s="1"/>
-      <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
-      <c r="P265" s="1"/>
-      <c r="Q265" s="1"/>
-      <c r="R265" s="1"/>
     </row>
     <row r="266" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
-      <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
       <c r="L266" s="1"/>
@@ -3591,7 +3584,6 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
-      <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
       <c r="L267" s="1"/>
@@ -3600,9 +3592,35 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
+      <c r="R267" s="1"/>
     </row>
     <row r="268" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F268" s="1"/>
+      <c r="G268" s="1"/>
+      <c r="H268" s="1"/>
+      <c r="J268" s="1"/>
+      <c r="K268" s="1"/>
+      <c r="L268" s="1"/>
+      <c r="M268" s="1"/>
+      <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="1"/>
+      <c r="R268" s="1"/>
+    </row>
+    <row r="269" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F269" s="1"/>
+      <c r="G269" s="1"/>
+      <c r="H269" s="1"/>
+      <c r="J269" s="1"/>
+      <c r="K269" s="1"/>
+      <c r="L269" s="1"/>
+      <c r="M269" s="1"/>
+      <c r="N269" s="1"/>
+      <c r="O269" s="1"/>
+      <c r="P269" s="1"/>
+      <c r="Q269" s="1"/>
+      <c r="R269" s="1"/>
     </row>
     <row r="270" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F270" s="1"/>
@@ -3636,6 +3654,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
+      <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -3650,6 +3669,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
+      <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -3658,41 +3678,14 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="R273" s="1"/>
     </row>
     <row r="274" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F274" s="1"/>
-      <c r="G274" s="1"/>
-      <c r="H274" s="1"/>
-      <c r="J274" s="1"/>
-      <c r="K274" s="1"/>
-      <c r="L274" s="1"/>
-      <c r="M274" s="1"/>
-      <c r="N274" s="1"/>
-      <c r="O274" s="1"/>
-      <c r="P274" s="1"/>
-      <c r="Q274" s="1"/>
-      <c r="R274" s="1"/>
-    </row>
-    <row r="275" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F275" s="1"/>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
-      <c r="J275" s="1"/>
-      <c r="K275" s="1"/>
-      <c r="L275" s="1"/>
-      <c r="M275" s="1"/>
-      <c r="N275" s="1"/>
-      <c r="O275" s="1"/>
-      <c r="P275" s="1"/>
-      <c r="Q275" s="1"/>
-      <c r="R275" s="1"/>
     </row>
     <row r="276" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
-      <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -3707,7 +3700,6 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
-      <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -3716,9 +3708,35 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
+      <c r="R277" s="1"/>
     </row>
     <row r="278" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="H278" s="1"/>
+      <c r="J278" s="1"/>
+      <c r="K278" s="1"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1"/>
+      <c r="N278" s="1"/>
+      <c r="O278" s="1"/>
+      <c r="P278" s="1"/>
+      <c r="Q278" s="1"/>
+      <c r="R278" s="1"/>
+    </row>
+    <row r="279" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="H279" s="1"/>
+      <c r="J279" s="1"/>
+      <c r="K279" s="1"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1"/>
+      <c r="N279" s="1"/>
+      <c r="O279" s="1"/>
+      <c r="P279" s="1"/>
+      <c r="Q279" s="1"/>
+      <c r="R279" s="1"/>
     </row>
     <row r="280" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F280" s="1"/>
@@ -3752,6 +3770,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
+      <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -3762,38 +3781,11 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
     </row>
-    <row r="283" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F283" s="1"/>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
-      <c r="J283" s="1"/>
-      <c r="K283" s="1"/>
-      <c r="L283" s="1"/>
-      <c r="M283" s="1"/>
-      <c r="N283" s="1"/>
-      <c r="O283" s="1"/>
-      <c r="P283" s="1"/>
-      <c r="Q283" s="1"/>
-      <c r="R283" s="1"/>
-    </row>
-    <row r="284" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F284" s="1"/>
-      <c r="G284" s="1"/>
-      <c r="H284" s="1"/>
-      <c r="J284" s="1"/>
-      <c r="K284" s="1"/>
-      <c r="L284" s="1"/>
-      <c r="M284" s="1"/>
-      <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
-      <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
-    </row>
     <row r="285" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
@@ -3819,6 +3811,36 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
     </row>
+    <row r="287" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
+      <c r="P287" s="1"/>
+      <c r="Q287" s="1"/>
+      <c r="R287" s="1"/>
+    </row>
+    <row r="288" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
+      <c r="P288" s="1"/>
+      <c r="Q288" s="1"/>
+      <c r="R288" s="1"/>
+    </row>
     <row r="289" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
@@ -3877,43 +3899,14 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="R292" s="1"/>
     </row>
     <row r="293" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F293" s="1"/>
-      <c r="G293" s="1"/>
-      <c r="H293" s="1"/>
-      <c r="I293" s="1"/>
-      <c r="J293" s="1"/>
-      <c r="K293" s="1"/>
-      <c r="L293" s="1"/>
-      <c r="M293" s="1"/>
-      <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-      <c r="P293" s="1"/>
-      <c r="Q293" s="1"/>
-      <c r="R293" s="1"/>
-    </row>
-    <row r="294" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F294" s="1"/>
-      <c r="G294" s="1"/>
-      <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
-      <c r="K294" s="1"/>
-      <c r="L294" s="1"/>
-      <c r="M294" s="1"/>
-      <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-      <c r="P294" s="1"/>
-      <c r="Q294" s="1"/>
-      <c r="R294" s="1"/>
     </row>
     <row r="295" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
@@ -3928,7 +3921,6 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
@@ -3937,9 +3929,35 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
+      <c r="R296" s="1"/>
     </row>
     <row r="297" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="H297" s="1"/>
+      <c r="J297" s="1"/>
+      <c r="K297" s="1"/>
+      <c r="L297" s="1"/>
+      <c r="M297" s="1"/>
+      <c r="N297" s="1"/>
+      <c r="O297" s="1"/>
+      <c r="P297" s="1"/>
+      <c r="Q297" s="1"/>
+      <c r="R297" s="1"/>
+    </row>
+    <row r="298" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F298" s="1"/>
+      <c r="G298" s="1"/>
+      <c r="H298" s="1"/>
+      <c r="J298" s="1"/>
+      <c r="K298" s="1"/>
+      <c r="L298" s="1"/>
+      <c r="M298" s="1"/>
+      <c r="N298" s="1"/>
+      <c r="O298" s="1"/>
+      <c r="P298" s="1"/>
+      <c r="Q298" s="1"/>
+      <c r="R298" s="1"/>
     </row>
     <row r="299" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F299" s="1"/>
@@ -3973,6 +3991,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
+      <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -3983,24 +4002,11 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
     </row>
-    <row r="302" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F302" s="1"/>
-      <c r="G302" s="1"/>
-      <c r="H302" s="1"/>
-      <c r="J302" s="1"/>
-      <c r="K302" s="1"/>
-      <c r="L302" s="1"/>
-      <c r="M302" s="1"/>
-      <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
-      <c r="P302" s="1"/>
-      <c r="Q302" s="1"/>
-      <c r="R302" s="1"/>
-    </row>
     <row r="303" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F303" s="1"/>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
+      <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -4009,56 +4015,18 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
-    </row>
-    <row r="304" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F304" s="1"/>
-      <c r="G304" s="1"/>
-      <c r="H304" s="1"/>
-      <c r="J304" s="1"/>
-      <c r="K304" s="1"/>
-      <c r="L304" s="1"/>
-      <c r="M304" s="1"/>
-      <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
-      <c r="P304" s="1"/>
-      <c r="Q304" s="1"/>
-      <c r="R304" s="1"/>
-    </row>
-    <row r="305" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F305" s="1"/>
-      <c r="G305" s="1"/>
-      <c r="H305" s="1"/>
-      <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
-      <c r="K305" s="1"/>
-      <c r="L305" s="1"/>
-      <c r="M305" s="1"/>
-      <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-    </row>
-    <row r="307" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F307" s="1"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="1"/>
-      <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
-      <c r="K307" s="1"/>
-      <c r="L307" s="1"/>
-      <c r="M307" s="1"/>
-      <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
-    </row>
-    <row r="311" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F311" s="1"/>
-    </row>
-    <row r="319" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F319" s="1"/>
+    </row>
+    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F315" s="1"/>
+    </row>
+    <row r="322" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F322" s="1"/>
+    </row>
+    <row r="325" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F325" s="1"/>
     </row>
     <row r="326" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F326" s="1"/>
@@ -4068,16 +4036,22 @@
     </row>
     <row r="330" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F330" s="1"/>
-    </row>
-    <row r="333" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F334" s="1"/>
-      <c r="G334" s="1"/>
-    </row>
-    <row r="335" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F335" s="1"/>
+      <c r="G330" s="1"/>
+    </row>
+    <row r="331" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F331" s="1"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367" s="3"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" s="3"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" s="3"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" s="3"/>
     </row>
     <row r="371" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I371" s="3"/>
@@ -4109,9 +4083,6 @@
     <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I381" s="3"/>
-    </row>
     <row r="382" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I382" s="3"/>
     </row>
@@ -4121,46 +4092,78 @@
     <row r="384" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I384" s="3"/>
     </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="I385" s="3"/>
+    </row>
+    <row r="386" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I386" s="3"/>
     </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I387" s="3"/>
     </row>
-    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I388" s="3"/>
     </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I389" s="3"/>
     </row>
-    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I390" s="3"/>
     </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I391" s="3"/>
     </row>
-    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="6:16" x14ac:dyDescent="0.25">
       <c r="I392" s="3"/>
     </row>
-    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I393" s="3"/>
-    </row>
-    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I394" s="3"/>
-    </row>
-    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I395" s="3"/>
-    </row>
-    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I396" s="3"/>
-    </row>
-    <row r="398" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" spans="9:9" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F401" s="1"/>
-    </row>
-    <row r="402" spans="5:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F397" s="1"/>
+    </row>
+    <row r="398" spans="6:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F400" s="1"/>
+      <c r="G400" s="1"/>
+      <c r="H400" s="1"/>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+      <c r="K400" s="1"/>
+      <c r="L400" s="1"/>
+      <c r="M400" s="1"/>
+      <c r="N400" s="1"/>
+      <c r="O400" s="1"/>
+      <c r="P400" s="1"/>
+    </row>
+    <row r="402" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E402" s="1"/>
+      <c r="F402" s="1"/>
+      <c r="G402" s="1"/>
+      <c r="H402" s="1"/>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+      <c r="K402" s="1"/>
+      <c r="L402" s="1"/>
+      <c r="M402" s="1"/>
+      <c r="N402" s="1"/>
+      <c r="O402" s="1"/>
+      <c r="P402" s="1"/>
+    </row>
+    <row r="403" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E403" s="1"/>
+      <c r="F403" s="1"/>
+      <c r="G403" s="1"/>
+      <c r="H403" s="1"/>
+      <c r="I403" s="1"/>
+      <c r="J403" s="1"/>
+      <c r="K403" s="1"/>
+      <c r="L403" s="1"/>
+      <c r="M403" s="1"/>
+      <c r="N403" s="1"/>
+      <c r="O403" s="1"/>
+      <c r="P403" s="1"/>
+    </row>
     <row r="404" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F404" s="1"/>
       <c r="G404" s="1"/>
@@ -4174,8 +4177,20 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
     </row>
+    <row r="405" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F405" s="1"/>
+      <c r="G405" s="1"/>
+      <c r="H405" s="1"/>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+      <c r="K405" s="1"/>
+      <c r="L405" s="1"/>
+      <c r="M405" s="1"/>
+      <c r="N405" s="1"/>
+      <c r="O405" s="1"/>
+      <c r="P405" s="1"/>
+    </row>
     <row r="406" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
@@ -4189,7 +4204,6 @@
       <c r="P406" s="1"/>
     </row>
     <row r="407" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
@@ -4255,6 +4269,7 @@
       <c r="P411" s="1"/>
     </row>
     <row r="412" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E412" s="1"/>
       <c r="F412" s="1"/>
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
@@ -4268,6 +4283,7 @@
       <c r="P412" s="1"/>
     </row>
     <row r="413" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E413" s="1"/>
       <c r="F413" s="1"/>
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
@@ -4307,7 +4323,6 @@
       <c r="P415" s="1"/>
     </row>
     <row r="416" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E416" s="1"/>
       <c r="F416" s="1"/>
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
@@ -4320,8 +4335,7 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
     </row>
-    <row r="417" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E417" s="1"/>
+    <row r="417" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F417" s="1"/>
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
@@ -4334,57 +4348,61 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
     </row>
-    <row r="418" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F418" s="1"/>
-      <c r="G418" s="1"/>
-      <c r="H418" s="1"/>
-      <c r="I418" s="1"/>
-      <c r="J418" s="1"/>
-      <c r="K418" s="1"/>
-      <c r="L418" s="1"/>
-      <c r="M418" s="1"/>
-      <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
-      <c r="P418" s="1"/>
-    </row>
-    <row r="419" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F419" s="1"/>
-      <c r="G419" s="1"/>
-      <c r="H419" s="1"/>
-      <c r="I419" s="1"/>
-      <c r="J419" s="1"/>
-      <c r="K419" s="1"/>
-      <c r="L419" s="1"/>
-      <c r="M419" s="1"/>
-      <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
-      <c r="P419" s="1"/>
-    </row>
-    <row r="420" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F420" s="1"/>
-      <c r="G420" s="1"/>
-      <c r="H420" s="1"/>
-      <c r="I420" s="1"/>
-      <c r="J420" s="1"/>
-      <c r="K420" s="1"/>
-      <c r="L420" s="1"/>
-      <c r="M420" s="1"/>
-      <c r="N420" s="1"/>
-      <c r="O420" s="1"/>
-      <c r="P420" s="1"/>
-    </row>
-    <row r="421" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F421" s="1"/>
-      <c r="G421" s="1"/>
-      <c r="H421" s="1"/>
-      <c r="I421" s="1"/>
-      <c r="J421" s="1"/>
-      <c r="K421" s="1"/>
-      <c r="L421" s="1"/>
-      <c r="M421" s="1"/>
-      <c r="N421" s="1"/>
-      <c r="O421" s="1"/>
-      <c r="P421" s="1"/>
+    <row r="430" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F430" s="1"/>
+      <c r="G430" s="1"/>
+      <c r="H430" s="1"/>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+      <c r="K430" s="1"/>
+      <c r="L430" s="1"/>
+      <c r="M430" s="1"/>
+      <c r="N430" s="1"/>
+      <c r="O430" s="1"/>
+      <c r="P430" s="1"/>
+      <c r="Q430" s="1"/>
+    </row>
+    <row r="431" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F431" s="1"/>
+      <c r="G431" s="1"/>
+      <c r="H431" s="1"/>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+      <c r="K431" s="1"/>
+      <c r="L431" s="1"/>
+      <c r="M431" s="1"/>
+      <c r="N431" s="1"/>
+      <c r="O431" s="1"/>
+      <c r="P431" s="1"/>
+      <c r="Q431" s="1"/>
+    </row>
+    <row r="432" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F432" s="1"/>
+      <c r="G432" s="1"/>
+      <c r="H432" s="1"/>
+      <c r="I432" s="1"/>
+      <c r="J432" s="1"/>
+      <c r="K432" s="1"/>
+      <c r="L432" s="1"/>
+      <c r="M432" s="1"/>
+      <c r="N432" s="1"/>
+      <c r="O432" s="1"/>
+      <c r="P432" s="1"/>
+      <c r="Q432" s="1"/>
+    </row>
+    <row r="433" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F433" s="1"/>
+      <c r="G433" s="1"/>
+      <c r="H433" s="1"/>
+      <c r="I433" s="1"/>
+      <c r="J433" s="1"/>
+      <c r="K433" s="1"/>
+      <c r="L433" s="1"/>
+      <c r="M433" s="1"/>
+      <c r="N433" s="1"/>
+      <c r="O433" s="1"/>
+      <c r="P433" s="1"/>
+      <c r="Q433" s="1"/>
     </row>
     <row r="434" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F434" s="1"/>
@@ -4442,39 +4460,10 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
     </row>
-    <row r="438" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F438" s="1"/>
-      <c r="G438" s="1"/>
-      <c r="H438" s="1"/>
-      <c r="I438" s="1"/>
-      <c r="J438" s="1"/>
-      <c r="K438" s="1"/>
-      <c r="L438" s="1"/>
-      <c r="M438" s="1"/>
-      <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
-      <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
-    </row>
-    <row r="439" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F439" s="1"/>
-      <c r="G439" s="1"/>
-      <c r="H439" s="1"/>
-      <c r="I439" s="1"/>
-      <c r="J439" s="1"/>
-      <c r="K439" s="1"/>
-      <c r="L439" s="1"/>
-      <c r="M439" s="1"/>
-      <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
-      <c r="P439" s="1"/>
-      <c r="Q439" s="1"/>
-    </row>
     <row r="440" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F440" s="1"/>
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
-      <c r="I440" s="1"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -4488,7 +4477,6 @@
       <c r="F441" s="1"/>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
-      <c r="I441" s="1"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
@@ -4497,6 +4485,32 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
+    </row>
+    <row r="442" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F442" s="1"/>
+      <c r="G442" s="1"/>
+      <c r="H442" s="1"/>
+      <c r="J442" s="1"/>
+      <c r="K442" s="1"/>
+      <c r="L442" s="1"/>
+      <c r="M442" s="1"/>
+      <c r="N442" s="1"/>
+      <c r="O442" s="1"/>
+      <c r="P442" s="1"/>
+      <c r="Q442" s="1"/>
+    </row>
+    <row r="443" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F443" s="1"/>
+      <c r="G443" s="1"/>
+      <c r="H443" s="1"/>
+      <c r="J443" s="1"/>
+      <c r="K443" s="1"/>
+      <c r="L443" s="1"/>
+      <c r="M443" s="1"/>
+      <c r="N443" s="1"/>
+      <c r="O443" s="1"/>
+      <c r="P443" s="1"/>
+      <c r="Q443" s="1"/>
     </row>
     <row r="444" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F444" s="1"/>
@@ -4522,12 +4536,12 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
-      <c r="Q445" s="1"/>
     </row>
     <row r="446" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F446" s="1"/>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
+      <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
@@ -4541,6 +4555,7 @@
       <c r="F447" s="1"/>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
+      <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
@@ -4550,23 +4565,11 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
     </row>
-    <row r="448" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F448" s="1"/>
-      <c r="G448" s="1"/>
-      <c r="H448" s="1"/>
-      <c r="J448" s="1"/>
-      <c r="K448" s="1"/>
-      <c r="L448" s="1"/>
-      <c r="M448" s="1"/>
-      <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
-      <c r="P448" s="1"/>
-      <c r="Q448" s="1"/>
-    </row>
     <row r="449" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F449" s="1"/>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
+      <c r="I449" s="1"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
       <c r="L449" s="1"/>
@@ -4574,6 +4577,7 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
+      <c r="Q449" s="1"/>
     </row>
     <row r="450" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F450" s="1"/>
@@ -4603,6 +4607,20 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
     </row>
+    <row r="452" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F452" s="1"/>
+      <c r="G452" s="1"/>
+      <c r="H452" s="1"/>
+      <c r="I452" s="1"/>
+      <c r="J452" s="1"/>
+      <c r="K452" s="1"/>
+      <c r="L452" s="1"/>
+      <c r="M452" s="1"/>
+      <c r="N452" s="1"/>
+      <c r="O452" s="1"/>
+      <c r="P452" s="1"/>
+      <c r="Q452" s="1"/>
+    </row>
     <row r="453" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F453" s="1"/>
       <c r="G453" s="1"/>
@@ -4661,37 +4679,11 @@
     </row>
     <row r="457" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F457" s="1"/>
-      <c r="G457" s="1"/>
-      <c r="H457" s="1"/>
-      <c r="I457" s="1"/>
-      <c r="J457" s="1"/>
-      <c r="K457" s="1"/>
-      <c r="L457" s="1"/>
-      <c r="M457" s="1"/>
-      <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-    </row>
-    <row r="458" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F458" s="1"/>
-      <c r="G458" s="1"/>
-      <c r="H458" s="1"/>
-      <c r="I458" s="1"/>
-      <c r="J458" s="1"/>
-      <c r="K458" s="1"/>
-      <c r="L458" s="1"/>
-      <c r="M458" s="1"/>
-      <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
-      <c r="P458" s="1"/>
-      <c r="Q458" s="1"/>
     </row>
     <row r="459" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F459" s="1"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
-      <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -4705,7 +4697,6 @@
       <c r="F460" s="1"/>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
-      <c r="I460" s="1"/>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
@@ -4717,6 +4708,29 @@
     </row>
     <row r="461" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F461" s="1"/>
+      <c r="G461" s="1"/>
+      <c r="H461" s="1"/>
+      <c r="J461" s="1"/>
+      <c r="K461" s="1"/>
+      <c r="L461" s="1"/>
+      <c r="M461" s="1"/>
+      <c r="N461" s="1"/>
+      <c r="O461" s="1"/>
+      <c r="P461" s="1"/>
+      <c r="Q461" s="1"/>
+    </row>
+    <row r="462" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F462" s="1"/>
+      <c r="G462" s="1"/>
+      <c r="H462" s="1"/>
+      <c r="J462" s="1"/>
+      <c r="K462" s="1"/>
+      <c r="L462" s="1"/>
+      <c r="M462" s="1"/>
+      <c r="N462" s="1"/>
+      <c r="O462" s="1"/>
+      <c r="P462" s="1"/>
+      <c r="Q462" s="1"/>
     </row>
     <row r="463" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F463" s="1"/>
@@ -4748,6 +4762,7 @@
       <c r="F465" s="1"/>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
+      <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -4761,6 +4776,7 @@
       <c r="F466" s="1"/>
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
+      <c r="I466" s="1"/>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -4768,39 +4784,14 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-      <c r="Q466" s="1"/>
     </row>
     <row r="467" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F467" s="1"/>
-      <c r="G467" s="1"/>
-      <c r="H467" s="1"/>
-      <c r="J467" s="1"/>
-      <c r="K467" s="1"/>
-      <c r="L467" s="1"/>
-      <c r="M467" s="1"/>
-      <c r="N467" s="1"/>
-      <c r="O467" s="1"/>
-      <c r="P467" s="1"/>
-      <c r="Q467" s="1"/>
-    </row>
-    <row r="468" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F468" s="1"/>
-      <c r="G468" s="1"/>
-      <c r="H468" s="1"/>
-      <c r="J468" s="1"/>
-      <c r="K468" s="1"/>
-      <c r="L468" s="1"/>
-      <c r="M468" s="1"/>
-      <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
-      <c r="P468" s="1"/>
-      <c r="Q468" s="1"/>
     </row>
     <row r="469" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F469" s="1"/>
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
-      <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
@@ -4814,7 +4805,6 @@
       <c r="F470" s="1"/>
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
-      <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
@@ -4822,9 +4812,33 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
+      <c r="Q470" s="1"/>
     </row>
     <row r="471" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F471" s="1"/>
+      <c r="G471" s="1"/>
+      <c r="H471" s="1"/>
+      <c r="J471" s="1"/>
+      <c r="K471" s="1"/>
+      <c r="L471" s="1"/>
+      <c r="M471" s="1"/>
+      <c r="N471" s="1"/>
+      <c r="O471" s="1"/>
+      <c r="P471" s="1"/>
+      <c r="Q471" s="1"/>
+    </row>
+    <row r="472" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F472" s="1"/>
+      <c r="G472" s="1"/>
+      <c r="H472" s="1"/>
+      <c r="J472" s="1"/>
+      <c r="K472" s="1"/>
+      <c r="L472" s="1"/>
+      <c r="M472" s="1"/>
+      <c r="N472" s="1"/>
+      <c r="O472" s="1"/>
+      <c r="P472" s="1"/>
+      <c r="Q472" s="1"/>
     </row>
     <row r="473" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F473" s="1"/>
@@ -4856,6 +4870,7 @@
       <c r="F475" s="1"/>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
+      <c r="I475" s="1"/>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
@@ -4869,6 +4884,7 @@
       <c r="F476" s="1"/>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
+      <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
@@ -4876,39 +4892,14 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
-      <c r="Q476" s="1"/>
     </row>
     <row r="477" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F477" s="1"/>
-      <c r="G477" s="1"/>
-      <c r="H477" s="1"/>
-      <c r="J477" s="1"/>
-      <c r="K477" s="1"/>
-      <c r="L477" s="1"/>
-      <c r="M477" s="1"/>
-      <c r="N477" s="1"/>
-      <c r="O477" s="1"/>
-      <c r="P477" s="1"/>
-      <c r="Q477" s="1"/>
-    </row>
-    <row r="478" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F478" s="1"/>
-      <c r="G478" s="1"/>
-      <c r="H478" s="1"/>
-      <c r="J478" s="1"/>
-      <c r="K478" s="1"/>
-      <c r="L478" s="1"/>
-      <c r="M478" s="1"/>
-      <c r="N478" s="1"/>
-      <c r="O478" s="1"/>
-      <c r="P478" s="1"/>
-      <c r="Q478" s="1"/>
     </row>
     <row r="479" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F479" s="1"/>
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
-      <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
@@ -4922,7 +4913,6 @@
       <c r="F480" s="1"/>
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
-      <c r="I480" s="1"/>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
       <c r="L480" s="1"/>
@@ -4930,9 +4920,33 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
+      <c r="Q480" s="1"/>
     </row>
     <row r="481" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F481" s="1"/>
+      <c r="G481" s="1"/>
+      <c r="H481" s="1"/>
+      <c r="J481" s="1"/>
+      <c r="K481" s="1"/>
+      <c r="L481" s="1"/>
+      <c r="M481" s="1"/>
+      <c r="N481" s="1"/>
+      <c r="O481" s="1"/>
+      <c r="P481" s="1"/>
+      <c r="Q481" s="1"/>
+    </row>
+    <row r="482" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F482" s="1"/>
+      <c r="G482" s="1"/>
+      <c r="H482" s="1"/>
+      <c r="J482" s="1"/>
+      <c r="K482" s="1"/>
+      <c r="L482" s="1"/>
+      <c r="M482" s="1"/>
+      <c r="N482" s="1"/>
+      <c r="O482" s="1"/>
+      <c r="P482" s="1"/>
+      <c r="Q482" s="1"/>
     </row>
     <row r="483" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F483" s="1"/>
@@ -4964,6 +4978,7 @@
       <c r="F485" s="1"/>
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
+      <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -4973,36 +4988,11 @@
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
     </row>
-    <row r="486" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F486" s="1"/>
-      <c r="G486" s="1"/>
-      <c r="H486" s="1"/>
-      <c r="J486" s="1"/>
-      <c r="K486" s="1"/>
-      <c r="L486" s="1"/>
-      <c r="M486" s="1"/>
-      <c r="N486" s="1"/>
-      <c r="O486" s="1"/>
-      <c r="P486" s="1"/>
-      <c r="Q486" s="1"/>
-    </row>
-    <row r="487" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F487" s="1"/>
-      <c r="G487" s="1"/>
-      <c r="H487" s="1"/>
-      <c r="J487" s="1"/>
-      <c r="K487" s="1"/>
-      <c r="L487" s="1"/>
-      <c r="M487" s="1"/>
-      <c r="N487" s="1"/>
-      <c r="O487" s="1"/>
-      <c r="P487" s="1"/>
-      <c r="Q487" s="1"/>
-    </row>
     <row r="488" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F488" s="1"/>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
+      <c r="I488" s="1"/>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
@@ -5026,6 +5016,34 @@
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
     </row>
+    <row r="490" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F490" s="1"/>
+      <c r="G490" s="1"/>
+      <c r="H490" s="1"/>
+      <c r="I490" s="1"/>
+      <c r="J490" s="1"/>
+      <c r="K490" s="1"/>
+      <c r="L490" s="1"/>
+      <c r="M490" s="1"/>
+      <c r="N490" s="1"/>
+      <c r="O490" s="1"/>
+      <c r="P490" s="1"/>
+      <c r="Q490" s="1"/>
+    </row>
+    <row r="491" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F491" s="1"/>
+      <c r="G491" s="1"/>
+      <c r="H491" s="1"/>
+      <c r="I491" s="1"/>
+      <c r="J491" s="1"/>
+      <c r="K491" s="1"/>
+      <c r="L491" s="1"/>
+      <c r="M491" s="1"/>
+      <c r="N491" s="1"/>
+      <c r="O491" s="1"/>
+      <c r="P491" s="1"/>
+      <c r="Q491" s="1"/>
+    </row>
     <row r="492" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F492" s="1"/>
       <c r="G492" s="1"/>
@@ -5084,37 +5102,11 @@
     </row>
     <row r="496" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F496" s="1"/>
-      <c r="G496" s="1"/>
-      <c r="H496" s="1"/>
-      <c r="I496" s="1"/>
-      <c r="J496" s="1"/>
-      <c r="K496" s="1"/>
-      <c r="L496" s="1"/>
-      <c r="M496" s="1"/>
-      <c r="N496" s="1"/>
-      <c r="O496" s="1"/>
-      <c r="P496" s="1"/>
-      <c r="Q496" s="1"/>
-    </row>
-    <row r="497" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F497" s="1"/>
-      <c r="G497" s="1"/>
-      <c r="H497" s="1"/>
-      <c r="I497" s="1"/>
-      <c r="J497" s="1"/>
-      <c r="K497" s="1"/>
-      <c r="L497" s="1"/>
-      <c r="M497" s="1"/>
-      <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
-      <c r="P497" s="1"/>
-      <c r="Q497" s="1"/>
     </row>
     <row r="498" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
-      <c r="I498" s="1"/>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
@@ -5128,7 +5120,6 @@
       <c r="F499" s="1"/>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
-      <c r="I499" s="1"/>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
@@ -5140,6 +5131,29 @@
     </row>
     <row r="500" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F500" s="1"/>
+      <c r="G500" s="1"/>
+      <c r="H500" s="1"/>
+      <c r="J500" s="1"/>
+      <c r="K500" s="1"/>
+      <c r="L500" s="1"/>
+      <c r="M500" s="1"/>
+      <c r="N500" s="1"/>
+      <c r="O500" s="1"/>
+      <c r="P500" s="1"/>
+      <c r="Q500" s="1"/>
+    </row>
+    <row r="501" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F501" s="1"/>
+      <c r="G501" s="1"/>
+      <c r="H501" s="1"/>
+      <c r="J501" s="1"/>
+      <c r="K501" s="1"/>
+      <c r="L501" s="1"/>
+      <c r="M501" s="1"/>
+      <c r="N501" s="1"/>
+      <c r="O501" s="1"/>
+      <c r="P501" s="1"/>
+      <c r="Q501" s="1"/>
     </row>
     <row r="502" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F502" s="1"/>
@@ -5171,6 +5185,7 @@
       <c r="F504" s="1"/>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
+      <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -5184,6 +5199,7 @@
       <c r="F505" s="1"/>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
+      <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
@@ -5191,39 +5207,14 @@
       <c r="N505" s="1"/>
       <c r="O505" s="1"/>
       <c r="P505" s="1"/>
-      <c r="Q505" s="1"/>
     </row>
     <row r="506" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F506" s="1"/>
-      <c r="G506" s="1"/>
-      <c r="H506" s="1"/>
-      <c r="J506" s="1"/>
-      <c r="K506" s="1"/>
-      <c r="L506" s="1"/>
-      <c r="M506" s="1"/>
-      <c r="N506" s="1"/>
-      <c r="O506" s="1"/>
-      <c r="P506" s="1"/>
-      <c r="Q506" s="1"/>
-    </row>
-    <row r="507" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F507" s="1"/>
-      <c r="G507" s="1"/>
-      <c r="H507" s="1"/>
-      <c r="J507" s="1"/>
-      <c r="K507" s="1"/>
-      <c r="L507" s="1"/>
-      <c r="M507" s="1"/>
-      <c r="N507" s="1"/>
-      <c r="O507" s="1"/>
-      <c r="P507" s="1"/>
-      <c r="Q507" s="1"/>
     </row>
     <row r="508" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F508" s="1"/>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
-      <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
@@ -5237,7 +5228,6 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
-      <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -5245,9 +5235,33 @@
       <c r="N509" s="1"/>
       <c r="O509" s="1"/>
       <c r="P509" s="1"/>
+      <c r="Q509" s="1"/>
     </row>
     <row r="510" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F510" s="1"/>
+      <c r="G510" s="1"/>
+      <c r="H510" s="1"/>
+      <c r="J510" s="1"/>
+      <c r="K510" s="1"/>
+      <c r="L510" s="1"/>
+      <c r="M510" s="1"/>
+      <c r="N510" s="1"/>
+      <c r="O510" s="1"/>
+      <c r="P510" s="1"/>
+      <c r="Q510" s="1"/>
+    </row>
+    <row r="511" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F511" s="1"/>
+      <c r="G511" s="1"/>
+      <c r="H511" s="1"/>
+      <c r="J511" s="1"/>
+      <c r="K511" s="1"/>
+      <c r="L511" s="1"/>
+      <c r="M511" s="1"/>
+      <c r="N511" s="1"/>
+      <c r="O511" s="1"/>
+      <c r="P511" s="1"/>
+      <c r="Q511" s="1"/>
     </row>
     <row r="512" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F512" s="1"/>
@@ -5279,6 +5293,7 @@
       <c r="F514" s="1"/>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
+      <c r="I514" s="1"/>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
@@ -5292,6 +5307,7 @@
       <c r="F515" s="1"/>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
+      <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
@@ -5299,39 +5315,14 @@
       <c r="N515" s="1"/>
       <c r="O515" s="1"/>
       <c r="P515" s="1"/>
-      <c r="Q515" s="1"/>
     </row>
     <row r="516" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F516" s="1"/>
-      <c r="G516" s="1"/>
-      <c r="H516" s="1"/>
-      <c r="J516" s="1"/>
-      <c r="K516" s="1"/>
-      <c r="L516" s="1"/>
-      <c r="M516" s="1"/>
-      <c r="N516" s="1"/>
-      <c r="O516" s="1"/>
-      <c r="P516" s="1"/>
-      <c r="Q516" s="1"/>
-    </row>
-    <row r="517" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F517" s="1"/>
-      <c r="G517" s="1"/>
-      <c r="H517" s="1"/>
-      <c r="J517" s="1"/>
-      <c r="K517" s="1"/>
-      <c r="L517" s="1"/>
-      <c r="M517" s="1"/>
-      <c r="N517" s="1"/>
-      <c r="O517" s="1"/>
-      <c r="P517" s="1"/>
-      <c r="Q517" s="1"/>
     </row>
     <row r="518" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F518" s="1"/>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
-      <c r="I518" s="1"/>
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
@@ -5345,7 +5336,6 @@
       <c r="F519" s="1"/>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
-      <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
@@ -5353,9 +5343,33 @@
       <c r="N519" s="1"/>
       <c r="O519" s="1"/>
       <c r="P519" s="1"/>
+      <c r="Q519" s="1"/>
     </row>
     <row r="520" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F520" s="1"/>
+      <c r="G520" s="1"/>
+      <c r="H520" s="1"/>
+      <c r="J520" s="1"/>
+      <c r="K520" s="1"/>
+      <c r="L520" s="1"/>
+      <c r="M520" s="1"/>
+      <c r="N520" s="1"/>
+      <c r="O520" s="1"/>
+      <c r="P520" s="1"/>
+      <c r="Q520" s="1"/>
+    </row>
+    <row r="521" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F521" s="1"/>
+      <c r="G521" s="1"/>
+      <c r="H521" s="1"/>
+      <c r="J521" s="1"/>
+      <c r="K521" s="1"/>
+      <c r="L521" s="1"/>
+      <c r="M521" s="1"/>
+      <c r="N521" s="1"/>
+      <c r="O521" s="1"/>
+      <c r="P521" s="1"/>
+      <c r="Q521" s="1"/>
     </row>
     <row r="522" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F522" s="1"/>
@@ -5387,6 +5401,7 @@
       <c r="F524" s="1"/>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
+      <c r="I524" s="1"/>
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
@@ -5396,36 +5411,11 @@
       <c r="P524" s="1"/>
       <c r="Q524" s="1"/>
     </row>
-    <row r="525" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F525" s="1"/>
-      <c r="G525" s="1"/>
-      <c r="H525" s="1"/>
-      <c r="J525" s="1"/>
-      <c r="K525" s="1"/>
-      <c r="L525" s="1"/>
-      <c r="M525" s="1"/>
-      <c r="N525" s="1"/>
-      <c r="O525" s="1"/>
-      <c r="P525" s="1"/>
-      <c r="Q525" s="1"/>
-    </row>
-    <row r="526" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F526" s="1"/>
-      <c r="G526" s="1"/>
-      <c r="H526" s="1"/>
-      <c r="J526" s="1"/>
-      <c r="K526" s="1"/>
-      <c r="L526" s="1"/>
-      <c r="M526" s="1"/>
-      <c r="N526" s="1"/>
-      <c r="O526" s="1"/>
-      <c r="P526" s="1"/>
-      <c r="Q526" s="1"/>
-    </row>
     <row r="527" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F527" s="1"/>
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
+      <c r="I527" s="1"/>
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
       <c r="L527" s="1"/>
@@ -5449,6 +5439,34 @@
       <c r="P528" s="1"/>
       <c r="Q528" s="1"/>
     </row>
+    <row r="529" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F529" s="1"/>
+      <c r="G529" s="1"/>
+      <c r="H529" s="1"/>
+      <c r="I529" s="1"/>
+      <c r="J529" s="1"/>
+      <c r="K529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="M529" s="1"/>
+      <c r="N529" s="1"/>
+      <c r="O529" s="1"/>
+      <c r="P529" s="1"/>
+      <c r="Q529" s="1"/>
+    </row>
+    <row r="530" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F530" s="1"/>
+      <c r="G530" s="1"/>
+      <c r="H530" s="1"/>
+      <c r="I530" s="1"/>
+      <c r="J530" s="1"/>
+      <c r="K530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1"/>
+      <c r="N530" s="1"/>
+      <c r="O530" s="1"/>
+      <c r="P530" s="1"/>
+      <c r="Q530" s="1"/>
+    </row>
     <row r="531" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F531" s="1"/>
       <c r="G531" s="1"/>
@@ -5507,37 +5525,11 @@
     </row>
     <row r="535" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F535" s="1"/>
-      <c r="G535" s="1"/>
-      <c r="H535" s="1"/>
-      <c r="I535" s="1"/>
-      <c r="J535" s="1"/>
-      <c r="K535" s="1"/>
-      <c r="L535" s="1"/>
-      <c r="M535" s="1"/>
-      <c r="N535" s="1"/>
-      <c r="O535" s="1"/>
-      <c r="P535" s="1"/>
-      <c r="Q535" s="1"/>
-    </row>
-    <row r="536" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F536" s="1"/>
-      <c r="G536" s="1"/>
-      <c r="H536" s="1"/>
-      <c r="I536" s="1"/>
-      <c r="J536" s="1"/>
-      <c r="K536" s="1"/>
-      <c r="L536" s="1"/>
-      <c r="M536" s="1"/>
-      <c r="N536" s="1"/>
-      <c r="O536" s="1"/>
-      <c r="P536" s="1"/>
-      <c r="Q536" s="1"/>
     </row>
     <row r="537" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F537" s="1"/>
       <c r="G537" s="1"/>
       <c r="H537" s="1"/>
-      <c r="I537" s="1"/>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
@@ -5551,7 +5543,6 @@
       <c r="F538" s="1"/>
       <c r="G538" s="1"/>
       <c r="H538" s="1"/>
-      <c r="I538" s="1"/>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
@@ -5563,6 +5554,29 @@
     </row>
     <row r="539" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F539" s="1"/>
+      <c r="G539" s="1"/>
+      <c r="H539" s="1"/>
+      <c r="J539" s="1"/>
+      <c r="K539" s="1"/>
+      <c r="L539" s="1"/>
+      <c r="M539" s="1"/>
+      <c r="N539" s="1"/>
+      <c r="O539" s="1"/>
+      <c r="P539" s="1"/>
+      <c r="Q539" s="1"/>
+    </row>
+    <row r="540" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F540" s="1"/>
+      <c r="G540" s="1"/>
+      <c r="H540" s="1"/>
+      <c r="J540" s="1"/>
+      <c r="K540" s="1"/>
+      <c r="L540" s="1"/>
+      <c r="M540" s="1"/>
+      <c r="N540" s="1"/>
+      <c r="O540" s="1"/>
+      <c r="P540" s="1"/>
+      <c r="Q540" s="1"/>
     </row>
     <row r="541" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F541" s="1"/>
@@ -5594,6 +5608,7 @@
       <c r="F543" s="1"/>
       <c r="G543" s="1"/>
       <c r="H543" s="1"/>
+      <c r="I543" s="1"/>
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
       <c r="L543" s="1"/>
@@ -5607,6 +5622,7 @@
       <c r="F544" s="1"/>
       <c r="G544" s="1"/>
       <c r="H544" s="1"/>
+      <c r="I544" s="1"/>
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
       <c r="L544" s="1"/>
@@ -5614,39 +5630,14 @@
       <c r="N544" s="1"/>
       <c r="O544" s="1"/>
       <c r="P544" s="1"/>
-      <c r="Q544" s="1"/>
     </row>
     <row r="545" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F545" s="1"/>
-      <c r="G545" s="1"/>
-      <c r="H545" s="1"/>
-      <c r="J545" s="1"/>
-      <c r="K545" s="1"/>
-      <c r="L545" s="1"/>
-      <c r="M545" s="1"/>
-      <c r="N545" s="1"/>
-      <c r="O545" s="1"/>
-      <c r="P545" s="1"/>
-      <c r="Q545" s="1"/>
-    </row>
-    <row r="546" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F546" s="1"/>
-      <c r="G546" s="1"/>
-      <c r="H546" s="1"/>
-      <c r="J546" s="1"/>
-      <c r="K546" s="1"/>
-      <c r="L546" s="1"/>
-      <c r="M546" s="1"/>
-      <c r="N546" s="1"/>
-      <c r="O546" s="1"/>
-      <c r="P546" s="1"/>
-      <c r="Q546" s="1"/>
     </row>
     <row r="547" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F547" s="1"/>
       <c r="G547" s="1"/>
       <c r="H547" s="1"/>
-      <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
       <c r="L547" s="1"/>
@@ -5660,7 +5651,6 @@
       <c r="F548" s="1"/>
       <c r="G548" s="1"/>
       <c r="H548" s="1"/>
-      <c r="I548" s="1"/>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
@@ -5668,9 +5658,33 @@
       <c r="N548" s="1"/>
       <c r="O548" s="1"/>
       <c r="P548" s="1"/>
+      <c r="Q548" s="1"/>
     </row>
     <row r="549" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F549" s="1"/>
+      <c r="G549" s="1"/>
+      <c r="H549" s="1"/>
+      <c r="J549" s="1"/>
+      <c r="K549" s="1"/>
+      <c r="L549" s="1"/>
+      <c r="M549" s="1"/>
+      <c r="N549" s="1"/>
+      <c r="O549" s="1"/>
+      <c r="P549" s="1"/>
+      <c r="Q549" s="1"/>
+    </row>
+    <row r="550" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F550" s="1"/>
+      <c r="G550" s="1"/>
+      <c r="H550" s="1"/>
+      <c r="J550" s="1"/>
+      <c r="K550" s="1"/>
+      <c r="L550" s="1"/>
+      <c r="M550" s="1"/>
+      <c r="N550" s="1"/>
+      <c r="O550" s="1"/>
+      <c r="P550" s="1"/>
+      <c r="Q550" s="1"/>
     </row>
     <row r="551" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F551" s="1"/>
@@ -5702,6 +5716,7 @@
       <c r="F553" s="1"/>
       <c r="G553" s="1"/>
       <c r="H553" s="1"/>
+      <c r="I553" s="1"/>
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
@@ -5715,6 +5730,7 @@
       <c r="F554" s="1"/>
       <c r="G554" s="1"/>
       <c r="H554" s="1"/>
+      <c r="I554" s="1"/>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
       <c r="L554" s="1"/>
@@ -5722,39 +5738,14 @@
       <c r="N554" s="1"/>
       <c r="O554" s="1"/>
       <c r="P554" s="1"/>
-      <c r="Q554" s="1"/>
     </row>
     <row r="555" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F555" s="1"/>
-      <c r="G555" s="1"/>
-      <c r="H555" s="1"/>
-      <c r="J555" s="1"/>
-      <c r="K555" s="1"/>
-      <c r="L555" s="1"/>
-      <c r="M555" s="1"/>
-      <c r="N555" s="1"/>
-      <c r="O555" s="1"/>
-      <c r="P555" s="1"/>
-      <c r="Q555" s="1"/>
-    </row>
-    <row r="556" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F556" s="1"/>
-      <c r="G556" s="1"/>
-      <c r="H556" s="1"/>
-      <c r="J556" s="1"/>
-      <c r="K556" s="1"/>
-      <c r="L556" s="1"/>
-      <c r="M556" s="1"/>
-      <c r="N556" s="1"/>
-      <c r="O556" s="1"/>
-      <c r="P556" s="1"/>
-      <c r="Q556" s="1"/>
     </row>
     <row r="557" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F557" s="1"/>
       <c r="G557" s="1"/>
       <c r="H557" s="1"/>
-      <c r="I557" s="1"/>
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
       <c r="L557" s="1"/>
@@ -5768,7 +5759,6 @@
       <c r="F558" s="1"/>
       <c r="G558" s="1"/>
       <c r="H558" s="1"/>
-      <c r="I558" s="1"/>
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
       <c r="L558" s="1"/>
@@ -5776,9 +5766,33 @@
       <c r="N558" s="1"/>
       <c r="O558" s="1"/>
       <c r="P558" s="1"/>
+      <c r="Q558" s="1"/>
     </row>
     <row r="559" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F559" s="1"/>
+      <c r="G559" s="1"/>
+      <c r="H559" s="1"/>
+      <c r="J559" s="1"/>
+      <c r="K559" s="1"/>
+      <c r="L559" s="1"/>
+      <c r="M559" s="1"/>
+      <c r="N559" s="1"/>
+      <c r="O559" s="1"/>
+      <c r="P559" s="1"/>
+      <c r="Q559" s="1"/>
+    </row>
+    <row r="560" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F560" s="1"/>
+      <c r="G560" s="1"/>
+      <c r="H560" s="1"/>
+      <c r="J560" s="1"/>
+      <c r="K560" s="1"/>
+      <c r="L560" s="1"/>
+      <c r="M560" s="1"/>
+      <c r="N560" s="1"/>
+      <c r="O560" s="1"/>
+      <c r="P560" s="1"/>
+      <c r="Q560" s="1"/>
     </row>
     <row r="561" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F561" s="1"/>
@@ -5810,6 +5824,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
       <c r="H563" s="1"/>
+      <c r="I563" s="1"/>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
@@ -5819,36 +5834,11 @@
       <c r="P563" s="1"/>
       <c r="Q563" s="1"/>
     </row>
-    <row r="564" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
-      <c r="H564" s="1"/>
-      <c r="J564" s="1"/>
-      <c r="K564" s="1"/>
-      <c r="L564" s="1"/>
-      <c r="M564" s="1"/>
-      <c r="N564" s="1"/>
-      <c r="O564" s="1"/>
-      <c r="P564" s="1"/>
-      <c r="Q564" s="1"/>
-    </row>
-    <row r="565" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F565" s="1"/>
-      <c r="G565" s="1"/>
-      <c r="H565" s="1"/>
-      <c r="J565" s="1"/>
-      <c r="K565" s="1"/>
-      <c r="L565" s="1"/>
-      <c r="M565" s="1"/>
-      <c r="N565" s="1"/>
-      <c r="O565" s="1"/>
-      <c r="P565" s="1"/>
-      <c r="Q565" s="1"/>
-    </row>
     <row r="566" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F566" s="1"/>
       <c r="G566" s="1"/>
       <c r="H566" s="1"/>
+      <c r="I566" s="1"/>
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
@@ -5872,6 +5862,34 @@
       <c r="P567" s="1"/>
       <c r="Q567" s="1"/>
     </row>
+    <row r="568" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F568" s="1"/>
+      <c r="G568" s="1"/>
+      <c r="H568" s="1"/>
+      <c r="I568" s="1"/>
+      <c r="J568" s="1"/>
+      <c r="K568" s="1"/>
+      <c r="L568" s="1"/>
+      <c r="M568" s="1"/>
+      <c r="N568" s="1"/>
+      <c r="O568" s="1"/>
+      <c r="P568" s="1"/>
+      <c r="Q568" s="1"/>
+    </row>
+    <row r="569" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F569" s="1"/>
+      <c r="G569" s="1"/>
+      <c r="H569" s="1"/>
+      <c r="I569" s="1"/>
+      <c r="J569" s="1"/>
+      <c r="K569" s="1"/>
+      <c r="L569" s="1"/>
+      <c r="M569" s="1"/>
+      <c r="N569" s="1"/>
+      <c r="O569" s="1"/>
+      <c r="P569" s="1"/>
+      <c r="Q569" s="1"/>
+    </row>
     <row r="570" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F570" s="1"/>
       <c r="G570" s="1"/>
@@ -5926,41 +5944,14 @@
       <c r="N573" s="1"/>
       <c r="O573" s="1"/>
       <c r="P573" s="1"/>
-      <c r="Q573" s="1"/>
     </row>
     <row r="574" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F574" s="1"/>
-      <c r="G574" s="1"/>
-      <c r="H574" s="1"/>
-      <c r="I574" s="1"/>
-      <c r="J574" s="1"/>
-      <c r="K574" s="1"/>
-      <c r="L574" s="1"/>
-      <c r="M574" s="1"/>
-      <c r="N574" s="1"/>
-      <c r="O574" s="1"/>
-      <c r="P574" s="1"/>
-      <c r="Q574" s="1"/>
-    </row>
-    <row r="575" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F575" s="1"/>
-      <c r="G575" s="1"/>
-      <c r="H575" s="1"/>
-      <c r="I575" s="1"/>
-      <c r="J575" s="1"/>
-      <c r="K575" s="1"/>
-      <c r="L575" s="1"/>
-      <c r="M575" s="1"/>
-      <c r="N575" s="1"/>
-      <c r="O575" s="1"/>
-      <c r="P575" s="1"/>
-      <c r="Q575" s="1"/>
     </row>
     <row r="576" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F576" s="1"/>
       <c r="G576" s="1"/>
       <c r="H576" s="1"/>
-      <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
       <c r="L576" s="1"/>
@@ -5974,7 +5965,6 @@
       <c r="F577" s="1"/>
       <c r="G577" s="1"/>
       <c r="H577" s="1"/>
-      <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
@@ -5982,9 +5972,33 @@
       <c r="N577" s="1"/>
       <c r="O577" s="1"/>
       <c r="P577" s="1"/>
+      <c r="Q577" s="1"/>
     </row>
     <row r="578" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F578" s="1"/>
+      <c r="G578" s="1"/>
+      <c r="H578" s="1"/>
+      <c r="J578" s="1"/>
+      <c r="K578" s="1"/>
+      <c r="L578" s="1"/>
+      <c r="M578" s="1"/>
+      <c r="N578" s="1"/>
+      <c r="O578" s="1"/>
+      <c r="P578" s="1"/>
+      <c r="Q578" s="1"/>
+    </row>
+    <row r="579" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F579" s="1"/>
+      <c r="G579" s="1"/>
+      <c r="H579" s="1"/>
+      <c r="J579" s="1"/>
+      <c r="K579" s="1"/>
+      <c r="L579" s="1"/>
+      <c r="M579" s="1"/>
+      <c r="N579" s="1"/>
+      <c r="O579" s="1"/>
+      <c r="P579" s="1"/>
+      <c r="Q579" s="1"/>
     </row>
     <row r="580" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F580" s="1"/>
@@ -6016,6 +6030,7 @@
       <c r="F582" s="1"/>
       <c r="G582" s="1"/>
       <c r="H582" s="1"/>
+      <c r="I582" s="1"/>
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
       <c r="L582" s="1"/>
@@ -6025,23 +6040,11 @@
       <c r="P582" s="1"/>
       <c r="Q582" s="1"/>
     </row>
-    <row r="583" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F583" s="1"/>
-      <c r="G583" s="1"/>
-      <c r="H583" s="1"/>
-      <c r="J583" s="1"/>
-      <c r="K583" s="1"/>
-      <c r="L583" s="1"/>
-      <c r="M583" s="1"/>
-      <c r="N583" s="1"/>
-      <c r="O583" s="1"/>
-      <c r="P583" s="1"/>
-      <c r="Q583" s="1"/>
-    </row>
     <row r="584" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F584" s="1"/>
       <c r="G584" s="1"/>
       <c r="H584" s="1"/>
+      <c r="I584" s="1"/>
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
       <c r="L584" s="1"/>
@@ -6049,53 +6052,18 @@
       <c r="N584" s="1"/>
       <c r="O584" s="1"/>
       <c r="P584" s="1"/>
-      <c r="Q584" s="1"/>
-    </row>
-    <row r="585" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F585" s="1"/>
-      <c r="G585" s="1"/>
-      <c r="H585" s="1"/>
-      <c r="J585" s="1"/>
-      <c r="K585" s="1"/>
-      <c r="L585" s="1"/>
-      <c r="M585" s="1"/>
-      <c r="N585" s="1"/>
-      <c r="O585" s="1"/>
-      <c r="P585" s="1"/>
-      <c r="Q585" s="1"/>
-    </row>
-    <row r="586" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F586" s="1"/>
-      <c r="G586" s="1"/>
-      <c r="H586" s="1"/>
-      <c r="I586" s="1"/>
-      <c r="J586" s="1"/>
-      <c r="K586" s="1"/>
-      <c r="L586" s="1"/>
-      <c r="M586" s="1"/>
-      <c r="N586" s="1"/>
-      <c r="O586" s="1"/>
-      <c r="P586" s="1"/>
-      <c r="Q586" s="1"/>
     </row>
     <row r="588" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F588" s="1"/>
-      <c r="G588" s="1"/>
-      <c r="H588" s="1"/>
-      <c r="I588" s="1"/>
-      <c r="J588" s="1"/>
-      <c r="K588" s="1"/>
-      <c r="L588" s="1"/>
-      <c r="M588" s="1"/>
-      <c r="N588" s="1"/>
-      <c r="O588" s="1"/>
-      <c r="P588" s="1"/>
-    </row>
-    <row r="592" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F592" s="1"/>
-    </row>
-    <row r="600" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F600" s="1"/>
+    </row>
+    <row r="596" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F596" s="1"/>
+    </row>
+    <row r="603" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F603" s="1"/>
+    </row>
+    <row r="606" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F606" s="1"/>
     </row>
     <row r="607" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F607" s="1"/>
@@ -6105,57 +6073,92 @@
     </row>
     <row r="611" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F611" s="1"/>
-    </row>
-    <row r="614" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F614" s="1"/>
+      <c r="G611" s="1"/>
+    </row>
+    <row r="612" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F612" s="1"/>
     </row>
     <row r="615" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F615" s="1"/>
       <c r="G615" s="1"/>
+      <c r="H615" s="1"/>
+      <c r="I615" s="1"/>
+      <c r="J615" s="1"/>
+      <c r="K615" s="1"/>
+      <c r="L615" s="1"/>
+      <c r="M615" s="1"/>
+      <c r="N615" s="1"/>
+      <c r="O615" s="1"/>
+      <c r="P615" s="1"/>
     </row>
     <row r="616" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F616" s="1"/>
-    </row>
-    <row r="619" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F619" s="1"/>
-      <c r="G619" s="1"/>
-      <c r="H619" s="1"/>
-      <c r="I619" s="1"/>
-      <c r="J619" s="1"/>
-      <c r="K619" s="1"/>
-      <c r="L619" s="1"/>
-      <c r="M619" s="1"/>
-      <c r="N619" s="1"/>
-      <c r="O619" s="1"/>
-      <c r="P619" s="1"/>
-    </row>
-    <row r="620" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F620" s="1"/>
-      <c r="G620" s="1"/>
-      <c r="H620" s="1"/>
-      <c r="I620" s="1"/>
-      <c r="J620" s="1"/>
-      <c r="K620" s="1"/>
-      <c r="L620" s="1"/>
-      <c r="M620" s="1"/>
-      <c r="N620" s="1"/>
-      <c r="O620" s="1"/>
-      <c r="P620" s="1"/>
-    </row>
-    <row r="621" spans="6:16" x14ac:dyDescent="0.25">
-      <c r="F621" s="1"/>
-      <c r="G621" s="1"/>
-      <c r="H621" s="1"/>
-      <c r="I621" s="1"/>
-      <c r="J621" s="1"/>
-      <c r="K621" s="1"/>
-      <c r="L621" s="1"/>
-      <c r="M621" s="1"/>
-      <c r="N621" s="1"/>
-      <c r="O621" s="1"/>
-      <c r="P621" s="1"/>
+      <c r="G616" s="1"/>
+      <c r="H616" s="1"/>
+      <c r="I616" s="1"/>
+      <c r="J616" s="1"/>
+      <c r="K616" s="1"/>
+      <c r="L616" s="1"/>
+      <c r="M616" s="1"/>
+      <c r="N616" s="1"/>
+      <c r="O616" s="1"/>
+      <c r="P616" s="1"/>
+    </row>
+    <row r="617" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F617" s="1"/>
+      <c r="G617" s="1"/>
+      <c r="H617" s="1"/>
+      <c r="I617" s="1"/>
+      <c r="J617" s="1"/>
+      <c r="K617" s="1"/>
+      <c r="L617" s="1"/>
+      <c r="M617" s="1"/>
+      <c r="N617" s="1"/>
+      <c r="O617" s="1"/>
+      <c r="P617" s="1"/>
+    </row>
+    <row r="663" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F663" s="1"/>
+      <c r="G663" s="1"/>
+      <c r="H663" s="1"/>
+      <c r="I663" s="1"/>
+      <c r="J663" s="1"/>
+      <c r="K663" s="1"/>
+      <c r="L663" s="1"/>
+      <c r="M663" s="1"/>
+      <c r="N663" s="1"/>
+      <c r="O663" s="1"/>
+      <c r="P663" s="1"/>
+    </row>
+    <row r="664" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F664" s="1"/>
+      <c r="G664" s="1"/>
+      <c r="H664" s="1"/>
+      <c r="I664" s="1"/>
+      <c r="J664" s="1"/>
+      <c r="K664" s="1"/>
+      <c r="L664" s="1"/>
+      <c r="M664" s="1"/>
+      <c r="N664" s="1"/>
+      <c r="O664" s="1"/>
+      <c r="P664" s="1"/>
+    </row>
+    <row r="666" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E666" s="1"/>
+      <c r="F666" s="1"/>
+      <c r="G666" s="1"/>
+      <c r="H666" s="1"/>
+      <c r="I666" s="1"/>
+      <c r="J666" s="1"/>
+      <c r="K666" s="1"/>
+      <c r="L666" s="1"/>
+      <c r="M666" s="1"/>
+      <c r="N666" s="1"/>
+      <c r="O666" s="1"/>
+      <c r="P666" s="1"/>
     </row>
     <row r="667" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E667" s="1"/>
       <c r="F667" s="1"/>
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
@@ -6181,8 +6184,20 @@
       <c r="O668" s="1"/>
       <c r="P668" s="1"/>
     </row>
+    <row r="669" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="F669" s="1"/>
+      <c r="G669" s="1"/>
+      <c r="H669" s="1"/>
+      <c r="I669" s="1"/>
+      <c r="J669" s="1"/>
+      <c r="K669" s="1"/>
+      <c r="L669" s="1"/>
+      <c r="M669" s="1"/>
+      <c r="N669" s="1"/>
+      <c r="O669" s="1"/>
+      <c r="P669" s="1"/>
+    </row>
     <row r="670" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E670" s="1"/>
       <c r="F670" s="1"/>
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
@@ -6196,7 +6211,6 @@
       <c r="P670" s="1"/>
     </row>
     <row r="671" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E671" s="1"/>
       <c r="F671" s="1"/>
       <c r="G671" s="1"/>
       <c r="H671" s="1"/>
@@ -6249,6 +6263,7 @@
       <c r="P674" s="1"/>
     </row>
     <row r="675" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E675" s="1"/>
       <c r="F675" s="1"/>
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
@@ -6262,6 +6277,7 @@
       <c r="P675" s="1"/>
     </row>
     <row r="676" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E676" s="1"/>
       <c r="F676" s="1"/>
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
@@ -6301,7 +6317,6 @@
       <c r="P678" s="1"/>
     </row>
     <row r="679" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E679" s="1"/>
       <c r="F679" s="1"/>
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
@@ -6315,7 +6330,6 @@
       <c r="P679" s="1"/>
     </row>
     <row r="680" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E680" s="1"/>
       <c r="F680" s="1"/>
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
@@ -6328,66 +6342,14 @@
       <c r="O680" s="1"/>
       <c r="P680" s="1"/>
     </row>
-    <row r="681" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F681" s="1"/>
-      <c r="G681" s="1"/>
-      <c r="H681" s="1"/>
-      <c r="I681" s="1"/>
-      <c r="J681" s="1"/>
-      <c r="K681" s="1"/>
-      <c r="L681" s="1"/>
-      <c r="M681" s="1"/>
-      <c r="N681" s="1"/>
-      <c r="O681" s="1"/>
-      <c r="P681" s="1"/>
-    </row>
-    <row r="682" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F682" s="1"/>
-      <c r="G682" s="1"/>
-      <c r="H682" s="1"/>
-      <c r="I682" s="1"/>
-      <c r="J682" s="1"/>
-      <c r="K682" s="1"/>
-      <c r="L682" s="1"/>
-      <c r="M682" s="1"/>
-      <c r="N682" s="1"/>
-      <c r="O682" s="1"/>
-      <c r="P682" s="1"/>
-    </row>
-    <row r="683" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F683" s="1"/>
-      <c r="G683" s="1"/>
-      <c r="H683" s="1"/>
-      <c r="I683" s="1"/>
-      <c r="J683" s="1"/>
-      <c r="K683" s="1"/>
-      <c r="L683" s="1"/>
-      <c r="M683" s="1"/>
-      <c r="N683" s="1"/>
-      <c r="O683" s="1"/>
-      <c r="P683" s="1"/>
-    </row>
-    <row r="684" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="F684" s="1"/>
-      <c r="G684" s="1"/>
-      <c r="H684" s="1"/>
-      <c r="I684" s="1"/>
-      <c r="J684" s="1"/>
-      <c r="K684" s="1"/>
-      <c r="L684" s="1"/>
-      <c r="M684" s="1"/>
-      <c r="N684" s="1"/>
-      <c r="O684" s="1"/>
-      <c r="P684" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L570:P570 I570:J570">
+  <conditionalFormatting sqref="L566:P566 I566:J566">
     <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L289:Q289 I289:J289">
+  <conditionalFormatting sqref="L285:Q285 I285:J285">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L171:P171 I171:J171">
+  <conditionalFormatting sqref="L167:P167 I167:J167">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6397,10 +6359,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6636,55 +6598,29 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="7" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6787,7 +6723,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6814,10 +6750,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="b">
         <v>0</v>
@@ -6825,7 +6761,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>16</v>
@@ -6836,10 +6772,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="b">
         <v>0</v>
@@ -6847,7 +6783,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -6858,7 +6794,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>8</v>
@@ -6869,10 +6805,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" s="8" t="b">
         <v>0</v>
@@ -6880,10 +6816,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="b">
         <v>0</v>
@@ -6891,7 +6827,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -6901,22 +6837,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="9" t="b">
-        <v>1</v>
+      <c r="A10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C11" s="9" t="b">
         <v>1</v>
@@ -6924,10 +6860,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9" t="b">
         <v>1</v>
@@ -6935,18 +6871,18 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C13" s="9" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C13">
-    <sortCondition ref="A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:C13">
+    <sortCondition ref="A11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
